--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD846A8C-5581-45EC-B677-8A1603D81909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E730BC3-E135-4C7A-98EF-D879542CDB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.7968317945868376E-3</v>
+        <v>1.5356887047151865E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D198" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D199" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E198" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E199" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9636,8 +9636,27 @@
       </c>
     </row>
     <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B199">
+        <v>3.9211299999999998</v>
+      </c>
       <c r="C199">
         <v>3.9710394999999998</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="42"/>
+        <v>-4.9909500000000051E-2</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="C200">
+        <v>3.9180411999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10786,11 +10805,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I473"/>
+  <dimension ref="A1:I474"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A472" sqref="A472:B472"/>
+      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C475" sqref="C475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10820,7 +10839,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.453319515329324E-2</v>
+        <v>-1.4590185629663381E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19702,11 +19721,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D472" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D473" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E472" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E473" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19901,8 +19920,27 @@
       </c>
     </row>
     <row r="473" spans="1:5">
+      <c r="A473" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B473">
+        <v>4.2534000000000001</v>
+      </c>
       <c r="C473">
         <v>4.2948326999999997</v>
+      </c>
+      <c r="D473">
+        <f t="shared" si="109"/>
+        <v>-4.1432699999999656E-2</v>
+      </c>
+      <c r="E473">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="C474">
+        <v>4.2602605999999996</v>
       </c>
     </row>
   </sheetData>
@@ -22126,7 +22164,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23753,6 +23791,9 @@
     <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>45439</v>
+      </c>
+      <c r="B140">
+        <v>4.2534000000000001</v>
       </c>
       <c r="C140" s="61">
         <v>4.2587624000000002</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E730BC3-E135-4C7A-98EF-D879542CDB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC732F5-EE34-435B-8772-A25A2AAC929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.5356887047151865E-3</v>
+        <v>1.5448952941387302E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D199" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D200" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E199" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E200" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9655,8 +9655,27 @@
       </c>
     </row>
     <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B200">
+        <v>3.9214090000000001</v>
+      </c>
       <c r="C200">
         <v>3.9180411999999998</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="42"/>
+        <v>3.3678000000003649E-3</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="C201">
+        <v>3.9559543000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10805,11 +10824,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I474"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C475" sqref="C475"/>
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A474" sqref="A474:B474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10839,7 +10858,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4590185629663381E-2</v>
+        <v>-1.456162413784591E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19721,11 +19740,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D473" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D474" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E473" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E474" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19939,8 +19958,27 @@
       </c>
     </row>
     <row r="474" spans="1:5">
+      <c r="A474" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B474">
+        <v>4.2591799999999997</v>
+      </c>
       <c r="C474">
         <v>4.2602605999999996</v>
+      </c>
+      <c r="D474">
+        <f t="shared" si="109"/>
+        <v>-1.0805999999998761E-3</v>
+      </c>
+      <c r="E474">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="C475">
+        <v>4.3184189999999996</v>
       </c>
     </row>
   </sheetData>
@@ -22162,9 +22200,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141:B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23802,6 +23840,9 @@
     <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>45440</v>
+      </c>
+      <c r="B141">
+        <v>4.2591799999999997</v>
       </c>
       <c r="C141" s="61">
         <v>4.2493686999999998</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC732F5-EE34-435B-8772-A25A2AAC929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3F6B6-9DCF-4361-86A6-3362818B739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,10 +5769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.5448952941387302E-3</v>
+        <v>1.3448993176680356E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D200" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D201" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E200" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E201" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9674,8 +9674,27 @@
       </c>
     </row>
     <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B201">
+        <v>3.9175</v>
+      </c>
       <c r="C201">
         <v>3.9559543000000001</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="42"/>
+        <v>-3.8454300000000163E-2</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>45442</v>
       </c>
     </row>
   </sheetData>
@@ -10824,11 +10843,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I475"/>
+  <dimension ref="A1:I476"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A474" sqref="A474:B474"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A475" sqref="A475:B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10858,7 +10877,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.456162413784591E-2</v>
+        <v>-1.4679677673420075E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19740,11 +19759,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D474" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D475" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E474" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E475" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19977,8 +19996,27 @@
       </c>
     </row>
     <row r="475" spans="1:5">
+      <c r="A475" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B475">
+        <v>4.2478999999999996</v>
+      </c>
       <c r="C475">
         <v>4.3184189999999996</v>
+      </c>
+      <c r="D475">
+        <f t="shared" si="109"/>
+        <v>-7.0518999999999998E-2</v>
+      </c>
+      <c r="E475">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="1">
+        <v>45442</v>
       </c>
     </row>
   </sheetData>
@@ -22200,9 +22238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141:B141"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23851,6 +23889,9 @@
     <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>45441</v>
+      </c>
+      <c r="B142">
+        <v>4.2478999999999996</v>
       </c>
       <c r="C142" s="61">
         <v>4.2369139999999996</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3F6B6-9DCF-4361-86A6-3362818B739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FDC3D8-7ABE-4BCF-A656-BE50EE033133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.3448993176680356E-3</v>
+        <v>1.8135863857393388E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D201" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D202" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E201" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E202" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9695,6 +9695,26 @@
     <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>45442</v>
+      </c>
+      <c r="B202">
+        <v>3.96129</v>
+      </c>
+      <c r="C202">
+        <v>3.865739</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="42"/>
+        <v>9.5550999999999942E-2</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1"/>
+      <c r="C203">
+        <v>3.9396287999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10843,11 +10863,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I476"/>
+  <dimension ref="A1:I477"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A475" sqref="A475:B475"/>
+      <selection pane="bottomLeft" activeCell="A476" sqref="A476:B476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10877,7 +10897,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4679677673420075E-2</v>
+        <v>-1.4576892457265506E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19759,11 +19779,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D475" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D476" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E475" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E476" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20017,6 +20037,26 @@
     <row r="476" spans="1:5">
       <c r="A476" s="1">
         <v>45442</v>
+      </c>
+      <c r="B476">
+        <v>4.2795800000000002</v>
+      </c>
+      <c r="C476">
+        <v>4.2454367</v>
+      </c>
+      <c r="D476">
+        <f t="shared" si="109"/>
+        <v>3.414330000000021E-2</v>
+      </c>
+      <c r="E476">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="1"/>
+      <c r="C477">
+        <v>4.3186239999999998</v>
       </c>
     </row>
   </sheetData>
@@ -22236,18 +22276,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="61"/>
-    <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="61" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23901,8 +23941,51 @@
       <c r="A143" s="1">
         <v>45442</v>
       </c>
+      <c r="B143">
+        <v>4.2795800000000002</v>
+      </c>
       <c r="C143" s="61">
         <v>4.2255105999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>45443</v>
+      </c>
+      <c r="C144" s="61">
+        <v>4.2599770000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>45446</v>
+      </c>
+      <c r="C145" s="61">
+        <v>4.2539444</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>45447</v>
+      </c>
+      <c r="C146" s="61">
+        <v>4.2446365000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>45448</v>
+      </c>
+      <c r="C147" s="61">
+        <v>4.2427029999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>45449</v>
+      </c>
+      <c r="C148" s="61">
+        <v>4.2376040000000001</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FDC3D8-7ABE-4BCF-A656-BE50EE033133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C481245-20B5-44F9-B979-3A4BD3A5CD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I203"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
+      <selection pane="bottomLeft" activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.8135863857393388E-3</v>
+        <v>1.8560745719485509E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D202" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D203" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E202" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E203" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9712,9 +9712,27 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B203">
+        <v>3.9500250000000001</v>
+      </c>
       <c r="C203">
         <v>3.9396287999999999</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="42"/>
+        <v>1.0396200000000189E-2</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="C204">
+        <v>3.9554334</v>
       </c>
     </row>
   </sheetData>
@@ -10863,11 +10881,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I477"/>
+  <dimension ref="A1:I478"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A476" sqref="A476:B476"/>
+      <selection pane="bottomLeft" activeCell="C479" sqref="C479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10897,7 +10915,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4576892457265506E-2</v>
+        <v>-1.4630667893279653E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19779,11 +19797,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D476" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D477" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E476" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E477" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20054,9 +20072,27 @@
       </c>
     </row>
     <row r="477" spans="1:5">
-      <c r="A477" s="1"/>
+      <c r="A477" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B477">
+        <v>4.2784500000000003</v>
+      </c>
       <c r="C477">
         <v>4.3186239999999998</v>
+      </c>
+      <c r="D477">
+        <f t="shared" si="109"/>
+        <v>-4.0173999999999488E-2</v>
+      </c>
+      <c r="E477">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="C478">
+        <v>4.3085345999999998</v>
       </c>
     </row>
   </sheetData>
@@ -22280,7 +22316,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23951,6 +23987,9 @@
     <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>45443</v>
+      </c>
+      <c r="B144">
+        <v>4.2784500000000003</v>
       </c>
       <c r="C144" s="61">
         <v>4.2599770000000001</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C481245-20B5-44F9-B979-3A4BD3A5CD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009D154-A3E7-468E-A20C-049B3E197F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:I205"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B204" sqref="B204"/>
+      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.8560745719485509E-3</v>
+        <v>1.7479195247960956E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D203" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D204" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E203" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E204" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9731,8 +9731,27 @@
       </c>
     </row>
     <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B204">
+        <v>3.9353340000000001</v>
+      </c>
       <c r="C204">
         <v>3.9554334</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="42"/>
+        <v>-2.0099399999999878E-2</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="C205">
+        <v>3.9314450000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10881,11 +10900,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I478"/>
+  <dimension ref="A1:I479"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C479" sqref="C479"/>
+      <selection pane="bottomLeft" activeCell="A478" sqref="A478:B478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10915,7 +10934,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4630667893279653E-2</v>
+        <v>-1.4678894166040072E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19797,11 +19816,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D477" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D478" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E477" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E478" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20091,8 +20110,27 @@
       </c>
     </row>
     <row r="478" spans="1:5">
+      <c r="A478" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B478">
+        <v>4.2709000000000001</v>
+      </c>
       <c r="C478">
         <v>4.3085345999999998</v>
+      </c>
+      <c r="D478">
+        <f t="shared" si="109"/>
+        <v>-3.7634599999999629E-2</v>
+      </c>
+      <c r="E478">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="C479">
+        <v>4.2974420000000002</v>
       </c>
     </row>
   </sheetData>
@@ -22316,7 +22354,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23998,6 +24036,9 @@
     <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>45446</v>
+      </c>
+      <c r="B145">
+        <v>4.2709000000000001</v>
       </c>
       <c r="C145" s="61">
         <v>4.2539444</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B009D154-A3E7-468E-A20C-049B3E197F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DB688D-240A-47B1-BB61-050A97E972CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A205" sqref="A205"/>
+      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.7479195247960956E-3</v>
+        <v>1.6533463898706238E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D204" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D205" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E204" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E205" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9750,8 +9750,27 @@
       </c>
     </row>
     <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B205">
+        <v>3.9138999999999999</v>
+      </c>
       <c r="C205">
         <v>3.9314450000000001</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="42"/>
+        <v>-1.7545000000000144E-2</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="C206">
+        <v>3.9227761999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10900,11 +10919,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I479"/>
+  <dimension ref="A1:I480"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A478" sqref="A478:B478"/>
+      <selection pane="bottomLeft" activeCell="A479" sqref="A479:B479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10934,7 +10953,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4678894166040072E-2</v>
+        <v>-1.4707059659416556E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19816,11 +19835,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D478" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D479" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E478" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E479" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20129,8 +20148,27 @@
       </c>
     </row>
     <row r="479" spans="1:5">
+      <c r="A479" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B479">
+        <v>4.2693000000000003</v>
+      </c>
       <c r="C479">
         <v>4.2974420000000002</v>
+      </c>
+      <c r="D479">
+        <f t="shared" si="109"/>
+        <v>-2.8141999999999889E-2</v>
+      </c>
+      <c r="E479">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="C480">
+        <v>4.3086330000000004</v>
       </c>
     </row>
   </sheetData>
@@ -22354,7 +22392,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145:B145"/>
+      <selection pane="bottomLeft" activeCell="A146" sqref="A146:B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24047,6 +24085,9 @@
     <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>45447</v>
+      </c>
+      <c r="B146">
+        <v>4.2693000000000003</v>
       </c>
       <c r="C146" s="61">
         <v>4.2446365000000004</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DB688D-240A-47B1-BB61-050A97E972CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF374F97-C70D-4E0A-83C2-70B84E95AF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C207" sqref="C207"/>
+      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.6533463898706238E-3</v>
+        <v>1.8127193343102806E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D205" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D206" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E205" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E206" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9769,8 +9769,27 @@
       </c>
     </row>
     <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B206">
+        <v>3.9571010000000002</v>
+      </c>
       <c r="C206">
         <v>3.9227761999999999</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="42"/>
+        <v>3.4324800000000266E-2</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="C207">
+        <v>3.9627435000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10919,11 +10938,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I480"/>
+  <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A479" sqref="A479:B479"/>
+      <selection pane="bottomLeft" activeCell="A480" sqref="A480:B480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10953,7 +10972,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4707059659416556E-2</v>
+        <v>-1.4682061622549298E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19835,11 +19854,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D479" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D480" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E479" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E480" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20167,8 +20186,27 @@
       </c>
     </row>
     <row r="480" spans="1:5">
+      <c r="A480" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B480">
+        <v>4.3059000000000003</v>
+      </c>
       <c r="C480">
         <v>4.3086330000000004</v>
+      </c>
+      <c r="D480">
+        <f t="shared" si="109"/>
+        <v>-2.7330000000000965E-3</v>
+      </c>
+      <c r="E480">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481">
+        <v>4.3690705000000003</v>
       </c>
     </row>
   </sheetData>
@@ -22390,9 +22428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A146" sqref="A146:B146"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24096,6 +24134,9 @@
     <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>45448</v>
+      </c>
+      <c r="B147">
+        <v>4.3059000000000003</v>
       </c>
       <c r="C147" s="61">
         <v>4.2427029999999997</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF374F97-C70D-4E0A-83C2-70B84E95AF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AAA9C2-12D0-436A-9060-2A11C8799D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I207"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.8127193343102806E-3</v>
+        <v>1.704160017153434E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D206" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D207" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E206" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E207" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9788,8 +9788,27 @@
       </c>
     </row>
     <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B207">
+        <v>3.9421930000000001</v>
+      </c>
       <c r="C207">
         <v>3.9627435000000002</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="42"/>
+        <v>-2.0550500000000138E-2</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="C208">
+        <v>3.9380217000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10938,11 +10957,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I481"/>
+  <dimension ref="A1:I482"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A480" sqref="A480:B480"/>
+      <selection pane="bottomLeft" activeCell="C483" sqref="C483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10972,7 +10991,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4682061622549298E-2</v>
+        <v>-1.4822870869168987E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19854,11 +19873,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D480" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D481" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E480" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E481" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20204,9 +20223,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="3:3">
+    <row r="481" spans="1:5">
+      <c r="A481" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B481">
+        <v>4.2868000000000004</v>
+      </c>
       <c r="C481">
         <v>4.3690705000000003</v>
+      </c>
+      <c r="D481">
+        <f t="shared" si="109"/>
+        <v>-8.2270499999999913E-2</v>
+      </c>
+      <c r="E481">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="C482">
+        <v>4.3583270000000001</v>
       </c>
     </row>
   </sheetData>
@@ -22426,11 +22464,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147:B147"/>
+      <selection pane="bottomLeft" activeCell="A150" sqref="A150:A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24146,8 +24184,51 @@
       <c r="A148" s="1">
         <v>45449</v>
       </c>
+      <c r="B148">
+        <v>4.2868000000000004</v>
+      </c>
       <c r="C148" s="61">
         <v>4.2376040000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>45450</v>
+      </c>
+      <c r="C149" s="61">
+        <v>4.293717</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>45453</v>
+      </c>
+      <c r="C150" s="61">
+        <v>4.2687109999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>45454</v>
+      </c>
+      <c r="C151" s="61">
+        <v>4.2596179999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>45455</v>
+      </c>
+      <c r="C152" s="61">
+        <v>4.2682609999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>45456</v>
+      </c>
+      <c r="C153" s="61">
+        <v>4.2667619999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AAA9C2-12D0-436A-9060-2A11C8799D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2885388C-3F21-4ADD-880B-6A961544F6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:I212"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D210" sqref="D210:E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.704160017153434E-3</v>
+        <v>2.6395460168267015E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D207" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D199" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E207" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E209" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9659,13 +9659,14 @@
         <v>45440</v>
       </c>
       <c r="B200">
-        <v>3.9214090000000001</v>
+        <f>AVERAGE(B191:B199)</f>
+        <v>3.9243711111111108</v>
       </c>
       <c r="C200">
         <v>3.9180411999999998</v>
       </c>
       <c r="D200">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="D200:D209" si="44">B201-C200</f>
         <v>3.3678000000003649E-3</v>
       </c>
       <c r="E200">
@@ -9678,13 +9679,13 @@
         <v>45441</v>
       </c>
       <c r="B201">
-        <v>3.9175</v>
+        <v>3.9214090000000001</v>
       </c>
       <c r="C201">
         <v>3.9559543000000001</v>
       </c>
       <c r="D201">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-3.8454300000000163E-2</v>
       </c>
       <c r="E201">
@@ -9697,13 +9698,13 @@
         <v>45442</v>
       </c>
       <c r="B202">
-        <v>3.96129</v>
+        <v>3.9175</v>
       </c>
       <c r="C202">
         <v>3.865739</v>
       </c>
       <c r="D202">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>9.5550999999999942E-2</v>
       </c>
       <c r="E202">
@@ -9716,13 +9717,13 @@
         <v>45443</v>
       </c>
       <c r="B203">
-        <v>3.9500250000000001</v>
+        <v>3.96129</v>
       </c>
       <c r="C203">
         <v>3.9396287999999999</v>
       </c>
       <c r="D203">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.0396200000000189E-2</v>
       </c>
       <c r="E203">
@@ -9735,13 +9736,13 @@
         <v>45446</v>
       </c>
       <c r="B204">
-        <v>3.9353340000000001</v>
+        <v>3.9500250000000001</v>
       </c>
       <c r="C204">
         <v>3.9554334</v>
       </c>
       <c r="D204">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.0099399999999878E-2</v>
       </c>
       <c r="E204">
@@ -9754,13 +9755,13 @@
         <v>45447</v>
       </c>
       <c r="B205">
-        <v>3.9138999999999999</v>
+        <v>3.9353340000000001</v>
       </c>
       <c r="C205">
         <v>3.9314450000000001</v>
       </c>
       <c r="D205">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-1.7545000000000144E-2</v>
       </c>
       <c r="E205">
@@ -9773,13 +9774,13 @@
         <v>45448</v>
       </c>
       <c r="B206">
-        <v>3.9571010000000002</v>
+        <v>3.9138999999999999</v>
       </c>
       <c r="C206">
         <v>3.9227761999999999</v>
       </c>
       <c r="D206">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3.4324800000000266E-2</v>
       </c>
       <c r="E206">
@@ -9792,13 +9793,13 @@
         <v>45449</v>
       </c>
       <c r="B207">
-        <v>3.9421930000000001</v>
+        <v>3.9571010000000002</v>
       </c>
       <c r="C207">
         <v>3.9627435000000002</v>
       </c>
       <c r="D207">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-2.0550500000000138E-2</v>
       </c>
       <c r="E207">
@@ -9807,8 +9808,84 @@
       </c>
     </row>
     <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B208">
+        <v>3.9421930000000001</v>
+      </c>
       <c r="C208">
         <v>3.9380217000000002</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="44"/>
+        <v>-6.5117000000003422E-3</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B209">
+        <v>3.9315099999999998</v>
+      </c>
+      <c r="C209">
+        <v>3.8999134999999998</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="44"/>
+        <v>9.4427500000000109E-2</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B210">
+        <v>3.9943409999999999</v>
+      </c>
+      <c r="C210">
+        <v>4.0186485999999997</v>
+      </c>
+      <c r="D210">
+        <f>B210-C209</f>
+        <v>9.4427500000000109E-2</v>
+      </c>
+      <c r="E210">
+        <f t="shared" ref="E210" si="45">IF(D210&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B211">
+        <v>4.0395529999999997</v>
+      </c>
+      <c r="C211">
+        <v>3.9951729999999999</v>
+      </c>
+      <c r="D211">
+        <f>B211-C210</f>
+        <v>2.0904400000000045E-2</v>
+      </c>
+      <c r="E211">
+        <f t="shared" ref="E211" si="46">IF(D211&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="C212">
+        <v>4.0563130000000003</v>
       </c>
     </row>
   </sheetData>
@@ -10957,11 +11034,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I482"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C483" sqref="C483"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C487" sqref="C487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10991,7 +11068,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4822870869168987E-2</v>
+        <v>-1.4915176688432057E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19873,11 +19950,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D481" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D473" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E481" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E483" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20095,13 +20172,14 @@
         <v>45440</v>
       </c>
       <c r="B474">
-        <v>4.2591799999999997</v>
+        <f>AVERAGE(B465:B473)</f>
+        <v>4.2575411111111103</v>
       </c>
       <c r="C474">
         <v>4.2602605999999996</v>
       </c>
       <c r="D474">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="D474:D483" si="111">B475-C474</f>
         <v>-1.0805999999998761E-3</v>
       </c>
       <c r="E474">
@@ -20114,13 +20192,13 @@
         <v>45441</v>
       </c>
       <c r="B475">
-        <v>4.2478999999999996</v>
+        <v>4.2591799999999997</v>
       </c>
       <c r="C475">
         <v>4.3184189999999996</v>
       </c>
       <c r="D475">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-7.0518999999999998E-2</v>
       </c>
       <c r="E475">
@@ -20133,13 +20211,13 @@
         <v>45442</v>
       </c>
       <c r="B476">
-        <v>4.2795800000000002</v>
+        <v>4.2478999999999996</v>
       </c>
       <c r="C476">
         <v>4.2454367</v>
       </c>
       <c r="D476">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>3.414330000000021E-2</v>
       </c>
       <c r="E476">
@@ -20152,13 +20230,13 @@
         <v>45443</v>
       </c>
       <c r="B477">
-        <v>4.2784500000000003</v>
+        <v>4.2795800000000002</v>
       </c>
       <c r="C477">
         <v>4.3186239999999998</v>
       </c>
       <c r="D477">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-4.0173999999999488E-2</v>
       </c>
       <c r="E477">
@@ -20171,13 +20249,13 @@
         <v>45446</v>
       </c>
       <c r="B478">
-        <v>4.2709000000000001</v>
+        <v>4.2784500000000003</v>
       </c>
       <c r="C478">
         <v>4.3085345999999998</v>
       </c>
       <c r="D478">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-3.7634599999999629E-2</v>
       </c>
       <c r="E478">
@@ -20190,13 +20268,13 @@
         <v>45447</v>
       </c>
       <c r="B479">
-        <v>4.2693000000000003</v>
+        <v>4.2709000000000001</v>
       </c>
       <c r="C479">
         <v>4.2974420000000002</v>
       </c>
       <c r="D479">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-2.8141999999999889E-2</v>
       </c>
       <c r="E479">
@@ -20209,13 +20287,13 @@
         <v>45448</v>
       </c>
       <c r="B480">
-        <v>4.3059000000000003</v>
+        <v>4.2693000000000003</v>
       </c>
       <c r="C480">
         <v>4.3086330000000004</v>
       </c>
       <c r="D480">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-2.7330000000000965E-3</v>
       </c>
       <c r="E480">
@@ -20228,13 +20306,13 @@
         <v>45449</v>
       </c>
       <c r="B481">
-        <v>4.2868000000000004</v>
+        <v>4.3059000000000003</v>
       </c>
       <c r="C481">
         <v>4.3690705000000003</v>
       </c>
       <c r="D481">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-8.2270499999999913E-2</v>
       </c>
       <c r="E481">
@@ -20243,8 +20321,84 @@
       </c>
     </row>
     <row r="482" spans="1:5">
+      <c r="A482" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B482">
+        <v>4.2868000000000004</v>
+      </c>
       <c r="C482">
         <v>4.3583270000000001</v>
+      </c>
+      <c r="D482">
+        <f t="shared" si="111"/>
+        <v>-7.6487000000000194E-2</v>
+      </c>
+      <c r="E482">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B483">
+        <v>4.2818399999999999</v>
+      </c>
+      <c r="C483">
+        <v>4.3210680000000004</v>
+      </c>
+      <c r="D483">
+        <f t="shared" si="111"/>
+        <v>-1.5768000000000448E-2</v>
+      </c>
+      <c r="E483">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B484">
+        <v>4.3052999999999999</v>
+      </c>
+      <c r="C484">
+        <v>4.3344244999999999</v>
+      </c>
+      <c r="D484">
+        <f>B484-C483</f>
+        <v>-1.5768000000000448E-2</v>
+      </c>
+      <c r="E484">
+        <f t="shared" ref="E484" si="112">IF(D484&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B485">
+        <v>4.3384799999999997</v>
+      </c>
+      <c r="C485">
+        <v>4.3305235</v>
+      </c>
+      <c r="D485">
+        <f>B485-C484</f>
+        <v>4.0554999999997676E-3</v>
+      </c>
+      <c r="E485">
+        <f t="shared" ref="E485" si="113">IF(D485&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="C486">
+        <v>4.3823733000000002</v>
       </c>
     </row>
   </sheetData>
@@ -22466,9 +22620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A150" sqref="A150:A153"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24108,7 +24262,7 @@
         <v>45440</v>
       </c>
       <c r="B141">
-        <v>4.2591799999999997</v>
+        <v>4.2575411111111103</v>
       </c>
       <c r="C141" s="61">
         <v>4.2493686999999998</v>
@@ -24119,7 +24273,7 @@
         <v>45441</v>
       </c>
       <c r="B142">
-        <v>4.2478999999999996</v>
+        <v>4.2591799999999997</v>
       </c>
       <c r="C142" s="61">
         <v>4.2369139999999996</v>
@@ -24130,7 +24284,7 @@
         <v>45442</v>
       </c>
       <c r="B143">
-        <v>4.2795800000000002</v>
+        <v>4.2478999999999996</v>
       </c>
       <c r="C143" s="61">
         <v>4.2255105999999998</v>
@@ -24141,7 +24295,7 @@
         <v>45443</v>
       </c>
       <c r="B144">
-        <v>4.2784500000000003</v>
+        <v>4.2795800000000002</v>
       </c>
       <c r="C144" s="61">
         <v>4.2599770000000001</v>
@@ -24152,7 +24306,7 @@
         <v>45446</v>
       </c>
       <c r="B145">
-        <v>4.2709000000000001</v>
+        <v>4.2784500000000003</v>
       </c>
       <c r="C145" s="61">
         <v>4.2539444</v>
@@ -24163,7 +24317,7 @@
         <v>45447</v>
       </c>
       <c r="B146">
-        <v>4.2693000000000003</v>
+        <v>4.2709000000000001</v>
       </c>
       <c r="C146" s="61">
         <v>4.2446365000000004</v>
@@ -24174,7 +24328,7 @@
         <v>45448</v>
       </c>
       <c r="B147">
-        <v>4.3059000000000003</v>
+        <v>4.2693000000000003</v>
       </c>
       <c r="C147" s="61">
         <v>4.2427029999999997</v>
@@ -24185,7 +24339,7 @@
         <v>45449</v>
       </c>
       <c r="B148">
-        <v>4.2868000000000004</v>
+        <v>4.3059000000000003</v>
       </c>
       <c r="C148" s="61">
         <v>4.2376040000000001</v>
@@ -24195,6 +24349,9 @@
       <c r="A149" s="1">
         <v>45450</v>
       </c>
+      <c r="B149">
+        <v>4.2868000000000004</v>
+      </c>
       <c r="C149" s="61">
         <v>4.293717</v>
       </c>
@@ -24203,6 +24360,9 @@
       <c r="A150" s="1">
         <v>45453</v>
       </c>
+      <c r="B150">
+        <v>4.2818399999999999</v>
+      </c>
       <c r="C150" s="61">
         <v>4.2687109999999997</v>
       </c>
@@ -24211,6 +24371,9 @@
       <c r="A151" s="1">
         <v>45454</v>
       </c>
+      <c r="B151" s="61">
+        <v>4.3052999999999999</v>
+      </c>
       <c r="C151" s="61">
         <v>4.2596179999999997</v>
       </c>
@@ -24218,6 +24381,9 @@
     <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>45455</v>
+      </c>
+      <c r="B152">
+        <v>4.3384799999999997</v>
       </c>
       <c r="C152" s="61">
         <v>4.2682609999999999</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2885388C-3F21-4ADD-880B-6A961544F6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F4DAD-5EBF-4FE8-9ACD-CCCDCC14A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D210" sqref="D210:E211"/>
+      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.6395460168267015E-3</v>
+        <v>1.6042477471313659E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D199" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D212" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9666,8 +9666,8 @@
         <v>3.9180411999999998</v>
       </c>
       <c r="D200">
-        <f t="shared" ref="D200:D209" si="44">B201-C200</f>
-        <v>3.3678000000003649E-3</v>
+        <f t="shared" si="42"/>
+        <v>6.3299111111110307E-3</v>
       </c>
       <c r="E200">
         <f t="shared" si="43"/>
@@ -9685,8 +9685,8 @@
         <v>3.9559543000000001</v>
       </c>
       <c r="D201">
-        <f t="shared" si="44"/>
-        <v>-3.8454300000000163E-2</v>
+        <f t="shared" si="42"/>
+        <v>-3.4545300000000001E-2</v>
       </c>
       <c r="E201">
         <f t="shared" si="43"/>
@@ -9704,8 +9704,8 @@
         <v>3.865739</v>
       </c>
       <c r="D202">
-        <f t="shared" si="44"/>
-        <v>9.5550999999999942E-2</v>
+        <f t="shared" si="42"/>
+        <v>5.1760999999999946E-2</v>
       </c>
       <c r="E202">
         <f t="shared" si="43"/>
@@ -9723,8 +9723,8 @@
         <v>3.9396287999999999</v>
       </c>
       <c r="D203">
-        <f t="shared" si="44"/>
-        <v>1.0396200000000189E-2</v>
+        <f t="shared" si="42"/>
+        <v>2.1661200000000047E-2</v>
       </c>
       <c r="E203">
         <f t="shared" si="43"/>
@@ -9742,8 +9742,8 @@
         <v>3.9554334</v>
       </c>
       <c r="D204">
-        <f t="shared" si="44"/>
-        <v>-2.0099399999999878E-2</v>
+        <f t="shared" si="42"/>
+        <v>-5.4083999999998689E-3</v>
       </c>
       <c r="E204">
         <f t="shared" si="43"/>
@@ -9761,12 +9761,12 @@
         <v>3.9314450000000001</v>
       </c>
       <c r="D205">
-        <f t="shared" si="44"/>
-        <v>-1.7545000000000144E-2</v>
+        <f t="shared" si="42"/>
+        <v>3.8890000000000313E-3</v>
       </c>
       <c r="E205">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -9780,12 +9780,12 @@
         <v>3.9227761999999999</v>
       </c>
       <c r="D206">
-        <f t="shared" si="44"/>
-        <v>3.4324800000000266E-2</v>
+        <f t="shared" si="42"/>
+        <v>-8.8762000000000008E-3</v>
       </c>
       <c r="E206">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -9799,8 +9799,8 @@
         <v>3.9627435000000002</v>
       </c>
       <c r="D207">
-        <f t="shared" si="44"/>
-        <v>-2.0550500000000138E-2</v>
+        <f t="shared" si="42"/>
+        <v>-5.6424999999999947E-3</v>
       </c>
       <c r="E207">
         <f t="shared" si="43"/>
@@ -9818,12 +9818,12 @@
         <v>3.9380217000000002</v>
       </c>
       <c r="D208">
-        <f t="shared" si="44"/>
-        <v>-6.5117000000003422E-3</v>
+        <f t="shared" si="42"/>
+        <v>4.1712999999998779E-3</v>
       </c>
       <c r="E208">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -9837,8 +9837,8 @@
         <v>3.8999134999999998</v>
       </c>
       <c r="D209">
-        <f t="shared" si="44"/>
-        <v>9.4427500000000109E-2</v>
+        <f t="shared" si="42"/>
+        <v>3.1596500000000027E-2</v>
       </c>
       <c r="E209">
         <f t="shared" si="43"/>
@@ -9856,12 +9856,12 @@
         <v>4.0186485999999997</v>
       </c>
       <c r="D210">
-        <f>B210-C209</f>
-        <v>9.4427500000000109E-2</v>
+        <f t="shared" si="42"/>
+        <v>-2.4307599999999763E-2</v>
       </c>
       <c r="E210">
-        <f t="shared" ref="E210" si="45">IF(D210&lt;0,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="E210" si="44">IF(D210&lt;0,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -9875,17 +9875,36 @@
         <v>3.9951729999999999</v>
       </c>
       <c r="D211">
-        <f>B211-C210</f>
-        <v>2.0904400000000045E-2</v>
+        <f t="shared" si="42"/>
+        <v>4.4379999999999864E-2</v>
       </c>
       <c r="E211">
-        <f t="shared" ref="E211" si="46">IF(D211&lt;0,1,0)</f>
+        <f t="shared" ref="E211:E212" si="45">IF(D211&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B212">
+        <v>4.0057340000000003</v>
+      </c>
       <c r="C212">
         <v>4.0563130000000003</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="42"/>
+        <v>-5.057899999999993E-2</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="C213">
+        <v>4.0235139999999996</v>
       </c>
     </row>
   </sheetData>
@@ -11034,11 +11053,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I486"/>
+  <dimension ref="A1:I487"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C487" sqref="C487"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A486" sqref="A486:B486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11068,7 +11087,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4915176688432057E-2</v>
+        <v>-1.5107779806371143E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19950,7 +19969,7 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D473" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D486" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
@@ -20179,8 +20198,8 @@
         <v>4.2602605999999996</v>
       </c>
       <c r="D474">
-        <f t="shared" ref="D474:D483" si="111">B475-C474</f>
-        <v>-1.0805999999998761E-3</v>
+        <f t="shared" si="109"/>
+        <v>-2.7194888888892876E-3</v>
       </c>
       <c r="E474">
         <f t="shared" si="110"/>
@@ -20198,8 +20217,8 @@
         <v>4.3184189999999996</v>
       </c>
       <c r="D475">
-        <f t="shared" si="111"/>
-        <v>-7.0518999999999998E-2</v>
+        <f t="shared" si="109"/>
+        <v>-5.923899999999982E-2</v>
       </c>
       <c r="E475">
         <f t="shared" si="110"/>
@@ -20217,8 +20236,8 @@
         <v>4.2454367</v>
       </c>
       <c r="D476">
-        <f t="shared" si="111"/>
-        <v>3.414330000000021E-2</v>
+        <f t="shared" si="109"/>
+        <v>2.463299999999613E-3</v>
       </c>
       <c r="E476">
         <f t="shared" si="110"/>
@@ -20236,8 +20255,8 @@
         <v>4.3186239999999998</v>
       </c>
       <c r="D477">
-        <f t="shared" si="111"/>
-        <v>-4.0173999999999488E-2</v>
+        <f t="shared" si="109"/>
+        <v>-3.9043999999999635E-2</v>
       </c>
       <c r="E477">
         <f t="shared" si="110"/>
@@ -20255,8 +20274,8 @@
         <v>4.3085345999999998</v>
       </c>
       <c r="D478">
-        <f t="shared" si="111"/>
-        <v>-3.7634599999999629E-2</v>
+        <f t="shared" si="109"/>
+        <v>-3.0084599999999462E-2</v>
       </c>
       <c r="E478">
         <f t="shared" si="110"/>
@@ -20274,8 +20293,8 @@
         <v>4.2974420000000002</v>
       </c>
       <c r="D479">
-        <f t="shared" si="111"/>
-        <v>-2.8141999999999889E-2</v>
+        <f t="shared" si="109"/>
+        <v>-2.6542000000000066E-2</v>
       </c>
       <c r="E479">
         <f t="shared" si="110"/>
@@ -20293,8 +20312,8 @@
         <v>4.3086330000000004</v>
       </c>
       <c r="D480">
-        <f t="shared" si="111"/>
-        <v>-2.7330000000000965E-3</v>
+        <f t="shared" si="109"/>
+        <v>-3.9333000000000062E-2</v>
       </c>
       <c r="E480">
         <f t="shared" si="110"/>
@@ -20312,8 +20331,8 @@
         <v>4.3690705000000003</v>
       </c>
       <c r="D481">
-        <f t="shared" si="111"/>
-        <v>-8.2270499999999913E-2</v>
+        <f t="shared" si="109"/>
+        <v>-6.3170500000000018E-2</v>
       </c>
       <c r="E481">
         <f t="shared" si="110"/>
@@ -20331,8 +20350,8 @@
         <v>4.3583270000000001</v>
       </c>
       <c r="D482">
-        <f t="shared" si="111"/>
-        <v>-7.6487000000000194E-2</v>
+        <f t="shared" si="109"/>
+        <v>-7.1526999999999674E-2</v>
       </c>
       <c r="E482">
         <f t="shared" si="110"/>
@@ -20350,8 +20369,8 @@
         <v>4.3210680000000004</v>
       </c>
       <c r="D483">
-        <f t="shared" si="111"/>
-        <v>-1.5768000000000448E-2</v>
+        <f t="shared" si="109"/>
+        <v>-3.9228000000000485E-2</v>
       </c>
       <c r="E483">
         <f t="shared" si="110"/>
@@ -20369,11 +20388,11 @@
         <v>4.3344244999999999</v>
       </c>
       <c r="D484">
-        <f>B484-C483</f>
-        <v>-1.5768000000000448E-2</v>
+        <f t="shared" si="109"/>
+        <v>-2.9124499999999998E-2</v>
       </c>
       <c r="E484">
-        <f t="shared" ref="E484" si="112">IF(D484&lt;0,1,0)</f>
+        <f t="shared" ref="E484" si="111">IF(D484&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20388,17 +20407,36 @@
         <v>4.3305235</v>
       </c>
       <c r="D485">
-        <f>B485-C484</f>
-        <v>4.0554999999997676E-3</v>
+        <f t="shared" si="109"/>
+        <v>7.9564999999996999E-3</v>
       </c>
       <c r="E485">
-        <f t="shared" ref="E485" si="113">IF(D485&lt;0,1,0)</f>
+        <f t="shared" ref="E485" si="112">IF(D485&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:5">
+      <c r="A486" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B486">
+        <v>4.3312600000000003</v>
+      </c>
       <c r="C486">
         <v>4.3823733000000002</v>
+      </c>
+      <c r="D486">
+        <f t="shared" si="109"/>
+        <v>-5.1113299999999917E-2</v>
+      </c>
+      <c r="E486">
+        <f t="shared" ref="E486" si="113">IF(D486&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="C487">
+        <v>4.3544679999999998</v>
       </c>
     </row>
   </sheetData>
@@ -22618,11 +22656,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152:B152"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24393,8 +24431,51 @@
       <c r="A153" s="1">
         <v>45456</v>
       </c>
+      <c r="B153">
+        <v>4.3312600000000003</v>
+      </c>
       <c r="C153" s="61">
         <v>4.2667619999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>45457</v>
+      </c>
+      <c r="C154" s="61">
+        <v>4.3122689999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>45460</v>
+      </c>
+      <c r="C155" s="61">
+        <v>4.3092449999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>45461</v>
+      </c>
+      <c r="C156" s="61">
+        <v>4.3153696000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>45462</v>
+      </c>
+      <c r="C157" s="61">
+        <v>4.3289594999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>45463</v>
+      </c>
+      <c r="C158" s="61">
+        <v>4.3418163999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F4DAD-5EBF-4FE8-9ACD-CCCDCC14A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED9CB2C-ADF5-4CCB-AF9D-DA03AA48586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I213"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.6042477471313659E-3</v>
+        <v>1.8461755717647597E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D212" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D218" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9869,17 +9869,17 @@
         <v>45455</v>
       </c>
       <c r="B211">
-        <v>4.0395529999999997</v>
+        <v>4.0057340000000003</v>
       </c>
       <c r="C211">
         <v>3.9951729999999999</v>
       </c>
       <c r="D211">
         <f t="shared" si="42"/>
-        <v>4.4379999999999864E-2</v>
+        <v>1.0561000000000487E-2</v>
       </c>
       <c r="E211">
-        <f t="shared" ref="E211:E212" si="45">IF(D211&lt;0,1,0)</f>
+        <f t="shared" ref="E211:E214" si="45">IF(D211&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9888,14 +9888,14 @@
         <v>45456</v>
       </c>
       <c r="B212">
-        <v>4.0057340000000003</v>
+        <v>4.0453999999999999</v>
       </c>
       <c r="C212">
         <v>4.0563130000000003</v>
       </c>
       <c r="D212">
         <f t="shared" si="42"/>
-        <v>-5.057899999999993E-2</v>
+        <v>-1.0913000000000395E-2</v>
       </c>
       <c r="E212">
         <f t="shared" si="45"/>
@@ -9903,8 +9903,143 @@
       </c>
     </row>
     <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B213">
+        <v>4.0905570000000004</v>
+      </c>
       <c r="C213">
         <v>4.0235139999999996</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="42"/>
+        <v>6.7043000000000852E-2</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B214">
+        <v>4.0432389999999998</v>
+      </c>
+      <c r="C214">
+        <v>4.0521820000000002</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="42"/>
+        <v>-8.9430000000003673E-3</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B215">
+        <v>4.0376899999999996</v>
+      </c>
+      <c r="C215">
+        <v>4.0517954999999999</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="42"/>
+        <v>-1.4105500000000326E-2</v>
+      </c>
+      <c r="E215">
+        <f t="shared" ref="E215" si="46">IF(D215&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B216">
+        <f>AVERAGE(B211:B215)</f>
+        <v>4.044524</v>
+      </c>
+      <c r="C216">
+        <f>AVERAGE(C211:C215)</f>
+        <v>4.0357954999999999</v>
+      </c>
+      <c r="D216">
+        <f t="shared" ref="D216" si="47">B216-C216</f>
+        <v>8.7285000000001389E-3</v>
+      </c>
+      <c r="E216">
+        <f t="shared" ref="E216" si="48">IF(D216&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B217">
+        <v>4.0210999999999997</v>
+      </c>
+      <c r="C217">
+        <v>4.0527873000000003</v>
+      </c>
+      <c r="D217">
+        <f>B217-C217</f>
+        <v>-3.168730000000064E-2</v>
+      </c>
+      <c r="E217">
+        <f t="shared" ref="E217:E219" si="49">IF(D217&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B218">
+        <v>4.0373000000000001</v>
+      </c>
+      <c r="C218">
+        <v>4.0158240000000003</v>
+      </c>
+      <c r="D218">
+        <f>B218-C218</f>
+        <v>2.1475999999999829E-2</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B219">
+        <v>4.0473819999999998</v>
+      </c>
+      <c r="C219">
+        <v>4.0317707</v>
+      </c>
+      <c r="D219">
+        <f>B219-C219</f>
+        <v>1.5611299999999773E-2</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="C220">
+        <v>4.0423603000000004</v>
       </c>
     </row>
   </sheetData>
@@ -11053,11 +11188,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I487"/>
+  <dimension ref="A1:I494"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A486" sqref="A486:B486"/>
+      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B494" sqref="B494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11087,7 +11222,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5107779806371143E-2</v>
+        <v>-1.5421489617488396E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19969,7 +20104,7 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D486" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D484" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
@@ -20401,17 +20536,17 @@
         <v>45455</v>
       </c>
       <c r="B485">
-        <v>4.3384799999999997</v>
+        <v>4.3312600000000003</v>
       </c>
       <c r="C485">
         <v>4.3305235</v>
       </c>
       <c r="D485">
-        <f t="shared" si="109"/>
-        <v>7.9564999999996999E-3</v>
+        <f t="shared" ref="D485:D492" si="112">B485-C485</f>
+        <v>7.3650000000036187E-4</v>
       </c>
       <c r="E485">
-        <f t="shared" ref="E485" si="112">IF(D485&lt;0,1,0)</f>
+        <f t="shared" ref="E485:E492" si="113">IF(D485&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -20420,23 +20555,158 @@
         <v>45456</v>
       </c>
       <c r="B486">
-        <v>4.3312600000000003</v>
+        <v>4.3464999999999998</v>
       </c>
       <c r="C486">
         <v>4.3823733000000002</v>
       </c>
       <c r="D486">
-        <f t="shared" si="109"/>
-        <v>-5.1113299999999917E-2</v>
+        <f t="shared" si="112"/>
+        <v>-3.5873300000000441E-2</v>
       </c>
       <c r="E486">
-        <f t="shared" ref="E486" si="113">IF(D486&lt;0,1,0)</f>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:5">
+      <c r="A487" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B487">
+        <v>4.37751</v>
+      </c>
       <c r="C487">
         <v>4.3544679999999998</v>
+      </c>
+      <c r="D487">
+        <f t="shared" si="112"/>
+        <v>2.3042000000000229E-2</v>
+      </c>
+      <c r="E487">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B488">
+        <v>4.3426</v>
+      </c>
+      <c r="C488">
+        <v>4.4001609999999998</v>
+      </c>
+      <c r="D488">
+        <f t="shared" si="112"/>
+        <v>-5.7560999999999751E-2</v>
+      </c>
+      <c r="E488">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B489">
+        <v>4.3342999999999998</v>
+      </c>
+      <c r="C489">
+        <v>4.4110950000000004</v>
+      </c>
+      <c r="D489">
+        <f t="shared" si="112"/>
+        <v>-7.6795000000000613E-2</v>
+      </c>
+      <c r="E489">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B490">
+        <f>AVERAGE(B483:B489)</f>
+        <v>4.3313300000000003</v>
+      </c>
+      <c r="C490">
+        <f>AVERAGE(C483:C489)</f>
+        <v>4.3620161857142863</v>
+      </c>
+      <c r="D490">
+        <f t="shared" ref="D490" si="114">B490-C490</f>
+        <v>-3.0686185714285941E-2</v>
+      </c>
+      <c r="E490">
+        <f t="shared" ref="E490" si="115">IF(D490&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B491">
+        <v>4.3211000000000004</v>
+      </c>
+      <c r="C491">
+        <v>4.4043144999999999</v>
+      </c>
+      <c r="D491">
+        <f>B491-C491</f>
+        <v>-8.3214499999999525E-2</v>
+      </c>
+      <c r="E491">
+        <f>IF(D491&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B492">
+        <v>4.3256899999999998</v>
+      </c>
+      <c r="C492">
+        <v>4.3680050000000001</v>
+      </c>
+      <c r="D492">
+        <f>B492-C492</f>
+        <v>-4.2315000000000325E-2</v>
+      </c>
+      <c r="E492">
+        <f>IF(D492&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B493">
+        <v>4.3256399999999999</v>
+      </c>
+      <c r="C493">
+        <v>4.3262299999999998</v>
+      </c>
+      <c r="D493">
+        <f>B493-C493</f>
+        <v>-5.8999999999986841E-4</v>
+      </c>
+      <c r="E493">
+        <f>IF(D493&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="C494">
+        <v>4.3755655000000004</v>
       </c>
     </row>
   </sheetData>
@@ -22656,11 +22926,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159:B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24442,6 +24712,9 @@
       <c r="A154" s="1">
         <v>45457</v>
       </c>
+      <c r="B154">
+        <v>4.3464999999999998</v>
+      </c>
       <c r="C154" s="61">
         <v>4.3122689999999997</v>
       </c>
@@ -24450,6 +24723,9 @@
       <c r="A155" s="1">
         <v>45460</v>
       </c>
+      <c r="B155">
+        <v>4.37751</v>
+      </c>
       <c r="C155" s="61">
         <v>4.3092449999999998</v>
       </c>
@@ -24458,6 +24734,9 @@
       <c r="A156" s="1">
         <v>45461</v>
       </c>
+      <c r="B156">
+        <v>4.3426</v>
+      </c>
       <c r="C156" s="61">
         <v>4.3153696000000004</v>
       </c>
@@ -24466,6 +24745,10 @@
       <c r="A157" s="1">
         <v>45462</v>
       </c>
+      <c r="B157" s="61">
+        <f>AVERAGE(B149:B156)</f>
+        <v>4.3262862499999999</v>
+      </c>
       <c r="C157" s="61">
         <v>4.3289594999999998</v>
       </c>
@@ -24474,8 +24757,57 @@
       <c r="A158" s="1">
         <v>45463</v>
       </c>
+      <c r="B158">
+        <v>4.3211000000000004</v>
+      </c>
       <c r="C158" s="61">
         <v>4.3418163999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B159">
+        <v>4.3256899999999998</v>
+      </c>
+      <c r="C159" s="61">
+        <v>4.3395824000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B160">
+        <v>4.3256399999999999</v>
+      </c>
+      <c r="C160" s="61">
+        <v>4.3474510000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>45468</v>
+      </c>
+      <c r="C161" s="61">
+        <v>4.3605064999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>45469</v>
+      </c>
+      <c r="C162" s="61">
+        <v>4.3686179999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>45470</v>
+      </c>
+      <c r="C163" s="61">
+        <v>4.3597210000000004</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED9CB2C-ADF5-4CCB-AF9D-DA03AA48586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6757BE-873F-4AFF-9EB1-240EAE348C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.8461755717647597E-3</v>
+        <v>1.628429107966745E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D218" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D215" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9995,7 +9995,7 @@
         <v>-3.168730000000064E-2</v>
       </c>
       <c r="E217">
-        <f t="shared" ref="E217:E219" si="49">IF(D217&lt;0,1,0)</f>
+        <f t="shared" ref="E217:E220" si="49">IF(D217&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10038,8 +10038,27 @@
       </c>
     </row>
     <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B220">
+        <v>3.9965199999999999</v>
+      </c>
       <c r="C220">
         <v>4.0423603000000004</v>
+      </c>
+      <c r="D220">
+        <f>B220-C220</f>
+        <v>-4.58403000000005E-2</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="C221">
+        <v>4.0491339999999996</v>
       </c>
     </row>
   </sheetData>
@@ -11188,11 +11207,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I494"/>
+  <dimension ref="A1:I495"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B494" sqref="B494"/>
+      <selection pane="bottomLeft" activeCell="C496" sqref="C496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11222,7 +11241,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5421489617488396E-2</v>
+        <v>-1.5563505865728784E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -20542,11 +20561,11 @@
         <v>4.3305235</v>
       </c>
       <c r="D485">
-        <f t="shared" ref="D485:D492" si="112">B485-C485</f>
+        <f t="shared" ref="D485:D489" si="112">B485-C485</f>
         <v>7.3650000000036187E-4</v>
       </c>
       <c r="E485">
-        <f t="shared" ref="E485:E492" si="113">IF(D485&lt;0,1,0)</f>
+        <f t="shared" ref="E485:E489" si="113">IF(D485&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -20705,8 +20724,27 @@
       </c>
     </row>
     <row r="494" spans="1:5">
+      <c r="A494" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B494">
+        <v>4.2901300000000004</v>
+      </c>
       <c r="C494">
         <v>4.3755655000000004</v>
+      </c>
+      <c r="D494">
+        <f>B494-C494</f>
+        <v>-8.5435499999999998E-2</v>
+      </c>
+      <c r="E494">
+        <f>IF(D494&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="C495">
+        <v>4.3414735999999996</v>
       </c>
     </row>
   </sheetData>
@@ -22930,7 +22968,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159:B160"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24789,6 +24827,9 @@
     <row r="161" spans="1:3">
       <c r="A161" s="1">
         <v>45468</v>
+      </c>
+      <c r="B161">
+        <v>4.2901300000000004</v>
       </c>
       <c r="C161" s="61">
         <v>4.3605064999999996</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6757BE-873F-4AFF-9EB1-240EAE348C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA1EC3-7E76-439D-9CA4-6A11BE30DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C222" sqref="C222"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.628429107966745E-3</v>
+        <v>1.449054430203263E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -9995,7 +9995,7 @@
         <v>-3.168730000000064E-2</v>
       </c>
       <c r="E217">
-        <f t="shared" ref="E217:E220" si="49">IF(D217&lt;0,1,0)</f>
+        <f t="shared" ref="E217:E221" si="49">IF(D217&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10057,8 +10057,27 @@
       </c>
     </row>
     <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B221">
+        <v>4.0113000000000003</v>
+      </c>
       <c r="C221">
         <v>4.0491339999999996</v>
+      </c>
+      <c r="D221">
+        <f>B221-C221</f>
+        <v>-3.7833999999999257E-2</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="C222">
+        <v>4.0364740000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11207,10 +11226,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I495"/>
+  <dimension ref="A1:I496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C496" sqref="C496"/>
     </sheetView>
   </sheetViews>
@@ -11241,7 +11260,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5563505865728784E-2</v>
+        <v>-1.5620510104866984E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -20743,8 +20762,27 @@
       </c>
     </row>
     <row r="495" spans="1:5">
+      <c r="A495" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B495">
+        <v>4.2977499999999997</v>
+      </c>
       <c r="C495">
         <v>4.3414735999999996</v>
+      </c>
+      <c r="D495">
+        <f>B495-C495</f>
+        <v>-4.3723599999999863E-2</v>
+      </c>
+      <c r="E495">
+        <f>IF(D495&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="C496">
+        <v>4.3514999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -22968,7 +23006,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <selection pane="bottomLeft" activeCell="A162" sqref="A162:B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24838,6 +24876,9 @@
     <row r="162" spans="1:3">
       <c r="A162" s="1">
         <v>45469</v>
+      </c>
+      <c r="B162">
+        <v>4.2977499999999997</v>
       </c>
       <c r="C162" s="61">
         <v>4.3686179999999997</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECA1EC3-7E76-439D-9CA4-6A11BE30DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD4A35-CFD3-4C21-991E-D5005B3E2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I222"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.449054430203263E-3</v>
+        <v>1.4480451341389946E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -9995,7 +9995,7 @@
         <v>-3.168730000000064E-2</v>
       </c>
       <c r="E217">
-        <f t="shared" ref="E217:E221" si="49">IF(D217&lt;0,1,0)</f>
+        <f t="shared" ref="E217:E222" si="49">IF(D217&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10076,8 +10076,27 @@
       </c>
     </row>
     <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B222">
+        <v>4.0377000000000001</v>
+      </c>
       <c r="C222">
         <v>4.0364740000000001</v>
+      </c>
+      <c r="D222">
+        <f>B222-C222</f>
+        <v>1.2259999999999494E-3</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="C223">
+        <v>4.0159219999999998</v>
       </c>
     </row>
   </sheetData>
@@ -11228,9 +11247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
   <dimension ref="A1:I496"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C496" sqref="C496"/>
+      <selection pane="bottomLeft" activeCell="A496" sqref="A496:B496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11260,7 +11279,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5620510104866984E-2</v>
+        <v>-1.5669155538998565E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -20781,8 +20800,22 @@
       </c>
     </row>
     <row r="496" spans="1:5">
+      <c r="A496" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B496">
+        <v>4.3117999999999999</v>
+      </c>
       <c r="C496">
         <v>4.3514999999999997</v>
+      </c>
+      <c r="D496">
+        <f>B496-C496</f>
+        <v>-3.9699999999999847E-2</v>
+      </c>
+      <c r="E496">
+        <f>IF(D496&lt;0,1,0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23006,7 +23039,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A162" sqref="A162:B162"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163:B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24887,6 +24920,9 @@
     <row r="163" spans="1:3">
       <c r="A163" s="1">
         <v>45470</v>
+      </c>
+      <c r="B163">
+        <v>4.3117999999999999</v>
       </c>
       <c r="C163" s="61">
         <v>4.3597210000000004</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD4A35-CFD3-4C21-991E-D5005B3E2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648540CF-CADD-4983-A1FF-90DE607057C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
+      <selection pane="bottomLeft" activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.4480451341389946E-3</v>
+        <v>1.4729458317329625E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -9991,11 +9991,11 @@
         <v>4.0527873000000003</v>
       </c>
       <c r="D217">
-        <f>B217-C217</f>
+        <f t="shared" ref="D217:D223" si="49">B217-C217</f>
         <v>-3.168730000000064E-2</v>
       </c>
       <c r="E217">
-        <f t="shared" ref="E217:E222" si="49">IF(D217&lt;0,1,0)</f>
+        <f t="shared" ref="E217:E223" si="50">IF(D217&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10010,11 +10010,11 @@
         <v>4.0158240000000003</v>
       </c>
       <c r="D218">
-        <f>B218-C218</f>
+        <f t="shared" si="49"/>
         <v>2.1475999999999829E-2</v>
       </c>
       <c r="E218">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -10029,11 +10029,11 @@
         <v>4.0317707</v>
       </c>
       <c r="D219">
-        <f>B219-C219</f>
+        <f t="shared" si="49"/>
         <v>1.5611299999999773E-2</v>
       </c>
       <c r="E219">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -10048,11 +10048,11 @@
         <v>4.0423603000000004</v>
       </c>
       <c r="D220">
-        <f>B220-C220</f>
+        <f t="shared" si="49"/>
         <v>-4.58403000000005E-2</v>
       </c>
       <c r="E220">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
     </row>
@@ -10067,11 +10067,11 @@
         <v>4.0491339999999996</v>
       </c>
       <c r="D221">
-        <f>B221-C221</f>
+        <f t="shared" si="49"/>
         <v>-3.7833999999999257E-2</v>
       </c>
       <c r="E221">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
     </row>
@@ -10086,17 +10086,36 @@
         <v>4.0364740000000001</v>
       </c>
       <c r="D222">
-        <f>B222-C222</f>
+        <f t="shared" si="49"/>
         <v>1.2259999999999494E-3</v>
       </c>
       <c r="E222">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B223">
+        <v>4.0228979999999996</v>
+      </c>
       <c r="C223">
         <v>4.0159219999999998</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="49"/>
+        <v>6.9759999999998712E-3</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="C224">
+        <v>4.0493984000000003</v>
       </c>
     </row>
   </sheetData>
@@ -11245,11 +11264,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I496"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A496" sqref="A496:B496"/>
+      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A497" sqref="A497:B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11279,7 +11298,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5669155538998565E-2</v>
+        <v>-1.5603745144766713E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -20715,11 +20734,11 @@
         <v>4.4043144999999999</v>
       </c>
       <c r="D491">
-        <f>B491-C491</f>
+        <f t="shared" ref="D491:D497" si="116">B491-C491</f>
         <v>-8.3214499999999525E-2</v>
       </c>
       <c r="E491">
-        <f>IF(D491&lt;0,1,0)</f>
+        <f t="shared" ref="E491:E497" si="117">IF(D491&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20734,11 +20753,11 @@
         <v>4.3680050000000001</v>
       </c>
       <c r="D492">
-        <f>B492-C492</f>
+        <f t="shared" si="116"/>
         <v>-4.2315000000000325E-2</v>
       </c>
       <c r="E492">
-        <f>IF(D492&lt;0,1,0)</f>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -20753,11 +20772,11 @@
         <v>4.3262299999999998</v>
       </c>
       <c r="D493">
-        <f>B493-C493</f>
+        <f t="shared" si="116"/>
         <v>-5.8999999999986841E-4</v>
       </c>
       <c r="E493">
-        <f>IF(D493&lt;0,1,0)</f>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -20772,11 +20791,11 @@
         <v>4.3755655000000004</v>
       </c>
       <c r="D494">
-        <f>B494-C494</f>
+        <f t="shared" si="116"/>
         <v>-8.5435499999999998E-2</v>
       </c>
       <c r="E494">
-        <f>IF(D494&lt;0,1,0)</f>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -20791,11 +20810,11 @@
         <v>4.3414735999999996</v>
       </c>
       <c r="D495">
-        <f>B495-C495</f>
+        <f t="shared" si="116"/>
         <v>-4.3723599999999863E-2</v>
       </c>
       <c r="E495">
-        <f>IF(D495&lt;0,1,0)</f>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
     </row>
@@ -20810,12 +20829,36 @@
         <v>4.3514999999999997</v>
       </c>
       <c r="D496">
-        <f>B496-C496</f>
+        <f t="shared" si="116"/>
         <v>-3.9699999999999847E-2</v>
       </c>
       <c r="E496">
-        <f>IF(D496&lt;0,1,0)</f>
-        <v>1</v>
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B497">
+        <v>4.3078000000000003</v>
+      </c>
+      <c r="C497">
+        <v>4.2910256000000002</v>
+      </c>
+      <c r="D497">
+        <f t="shared" si="116"/>
+        <v>1.6774400000000078E-2</v>
+      </c>
+      <c r="E497">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="C498">
+        <v>4.3103889999999998</v>
       </c>
     </row>
   </sheetData>
@@ -23035,11 +23078,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A163" sqref="A163:B163"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A165" sqref="A165:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24926,6 +24969,49 @@
       </c>
       <c r="C163" s="61">
         <v>4.3597210000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B164">
+        <v>4.3078000000000003</v>
+      </c>
+      <c r="C164" s="61">
+        <v>4.2584676999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>45474</v>
+      </c>
+      <c r="C165" s="61">
+        <v>4.2494706999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>45475</v>
+      </c>
+      <c r="C166" s="61">
+        <v>4.2423166999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>45476</v>
+      </c>
+      <c r="C167" s="61">
+        <v>4.2435966000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>45477</v>
+      </c>
+      <c r="C168" s="61">
+        <v>4.2476815999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648540CF-CADD-4983-A1FF-90DE607057C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50FC10C-C9F1-4C26-A7BB-88E02CA7CCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I224"/>
+  <dimension ref="A1:I226"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C225" sqref="C225"/>
+      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.4729458317329625E-3</v>
+        <v>1.3181498868067734E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -9995,7 +9995,7 @@
         <v>-3.168730000000064E-2</v>
       </c>
       <c r="E217">
-        <f t="shared" ref="E217:E223" si="50">IF(D217&lt;0,1,0)</f>
+        <f t="shared" ref="E217:E224" si="50">IF(D217&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10114,8 +10114,46 @@
       </c>
     </row>
     <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B224">
+        <v>4.0166740000000001</v>
+      </c>
       <c r="C224">
         <v>4.0493984000000003</v>
+      </c>
+      <c r="D224">
+        <f t="shared" ref="D224:D225" si="51">B224-C224</f>
+        <v>-3.2724400000000209E-2</v>
+      </c>
+      <c r="E224">
+        <f t="shared" ref="E224:E225" si="52">IF(D224&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B225">
+        <v>4.0193079999999997</v>
+      </c>
+      <c r="C225">
+        <v>4.0183119999999999</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="51"/>
+        <v>9.9599999999977484E-4</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="C226">
+        <v>4.0339640000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11264,11 +11302,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I498"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A497" sqref="A497:B497"/>
+      <selection pane="bottomLeft" activeCell="A499" sqref="A499:B499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11298,7 +11336,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5603745144766713E-2</v>
+        <v>-1.5591554401213433E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -20734,11 +20772,11 @@
         <v>4.4043144999999999</v>
       </c>
       <c r="D491">
-        <f t="shared" ref="D491:D497" si="116">B491-C491</f>
+        <f t="shared" ref="D491:D499" si="116">B491-C491</f>
         <v>-8.3214499999999525E-2</v>
       </c>
       <c r="E491">
-        <f t="shared" ref="E491:E497" si="117">IF(D491&lt;0,1,0)</f>
+        <f t="shared" ref="E491:E499" si="117">IF(D491&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20857,8 +20895,46 @@
       </c>
     </row>
     <row r="498" spans="1:5">
+      <c r="A498" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B498">
+        <v>4.3121</v>
+      </c>
       <c r="C498">
         <v>4.3103889999999998</v>
+      </c>
+      <c r="D498">
+        <f t="shared" si="116"/>
+        <v>1.7110000000002401E-3</v>
+      </c>
+      <c r="E498">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B499">
+        <v>4.31541</v>
+      </c>
+      <c r="C499">
+        <v>4.3422574999999997</v>
+      </c>
+      <c r="D499">
+        <f t="shared" si="116"/>
+        <v>-2.6847499999999691E-2</v>
+      </c>
+      <c r="E499">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="C500">
+        <v>4.3613730000000004</v>
       </c>
     </row>
   </sheetData>
@@ -23082,7 +23158,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165:A168"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166:B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24986,6 +25062,9 @@
       <c r="A165" s="1">
         <v>45474</v>
       </c>
+      <c r="B165">
+        <v>4.3121</v>
+      </c>
       <c r="C165" s="61">
         <v>4.2494706999999998</v>
       </c>
@@ -24993,6 +25072,9 @@
     <row r="166" spans="1:3">
       <c r="A166" s="1">
         <v>45475</v>
+      </c>
+      <c r="B166">
+        <v>4.31541</v>
       </c>
       <c r="C166" s="61">
         <v>4.2423166999999999</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50FC10C-C9F1-4C26-A7BB-88E02CA7CCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A212F9-3472-4421-84EB-E17AF6125646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5773,7 +5773,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C227" sqref="C227"/>
+      <selection pane="bottomLeft" activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.3181498868067734E-3</v>
+        <v>1.0907492206431869E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -9995,7 +9995,7 @@
         <v>-3.168730000000064E-2</v>
       </c>
       <c r="E217">
-        <f t="shared" ref="E217:E224" si="50">IF(D217&lt;0,1,0)</f>
+        <f t="shared" ref="E217:E223" si="50">IF(D217&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10124,11 +10124,11 @@
         <v>4.0493984000000003</v>
       </c>
       <c r="D224">
-        <f t="shared" ref="D224:D225" si="51">B224-C224</f>
+        <f t="shared" ref="D224:D226" si="51">B224-C224</f>
         <v>-3.2724400000000209E-2</v>
       </c>
       <c r="E224">
-        <f t="shared" ref="E224:E225" si="52">IF(D224&lt;0,1,0)</f>
+        <f t="shared" ref="E224:E226" si="52">IF(D224&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10152,8 +10152,22 @@
       </c>
     </row>
     <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B226">
+        <v>3.9841169999999999</v>
+      </c>
       <c r="C226">
         <v>4.0339640000000001</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="51"/>
+        <v>-4.9847000000000197E-2</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="52"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11306,7 +11320,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A499" sqref="A499:B499"/>
+      <selection pane="bottomLeft" activeCell="A500" sqref="A500:B500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20772,11 +20786,11 @@
         <v>4.4043144999999999</v>
       </c>
       <c r="D491">
-        <f t="shared" ref="D491:D499" si="116">B491-C491</f>
+        <f t="shared" ref="D491:D500" si="116">B491-C491</f>
         <v>-8.3214499999999525E-2</v>
       </c>
       <c r="E491">
-        <f t="shared" ref="E491:E499" si="117">IF(D491&lt;0,1,0)</f>
+        <f t="shared" ref="E491:E500" si="117">IF(D491&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20933,8 +20947,22 @@
       </c>
     </row>
     <row r="500" spans="1:5">
+      <c r="A500" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B500">
+        <v>4.2961</v>
+      </c>
       <c r="C500">
         <v>4.3613730000000004</v>
+      </c>
+      <c r="D500">
+        <f t="shared" si="116"/>
+        <v>-6.5273000000000359E-2</v>
+      </c>
+      <c r="E500">
+        <f t="shared" si="117"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23154,11 +23182,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166:B166"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25084,6 +25112,9 @@
       <c r="A167" s="1">
         <v>45476</v>
       </c>
+      <c r="B167">
+        <v>4.2961</v>
+      </c>
       <c r="C167" s="61">
         <v>4.2435966000000001</v>
       </c>
@@ -25093,7 +25124,39 @@
         <v>45477</v>
       </c>
       <c r="C168" s="61">
-        <v>4.2476815999999999</v>
+        <v>4.2523793999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>45478</v>
+      </c>
+      <c r="C169" s="61">
+        <v>4.2454669999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>45481</v>
+      </c>
+      <c r="C170" s="61">
+        <v>4.2452300000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>45482</v>
+      </c>
+      <c r="C171" s="61">
+        <v>4.2456670000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>45483</v>
+      </c>
+      <c r="C172" s="61">
+        <v>4.2435492999999997</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A212F9-3472-4421-84EB-E17AF6125646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA45C98-F136-4FF5-B5F8-B74206157B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I226"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B227" sqref="B227"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A229" sqref="A229:A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.0907492206431869E-3</v>
+        <v>6.2906334841735542E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10167,6 +10167,83 @@
       </c>
       <c r="E226">
         <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B227">
+        <v>4.0169873750000002</v>
+      </c>
+      <c r="C227">
+        <v>4.0346669249999998</v>
+      </c>
+      <c r="D227">
+        <f t="shared" ref="D227" si="53">B227-C227</f>
+        <v>-1.7679549999999544E-2</v>
+      </c>
+      <c r="E227">
+        <f t="shared" ref="E227" si="54">IF(D227&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B228">
+        <v>3.9841169999999999</v>
+      </c>
+      <c r="C228">
+        <f>AVERAGE(C221:C227)</f>
+        <v>4.033981617857143</v>
+      </c>
+      <c r="D228">
+        <f t="shared" ref="D228" si="55">B228-C228</f>
+        <v>-4.9864617857143134E-2</v>
+      </c>
+      <c r="E228">
+        <f t="shared" ref="E228" si="56">IF(D228&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B229">
+        <v>3.9565109999999999</v>
+      </c>
+      <c r="C229">
+        <v>3.9650927</v>
+      </c>
+      <c r="D229">
+        <f t="shared" ref="D229:D230" si="57">B229-C229</f>
+        <v>-8.5817000000001364E-3</v>
+      </c>
+      <c r="E229">
+        <f t="shared" ref="E229:E230" si="58">IF(D229&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B230">
+        <v>3.9402400000000002</v>
+      </c>
+      <c r="C230">
+        <v>3.9654772</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="57"/>
+        <v>-2.5237199999999849E-2</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
     </row>
@@ -11316,11 +11393,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I500"/>
+  <dimension ref="A1:I504"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A500" sqref="A500:B500"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A504" sqref="A504:B504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20962,6 +21039,82 @@
       </c>
       <c r="E500">
         <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B501">
+        <v>4.3044414285714288</v>
+      </c>
+      <c r="C501">
+        <v>4.3390834571428574</v>
+      </c>
+      <c r="D501">
+        <f t="shared" ref="D501" si="118">B501-C501</f>
+        <v>-3.4642028571428618E-2</v>
+      </c>
+      <c r="E501">
+        <f t="shared" ref="E501" si="119">IF(D501&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B502">
+        <v>4.2961</v>
+      </c>
+      <c r="C502">
+        <v>4.3338717367346939</v>
+      </c>
+      <c r="D502">
+        <f t="shared" ref="D502:D504" si="120">B502-C502</f>
+        <v>-3.7771736734693917E-2</v>
+      </c>
+      <c r="E502">
+        <f t="shared" ref="E502:E504" si="121">IF(D502&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B503">
+        <v>4.2831999999999999</v>
+      </c>
+      <c r="C503">
+        <v>4.2936019999999999</v>
+      </c>
+      <c r="D503">
+        <f t="shared" si="120"/>
+        <v>-1.0402000000000022E-2</v>
+      </c>
+      <c r="E503">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B504">
+        <v>4.26729</v>
+      </c>
+      <c r="C504">
+        <v>4.2805442999999999</v>
+      </c>
+      <c r="D504">
+        <f t="shared" si="120"/>
+        <v>-1.325429999999983E-2</v>
+      </c>
+      <c r="E504">
+        <f t="shared" si="121"/>
         <v>1</v>
       </c>
     </row>
@@ -23186,7 +23339,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A170" sqref="A170"/>
+      <selection pane="bottomLeft" activeCell="A171" sqref="A171:B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25123,6 +25276,9 @@
       <c r="A168" s="1">
         <v>45477</v>
       </c>
+      <c r="B168">
+        <v>4.3044414285714288</v>
+      </c>
       <c r="C168" s="61">
         <v>4.2523793999999997</v>
       </c>
@@ -25131,6 +25287,9 @@
       <c r="A169" s="1">
         <v>45478</v>
       </c>
+      <c r="B169">
+        <v>4.2961</v>
+      </c>
       <c r="C169" s="61">
         <v>4.2454669999999997</v>
       </c>
@@ -25139,6 +25298,9 @@
       <c r="A170" s="1">
         <v>45481</v>
       </c>
+      <c r="B170">
+        <v>4.2831999999999999</v>
+      </c>
       <c r="C170" s="61">
         <v>4.2452300000000003</v>
       </c>
@@ -25146,6 +25308,9 @@
     <row r="171" spans="1:3">
       <c r="A171" s="1">
         <v>45482</v>
+      </c>
+      <c r="B171">
+        <v>4.26729</v>
       </c>
       <c r="C171" s="61">
         <v>4.2456670000000001</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA45C98-F136-4FF5-B5F8-B74206157B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26011F2F-5F5D-4EB4-9566-6A8DA89425A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A229" sqref="A229:A230"/>
+      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>6.2906334841735542E-4</v>
+        <v>6.5324307298945353E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10220,11 +10220,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D230" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D231" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E230" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E231" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10245,6 +10245,25 @@
       <c r="E230">
         <f t="shared" si="58"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B231">
+        <v>3.93479</v>
+      </c>
+      <c r="C231">
+        <v>3.9285996000000001</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="57"/>
+        <v>6.1903999999999293E-3</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="58"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11393,11 +11412,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I504"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A504" sqref="A504:B504"/>
+      <selection pane="bottomLeft" activeCell="A505" sqref="A505:B505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21116,6 +21135,14 @@
       <c r="E504">
         <f t="shared" si="121"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B505">
+        <v>4.2552500000000002</v>
       </c>
     </row>
   </sheetData>
@@ -23339,7 +23366,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A171" sqref="A171:B171"/>
+      <selection pane="bottomLeft" activeCell="A172" sqref="A172:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25319,6 +25346,9 @@
     <row r="172" spans="1:3">
       <c r="A172" s="1">
         <v>45483</v>
+      </c>
+      <c r="B172">
+        <v>4.2552500000000002</v>
       </c>
       <c r="C172" s="61">
         <v>4.2435492999999997</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26011F2F-5F5D-4EB4-9566-6A8DA89425A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E9DEA-BF2B-430A-8DA0-FBD0806F11F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
+      <selection pane="bottomLeft" activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>6.5324307298945353E-4</v>
+        <v>7.1315111163451975E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10220,11 +10220,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D231" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D232" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E231" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E232" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10262,6 +10262,25 @@
         <v>6.1903999999999293E-3</v>
       </c>
       <c r="E231">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B232">
+        <v>3.9327399999999999</v>
+      </c>
+      <c r="C232">
+        <v>3.9182480000000002</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="57"/>
+        <v>1.4491999999999727E-2</v>
+      </c>
+      <c r="E232">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -11412,11 +11431,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I505"/>
+  <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A505" sqref="A505:B505"/>
+      <selection pane="bottomLeft" activeCell="A506" sqref="A506:B506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21091,11 +21110,11 @@
         <v>4.3338717367346939</v>
       </c>
       <c r="D502">
-        <f t="shared" ref="D502:D504" si="120">B502-C502</f>
+        <f t="shared" ref="D502:D506" si="120">B502-C502</f>
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
-        <f t="shared" ref="E502:E504" si="121">IF(D502&lt;0,1,0)</f>
+        <f t="shared" ref="E502:E506" si="121">IF(D502&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21143,6 +21162,36 @@
       </c>
       <c r="B505">
         <v>4.2552500000000002</v>
+      </c>
+      <c r="C505">
+        <v>4.2616496000000001</v>
+      </c>
+      <c r="D505">
+        <f t="shared" si="120"/>
+        <v>-6.3995999999999498E-3</v>
+      </c>
+      <c r="E505">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B506">
+        <v>4.2573999999999996</v>
+      </c>
+      <c r="C506">
+        <v>4.2647304999999998</v>
+      </c>
+      <c r="D506">
+        <f t="shared" si="120"/>
+        <v>-7.3305000000001286E-3</v>
+      </c>
+      <c r="E506">
+        <f t="shared" si="121"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23362,11 +23411,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A172:B172"/>
+      <selection pane="bottomLeft" activeCell="A173" sqref="A173:B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25352,6 +25401,14 @@
       </c>
       <c r="C172" s="61">
         <v>4.2435492999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B173">
+        <v>4.2573999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E9DEA-BF2B-430A-8DA0-FBD0806F11F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C75FA-8848-498F-8FD4-92205B3C5E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
     <sheet name="Normalization_example" sheetId="10" r:id="rId6"/>
     <sheet name="D1_OIL" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -272,6 +273,30 @@
   </si>
   <si>
     <t>Wynagrodzenie 01/2023</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Car + Train</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>motorway</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>train</t>
   </si>
 </sst>
 </file>
@@ -605,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,6 +727,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5769,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C233" sqref="C233"/>
+      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>7.1315111163451975E-4</v>
+        <v>8.5435662462797425E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10220,11 +10253,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D232" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D236" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E232" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E236" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10281,6 +10314,82 @@
         <v>1.4491999999999727E-2</v>
       </c>
       <c r="E232">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B233">
+        <v>3.8959000000000001</v>
+      </c>
+      <c r="C233">
+        <v>3.8766690000000001</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="57"/>
+        <v>1.9230999999999998E-2</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B234">
+        <v>3.9071310000000001</v>
+      </c>
+      <c r="C234">
+        <v>3.9398249999999999</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="57"/>
+        <v>-3.2693999999999779E-2</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B235">
+        <v>3.9045299999999998</v>
+      </c>
+      <c r="C235">
+        <v>3.8757749000000001</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="57"/>
+        <v>2.87550999999997E-2</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B236">
+        <v>3.9263680000000001</v>
+      </c>
+      <c r="C236">
+        <v>3.9056242000000001</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="57"/>
+        <v>2.0743799999999979E-2</v>
+      </c>
+      <c r="E236">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
@@ -11431,11 +11540,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I506"/>
+  <dimension ref="A1:I510"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A506" sqref="A506:B506"/>
+      <selection pane="bottomLeft" activeCell="C511" sqref="C511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21110,11 +21219,11 @@
         <v>4.3338717367346939</v>
       </c>
       <c r="D502">
-        <f t="shared" ref="D502:D506" si="120">B502-C502</f>
+        <f t="shared" ref="D502:D510" si="120">B502-C502</f>
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
-        <f t="shared" ref="E502:E506" si="121">IF(D502&lt;0,1,0)</f>
+        <f t="shared" ref="E502:E510" si="121">IF(D502&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21190,6 +21299,82 @@
         <v>-7.3305000000001286E-3</v>
       </c>
       <c r="E506">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B507">
+        <v>4.2503000000000002</v>
+      </c>
+      <c r="C507">
+        <v>4.2457399999999996</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="120"/>
+        <v>4.5600000000005636E-3</v>
+      </c>
+      <c r="E507">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B508">
+        <v>4.2530099999999997</v>
+      </c>
+      <c r="C508">
+        <v>4.2595415000000001</v>
+      </c>
+      <c r="D508">
+        <f t="shared" si="120"/>
+        <v>-6.5315000000003565E-3</v>
+      </c>
+      <c r="E508">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B509">
+        <v>4.2527999999999997</v>
+      </c>
+      <c r="C509">
+        <v>4.2494639999999997</v>
+      </c>
+      <c r="D509">
+        <f t="shared" si="120"/>
+        <v>3.3360000000000056E-3</v>
+      </c>
+      <c r="E509">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B510">
+        <v>4.2803300000000002</v>
+      </c>
+      <c r="C510">
+        <v>4.3091730000000004</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="120"/>
+        <v>-2.8843000000000174E-2</v>
+      </c>
+      <c r="E510">
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
@@ -23411,11 +23596,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A173" sqref="A173:B173"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25409,6 +25594,38 @@
       </c>
       <c r="B173">
         <v>4.2573999999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B174">
+        <v>4.2503000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B175">
+        <v>4.2530099999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B176">
+        <v>4.2527999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B177">
+        <v>4.2803300000000002</v>
       </c>
     </row>
   </sheetData>
@@ -28364,6 +28581,177 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1696F64E-EE57-4BBA-A111-751034FE5308}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="67">
+        <f>4*6.5*1.45</f>
+        <v>37.699999999999996</v>
+      </c>
+      <c r="H2" s="67">
+        <f>6.5*1.45</f>
+        <v>9.4249999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="67">
+        <v>25</v>
+      </c>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="67">
+        <v>7</v>
+      </c>
+      <c r="H4" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67">
+        <f>720/4.3</f>
+        <v>167.44186046511629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67">
+        <f>SUM(G2:G5)</f>
+        <v>69.699999999999989</v>
+      </c>
+      <c r="H6" s="67">
+        <f>SUM(H2:H5)</f>
+        <v>196.8668604651163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>195</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>125</v>
+      </c>
+      <c r="D9" s="13">
+        <f>B9+C9</f>
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BA0CF0-6CC9-4853-83D2-DAEA9115DC56}">
   <dimension ref="A1:B14"/>
   <sheetViews>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C75FA-8848-498F-8FD4-92205B3C5E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638085EB-E8D4-4510-8BBC-715A487FCA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I236"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>8.5435662462797425E-4</v>
+        <v>7.4030382610790722E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10253,11 +10253,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D236" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D238" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E236" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E238" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10392,6 +10392,44 @@
       <c r="E236">
         <f t="shared" si="58"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B237">
+        <v>3.9192119999999999</v>
+      </c>
+      <c r="C237">
+        <v>3.9176896000000001</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="57"/>
+        <v>1.5223999999998128E-3</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B238">
+        <v>3.935073</v>
+      </c>
+      <c r="C238">
+        <v>3.9619171999999998</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="57"/>
+        <v>-2.6844199999999763E-2</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11540,11 +11578,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I510"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C511" sqref="C511"/>
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C513" sqref="C513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21219,11 +21257,11 @@
         <v>4.3338717367346939</v>
       </c>
       <c r="D502">
-        <f t="shared" ref="D502:D510" si="120">B502-C502</f>
+        <f t="shared" ref="D502:D512" si="120">B502-C502</f>
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
-        <f t="shared" ref="E502:E510" si="121">IF(D502&lt;0,1,0)</f>
+        <f t="shared" ref="E502:E512" si="121">IF(D502&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21377,6 +21415,44 @@
       <c r="E510">
         <f t="shared" si="121"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B511">
+        <v>4.2874999999999996</v>
+      </c>
+      <c r="C511">
+        <v>4.3034330000000001</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="120"/>
+        <v>-1.5933000000000419E-2</v>
+      </c>
+      <c r="E511">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B512">
+        <v>4.2898399999999999</v>
+      </c>
+      <c r="C512">
+        <v>4.2747992999999997</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="120"/>
+        <v>1.5040700000000129E-2</v>
+      </c>
+      <c r="E512">
+        <f t="shared" si="121"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638085EB-E8D4-4510-8BBC-715A487FCA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A888BC8-7F35-4DEA-9EB8-37CBE82AD6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5804,7 +5804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
     </sheetView>
@@ -11582,7 +11582,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C513" sqref="C513"/>
+      <selection pane="bottomLeft" activeCell="A511" sqref="A511:B512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23672,11 +23672,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
+      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25702,6 +25702,22 @@
       </c>
       <c r="B177">
         <v>4.2803300000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B178">
+        <v>4.2874999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B179">
+        <v>4.2898399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A888BC8-7F35-4DEA-9EB8-37CBE82AD6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313537FE-69E1-4A66-A85B-732492DAFA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -23675,7 +23675,7 @@
   <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313537FE-69E1-4A66-A85B-732492DAFA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19AF91B-16F1-4C6E-9E50-523AB942706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>7.4030382610790722E-4</v>
+        <v>3.6169755879660167E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10253,11 +10253,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D238" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D244" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E238" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E244" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10428,6 +10428,120 @@
         <v>-2.6844199999999763E-2</v>
       </c>
       <c r="E238">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B239">
+        <v>3.9335599999999999</v>
+      </c>
+      <c r="C239">
+        <v>3.9629924000000001</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="57"/>
+        <v>-2.9432400000000136E-2</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B240">
+        <v>3.9257080000000002</v>
+      </c>
+      <c r="C240">
+        <v>3.9427829000000001</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="57"/>
+        <v>-1.7074899999999893E-2</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B241">
+        <v>3.941433</v>
+      </c>
+      <c r="C241">
+        <v>3.9628540999999999</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="57"/>
+        <v>-2.1421099999999971E-2</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B242">
+        <v>3.9627180000000002</v>
+      </c>
+      <c r="C242">
+        <v>3.9352244999999999</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="57"/>
+        <v>2.7493500000000282E-2</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B243">
+        <v>3.9462999999999999</v>
+      </c>
+      <c r="C243">
+        <v>3.9683009999999999</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="57"/>
+        <v>-2.2000999999999937E-2</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B244">
+        <v>3.9341029999999999</v>
+      </c>
+      <c r="C244">
+        <v>3.9592266</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="57"/>
+        <v>-2.5123600000000135E-2</v>
+      </c>
+      <c r="E244">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
@@ -11578,11 +11692,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I512"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A511" sqref="A511:B512"/>
+      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A517" sqref="A517:B518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21257,11 +21371,11 @@
         <v>4.3338717367346939</v>
       </c>
       <c r="D502">
-        <f t="shared" ref="D502:D512" si="120">B502-C502</f>
+        <f t="shared" ref="D502:D518" si="120">B502-C502</f>
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
-        <f t="shared" ref="E502:E512" si="121">IF(D502&lt;0,1,0)</f>
+        <f t="shared" ref="E502:E518" si="121">IF(D502&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21454,6 +21568,123 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B513">
+        <v>4.2871600000000001</v>
+      </c>
+      <c r="C513">
+        <v>4.2688383999999999</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="120"/>
+        <v>1.832160000000016E-2</v>
+      </c>
+      <c r="E513">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B514">
+        <v>4.2748999999999997</v>
+      </c>
+      <c r="C514">
+        <v>4.2704930000000001</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="120"/>
+        <v>4.4069999999996057E-3</v>
+      </c>
+      <c r="E514">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B515">
+        <v>4.2761399999999998</v>
+      </c>
+      <c r="C515">
+        <v>4.2828154999999999</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="120"/>
+        <v>-6.6755000000000564E-3</v>
+      </c>
+      <c r="E515">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B516">
+        <v>4.2951899999999998</v>
+      </c>
+      <c r="C516">
+        <v>4.2851505000000003</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="120"/>
+        <v>1.0039499999999535E-2</v>
+      </c>
+      <c r="E516">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B517">
+        <v>4.2840999999999996</v>
+      </c>
+      <c r="C517">
+        <v>4.2759695000000004</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="120"/>
+        <v>8.1304999999991523E-3</v>
+      </c>
+      <c r="E517">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B518">
+        <v>4.2698</v>
+      </c>
+      <c r="C518">
+        <v>4.2887000000000004</v>
+      </c>
+      <c r="D518">
+        <f>B518-C519</f>
+        <v>4.2698</v>
+      </c>
+      <c r="E518">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="C519" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23672,11 +23903,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B181" sqref="B181"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25532,7 +25763,7 @@
         <v>4.3474510000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>45468</v>
       </c>
@@ -25543,7 +25774,7 @@
         <v>4.3605064999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>45469</v>
       </c>
@@ -25554,7 +25785,7 @@
         <v>4.3686179999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>45470</v>
       </c>
@@ -25565,7 +25796,7 @@
         <v>4.3597210000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>45471</v>
       </c>
@@ -25576,7 +25807,7 @@
         <v>4.2584676999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>45474</v>
       </c>
@@ -25587,7 +25818,7 @@
         <v>4.2494706999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>45475</v>
       </c>
@@ -25598,7 +25829,7 @@
         <v>4.2423166999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>45476</v>
       </c>
@@ -25609,7 +25840,7 @@
         <v>4.2435966000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>45477</v>
       </c>
@@ -25620,7 +25851,7 @@
         <v>4.2523793999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>45478</v>
       </c>
@@ -25631,7 +25862,7 @@
         <v>4.2454669999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>45481</v>
       </c>
@@ -25642,7 +25873,7 @@
         <v>4.2452300000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>45482</v>
       </c>
@@ -25653,7 +25884,7 @@
         <v>4.2456670000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>45483</v>
       </c>
@@ -25664,47 +25895,63 @@
         <v>4.2435492999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>45484</v>
       </c>
       <c r="B173">
         <v>4.2573999999999996</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="C173" s="61">
+        <v>4.2751260000000002</v>
+      </c>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>45485</v>
       </c>
       <c r="B174">
         <v>4.2503000000000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="C174" s="61">
+        <v>4.268046</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>45488</v>
       </c>
       <c r="B175">
         <v>4.2530099999999997</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="C175" s="61">
+        <v>4.2648472999999996</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>45489</v>
       </c>
       <c r="B176">
         <v>4.2527999999999997</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176" s="61">
+        <v>4.2704616</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>45490</v>
       </c>
       <c r="B177">
         <v>4.2803300000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177" s="61">
+        <v>4.2730721999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>45491</v>
       </c>
@@ -25712,12 +25959,60 @@
         <v>4.2874999999999996</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>45492</v>
       </c>
       <c r="B179">
         <v>4.2898399999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B180">
+        <v>4.2871600000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B181">
+        <v>4.2748999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B182">
+        <v>4.2761399999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B183">
+        <v>4.2951899999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B184">
+        <v>4.2840999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B185">
+        <v>4.2698</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19AF91B-16F1-4C6E-9E50-523AB942706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EEB0E-E5F1-4B72-9105-73CF9F0FD59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -11696,7 +11696,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A517" sqref="A517:B518"/>
+      <selection pane="bottomLeft" activeCell="B520" sqref="B520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23906,8 +23906,8 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25958,6 +25958,9 @@
       <c r="B178">
         <v>4.2874999999999996</v>
       </c>
+      <c r="C178" s="61">
+        <v>4.2741012999999999</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
@@ -25966,6 +25969,9 @@
       <c r="B179">
         <v>4.2898399999999999</v>
       </c>
+      <c r="C179" s="61">
+        <v>4.2782049999999998</v>
+      </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
@@ -25974,6 +25980,9 @@
       <c r="B180">
         <v>4.2871600000000001</v>
       </c>
+      <c r="C180" s="61">
+        <v>4.2838674000000001</v>
+      </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
@@ -25982,6 +25991,9 @@
       <c r="B181">
         <v>4.2748999999999997</v>
       </c>
+      <c r="C181" s="61">
+        <v>4.2836204000000002</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
@@ -25989,6 +26001,9 @@
       </c>
       <c r="B182">
         <v>4.2761399999999998</v>
+      </c>
+      <c r="C182" s="61">
+        <v>4.2847239999999998</v>
       </c>
     </row>
     <row r="183" spans="1:3">

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60EEB0E-E5F1-4B72-9105-73CF9F0FD59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5551A6F-EBF5-47B2-BECE-143EA62E3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,9 +5802,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
     </sheetView>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.6169755879660167E-4</v>
+        <v>2.1016027371956726E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10253,11 +10253,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D244" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D245" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E244" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E245" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10542,6 +10542,25 @@
         <v>-2.5123600000000135E-2</v>
       </c>
       <c r="E244">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B245">
+        <v>3.9680110000000002</v>
+      </c>
+      <c r="C245">
+        <v>4.0046244</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="57"/>
+        <v>-3.6613399999999796E-2</v>
+      </c>
+      <c r="E245">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
@@ -11692,11 +11711,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I520"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B520" sqref="B520"/>
+      <selection pane="bottomLeft" activeCell="D518" sqref="D518:E519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21371,7 +21390,7 @@
         <v>4.3338717367346939</v>
       </c>
       <c r="D502">
-        <f t="shared" ref="D502:D518" si="120">B502-C502</f>
+        <f t="shared" ref="D502:D517" si="120">B502-C502</f>
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
@@ -21675,16 +21694,35 @@
         <v>4.2887000000000004</v>
       </c>
       <c r="D518">
-        <f>B518-C519</f>
-        <v>4.2698</v>
+        <f t="shared" ref="D518:D519" si="122">B518-C518</f>
+        <v>-1.8900000000000361E-2</v>
       </c>
       <c r="E518">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" ref="E518:E519" si="123">IF(D518&lt;0,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:5">
-      <c r="C519" s="12"/>
+      <c r="A519" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B519">
+        <v>4.2930700000000002</v>
+      </c>
+      <c r="C519">
+        <v>4.2844176000000003</v>
+      </c>
+      <c r="D519">
+        <f t="shared" si="122"/>
+        <v>8.6523999999998935E-3</v>
+      </c>
+      <c r="E519">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="C520" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23903,11 +23941,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E178" sqref="E178"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26013,6 +26051,9 @@
       <c r="B183">
         <v>4.2951899999999998</v>
       </c>
+      <c r="C183" s="61">
+        <v>4.293749</v>
+      </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
@@ -26021,6 +26062,9 @@
       <c r="B184">
         <v>4.2840999999999996</v>
       </c>
+      <c r="C184" s="61">
+        <v>4.3059763999999996</v>
+      </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
@@ -26028,6 +26072,25 @@
       </c>
       <c r="B185">
         <v>4.2698</v>
+      </c>
+      <c r="C185" s="61">
+        <v>4.3166419999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B186">
+        <v>4.2930700000000002</v>
+      </c>
+      <c r="C186" s="61">
+        <v>4.326568</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="C187" s="61">
+        <v>4.3330583999999996</v>
       </c>
     </row>
   </sheetData>
@@ -28987,7 +29050,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5551A6F-EBF5-47B2-BECE-143EA62E3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B84848-87F0-49BA-BD25-08DB6631E1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I245"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
+      <selection pane="bottomLeft" activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.1016027371956726E-4</v>
+        <v>2.057624766839776E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10253,11 +10253,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D245" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D246" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E245" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E246" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10563,6 +10563,31 @@
       <c r="E245">
         <f t="shared" si="58"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B246">
+        <v>3.962561</v>
+      </c>
+      <c r="C246">
+        <v>3.9634282999999999</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="57"/>
+        <v>-8.6729999999990426E-4</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="C247">
+        <f>AVERAGE(C237:C246)</f>
+        <v>3.9579040999999995</v>
       </c>
     </row>
   </sheetData>
@@ -11711,11 +11736,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I520"/>
+  <dimension ref="A1:I522"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D518" sqref="D518:E519"/>
+      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C521" sqref="C521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21394,7 +21419,7 @@
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
-        <f t="shared" ref="E502:E518" si="121">IF(D502&lt;0,1,0)</f>
+        <f t="shared" ref="E502:E517" si="121">IF(D502&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21694,11 +21719,11 @@
         <v>4.2887000000000004</v>
       </c>
       <c r="D518">
-        <f t="shared" ref="D518:D519" si="122">B518-C518</f>
+        <f t="shared" ref="D518:D520" si="122">B518-C518</f>
         <v>-1.8900000000000361E-2</v>
       </c>
       <c r="E518">
-        <f t="shared" ref="E518:E519" si="123">IF(D518&lt;0,1,0)</f>
+        <f t="shared" ref="E518:E520" si="123">IF(D518&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21722,7 +21747,32 @@
       </c>
     </row>
     <row r="520" spans="1:5">
-      <c r="C520" s="12"/>
+      <c r="A520" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B520">
+        <v>4.2865000000000002</v>
+      </c>
+      <c r="C520">
+        <v>4.3032994000000002</v>
+      </c>
+      <c r="D520">
+        <f t="shared" ref="D520" si="124">B520-C520</f>
+        <v>-1.679940000000002E-2</v>
+      </c>
+      <c r="E520">
+        <f t="shared" ref="E520" si="125">IF(D520&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="C521">
+        <f>AVERAGE(C510:C520)</f>
+        <v>4.2860990181818179</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="C522" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23941,11 +23991,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186:B186"/>
+      <selection pane="bottomLeft" activeCell="A190" sqref="A190:A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26089,8 +26139,54 @@
       </c>
     </row>
     <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B187">
+        <v>4.2865000000000002</v>
+      </c>
       <c r="C187" s="61">
         <v>4.3330583999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>45505</v>
+      </c>
+      <c r="C188" s="61">
+        <v>4.3069677000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>45506</v>
+      </c>
+      <c r="C189" s="61">
+        <v>4.29474</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C190" s="61">
+        <v>4.2965894000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C191" s="61">
+        <v>4.2900669999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C192" s="61">
+        <v>4.2913569999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B84848-87F0-49BA-BD25-08DB6631E1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B62F84F-C409-4107-BB31-2AF1317B5812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C247" sqref="C247"/>
+      <selection pane="bottomLeft" activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.057624766839776E-4</v>
+        <v>2.2008417393323167E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10585,9 +10585,28 @@
       </c>
     </row>
     <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B247">
+        <v>3.961633</v>
+      </c>
       <c r="C247">
         <f>AVERAGE(C237:C246)</f>
         <v>3.9579040999999995</v>
+      </c>
+      <c r="D247">
+        <f t="shared" ref="D247" si="59">B247-C247</f>
+        <v>3.7289000000004791E-3</v>
+      </c>
+      <c r="E247">
+        <f t="shared" ref="E247" si="60">IF(D247&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="C248">
+        <v>3.9720833</v>
       </c>
     </row>
   </sheetData>
@@ -11736,11 +11755,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I522"/>
+  <dimension ref="A1:I523"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C521" sqref="C521"/>
+      <selection pane="bottomLeft" activeCell="A521" sqref="A521:B521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21719,11 +21738,11 @@
         <v>4.2887000000000004</v>
       </c>
       <c r="D518">
-        <f t="shared" ref="D518:D520" si="122">B518-C518</f>
+        <f t="shared" ref="D518:D519" si="122">B518-C518</f>
         <v>-1.8900000000000361E-2</v>
       </c>
       <c r="E518">
-        <f t="shared" ref="E518:E520" si="123">IF(D518&lt;0,1,0)</f>
+        <f t="shared" ref="E518:E519" si="123">IF(D518&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21766,13 +21785,32 @@
       </c>
     </row>
     <row r="521" spans="1:5">
+      <c r="A521" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B521">
+        <v>4.2882699999999998</v>
+      </c>
       <c r="C521">
         <f>AVERAGE(C510:C520)</f>
         <v>4.2860990181818179</v>
       </c>
+      <c r="D521">
+        <f t="shared" ref="D521" si="126">B521-C521</f>
+        <v>2.1709818181818719E-3</v>
+      </c>
+      <c r="E521">
+        <f t="shared" ref="E521" si="127">IF(D521&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="522" spans="1:5">
-      <c r="C522" s="12"/>
+      <c r="C522">
+        <v>4.3482966000000003</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="C523" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23993,9 +24031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190:A192"/>
+      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26152,6 +26190,9 @@
     <row r="188" spans="1:3">
       <c r="A188" s="1">
         <v>45505</v>
+      </c>
+      <c r="B188">
+        <v>4.2882699999999998</v>
       </c>
       <c r="C188" s="61">
         <v>4.3069677000000004</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B62F84F-C409-4107-BB31-2AF1317B5812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58832927-9A88-4714-A57F-7BC3596038A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C249" sqref="C249"/>
+      <selection pane="bottomLeft" activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.2008417393323167E-4</v>
+        <v>2.7794496675131536E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10605,8 +10605,27 @@
       </c>
     </row>
     <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B248">
+        <v>3.9865949999999999</v>
+      </c>
       <c r="C248">
         <v>3.9720833</v>
+      </c>
+      <c r="D248">
+        <f t="shared" ref="D248" si="61">B248-C248</f>
+        <v>1.4511699999999905E-2</v>
+      </c>
+      <c r="E248">
+        <f t="shared" ref="E248" si="62">IF(D248&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="C249">
+        <v>3.9758116999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11755,11 +11774,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I523"/>
+  <dimension ref="A1:I525"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A521" sqref="A521:B521"/>
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C525" sqref="C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21805,12 +21824,31 @@
       </c>
     </row>
     <row r="522" spans="1:5">
+      <c r="A522" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B522">
+        <v>4.3001399999999999</v>
+      </c>
       <c r="C522">
         <v>4.3482966000000003</v>
       </c>
+      <c r="D522">
+        <f t="shared" ref="D522" si="128">B522-C522</f>
+        <v>-4.8156600000000438E-2</v>
+      </c>
+      <c r="E522">
+        <f t="shared" ref="E522" si="129">IF(D522&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="523" spans="1:5">
-      <c r="C523" s="12"/>
+      <c r="C523">
+        <v>4.3038910000000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="C525" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58832927-9A88-4714-A57F-7BC3596038A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59838EC-8943-4A5B-96DB-287568C80FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -11776,9 +11776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
   <dimension ref="A1:I525"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C525" sqref="C525"/>
+      <selection pane="bottomLeft" activeCell="A522" sqref="A522:B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24069,9 +24069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26239,6 +26239,9 @@
     <row r="189" spans="1:3">
       <c r="A189" s="1">
         <v>45506</v>
+      </c>
+      <c r="B189">
+        <v>4.3001399999999999</v>
       </c>
       <c r="C189" s="61">
         <v>4.29474</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59838EC-8943-4A5B-96DB-287568C80FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD3732-26B8-428B-A316-A29B8BDF989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.7794496675131536E-4</v>
+        <v>9.9115753175705467E-5</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,17 +10615,36 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D249" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E249" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B249">
+        <v>3.93174</v>
+      </c>
       <c r="C249">
         <v>3.9758116999999999</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="61"/>
+        <v>-4.4071699999999936E-2</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="C250">
+        <v>3.9654384</v>
       </c>
     </row>
   </sheetData>
@@ -11778,7 +11797,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A522" sqref="A522:B522"/>
+      <selection pane="bottomLeft" activeCell="C525" sqref="C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21834,17 +21853,36 @@
         <v>4.3482966000000003</v>
       </c>
       <c r="D522">
-        <f t="shared" ref="D522" si="128">B522-C522</f>
+        <f t="shared" ref="D522:D523" si="128">B522-C522</f>
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E523" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:5">
+      <c r="A523" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B523">
+        <v>4.2895099999999999</v>
+      </c>
       <c r="C523">
         <v>4.3038910000000001</v>
+      </c>
+      <c r="D523">
+        <f>B523-C523</f>
+        <v>-1.4381000000000199E-2</v>
+      </c>
+      <c r="E523">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="C524">
+        <v>4.2826485999999999</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -24069,9 +24107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A189" sqref="A189:B189"/>
+      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26250,6 +26288,9 @@
     <row r="190" spans="1:3">
       <c r="A190" s="1">
         <v>45509</v>
+      </c>
+      <c r="B190">
+        <v>4.2895099999999999</v>
       </c>
       <c r="C190" s="61">
         <v>4.2965894000000002</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD3732-26B8-428B-A316-A29B8BDF989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C3453-F47E-4497-9D5E-EB116461EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C251" sqref="C251"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>9.9115753175705467E-5</v>
+        <v>-6.2950575150301136E-5</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D249" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D250" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E249" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E250" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10643,8 +10643,27 @@
       </c>
     </row>
     <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B250">
+        <v>3.9251830000000001</v>
+      </c>
       <c r="C250">
         <v>3.9654384</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="61"/>
+        <v>-4.0255399999999941E-2</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="C251">
+        <v>3.9120540618896502</v>
       </c>
     </row>
   </sheetData>
@@ -11793,11 +11812,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I525"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C525" sqref="C525"/>
+      <selection pane="bottomLeft" activeCell="A524" sqref="A524:B524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21853,11 +21872,11 @@
         <v>4.3482966000000003</v>
       </c>
       <c r="D522">
-        <f t="shared" ref="D522:D523" si="128">B522-C522</f>
+        <f t="shared" ref="D522" si="128">B522-C522</f>
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E523" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E524" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21881,12 +21900,31 @@
       </c>
     </row>
     <row r="524" spans="1:5">
+      <c r="A524" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B524">
+        <v>4.2984200000000001</v>
+      </c>
       <c r="C524">
         <v>4.2826485999999999</v>
       </c>
+      <c r="D524">
+        <f>B524-C524</f>
+        <v>1.5771400000000213E-2</v>
+      </c>
+      <c r="E524">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="C525" s="12"/>
+      <c r="C525">
+        <v>4.3567652700000004</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="C526" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24107,9 +24145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191:B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26299,6 +26337,9 @@
     <row r="191" spans="1:3">
       <c r="A191" s="1">
         <v>45510</v>
+      </c>
+      <c r="B191">
+        <v>4.2984200000000001</v>
       </c>
       <c r="C191" s="61">
         <v>4.2900669999999996</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9C3453-F47E-4497-9D5E-EB116461EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6867F73-2CD7-4E1B-A700-6B5397EF17B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5806,7 +5806,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
+      <selection pane="bottomLeft" activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-6.2950575150301136E-5</v>
+        <v>5.8364979591699396E-5</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D250" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D251" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E250" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E251" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10662,8 +10662,22 @@
       </c>
     </row>
     <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B251">
+        <v>3.94232</v>
+      </c>
       <c r="C251">
         <v>3.9120540618896502</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="61"/>
+        <v>3.0265938110349833E-2</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11816,7 +11830,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A524" sqref="A524:B524"/>
+      <selection pane="bottomLeft" activeCell="A525" sqref="A525:B525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21876,7 +21890,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E524" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E525" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21919,8 +21933,22 @@
       </c>
     </row>
     <row r="525" spans="1:5">
+      <c r="A525" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B525">
+        <v>4.3072999999999997</v>
+      </c>
       <c r="C525">
         <v>4.3567652700000004</v>
+      </c>
+      <c r="D525">
+        <f>B525-C525</f>
+        <v>-4.9465270000000672E-2</v>
+      </c>
+      <c r="E525">
+        <f t="shared" si="129"/>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -24147,7 +24175,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191:B191"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192:B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26348,6 +26376,9 @@
     <row r="192" spans="1:3">
       <c r="A192" s="1">
         <v>45511</v>
+      </c>
+      <c r="B192">
+        <v>4.3072999999999997</v>
       </c>
       <c r="C192" s="61">
         <v>4.2913569999999996</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6867F73-2CD7-4E1B-A700-6B5397EF17B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918DC980-1C79-4A34-AA3F-84074BC5A14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B252" sqref="B252"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10678,6 +10678,11 @@
       <c r="E251">
         <f t="shared" si="62"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="C252">
+        <v>3.9436485999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11826,11 +11831,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I526"/>
+  <dimension ref="A1:I527"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A525" sqref="A525:B525"/>
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C527" sqref="C527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21952,7 +21957,12 @@
       </c>
     </row>
     <row r="526" spans="1:5">
-      <c r="C526" s="12"/>
+      <c r="C526">
+        <v>4.3516554999999997</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="C527" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24171,11 +24181,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A192" sqref="A192:B192"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26382,6 +26392,46 @@
       </c>
       <c r="C192" s="61">
         <v>4.2913569999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>45512</v>
+      </c>
+      <c r="C193" s="61">
+        <v>4.2857346999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>45515</v>
+      </c>
+      <c r="C194" s="61">
+        <v>4.2760176999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>45516</v>
+      </c>
+      <c r="C195" s="61">
+        <v>4.2666244999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>45517</v>
+      </c>
+      <c r="C196" s="61">
+        <v>4.2638829999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>45518</v>
+      </c>
+      <c r="C197" s="61">
+        <v>4.2652970000000003</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918DC980-1C79-4A34-AA3F-84074BC5A14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45783EFB-0DF2-45A8-A28E-0FFE2F1231F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C253" sqref="C253"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>5.8364979591699396E-5</v>
+        <v>1.0530934222280906E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D251" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D252" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E251" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E252" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10681,8 +10681,27 @@
       </c>
     </row>
     <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B252">
+        <v>3.9554900000000002</v>
+      </c>
       <c r="C252">
         <v>3.9436485999999999</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="61"/>
+        <v>1.1841400000000224E-2</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="C253">
+        <v>3.9492354000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11831,11 +11850,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I527"/>
+  <dimension ref="A1:I528"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C527" sqref="C527"/>
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A526" sqref="A526:B526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21895,7 +21914,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E525" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E526" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21957,12 +21976,31 @@
       </c>
     </row>
     <row r="526" spans="1:5">
+      <c r="A526" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B526">
+        <v>4.3217800000000004</v>
+      </c>
       <c r="C526">
         <v>4.3516554999999997</v>
       </c>
+      <c r="D526">
+        <f>B526-C526</f>
+        <v>-2.9875499999999278E-2</v>
+      </c>
+      <c r="E526">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="527" spans="1:5">
-      <c r="C527" s="12"/>
+      <c r="C527">
+        <v>4.3891929999999997</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="C528" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24185,7 +24223,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:A197"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26397,6 +26435,9 @@
     <row r="193" spans="1:3">
       <c r="A193" s="1">
         <v>45512</v>
+      </c>
+      <c r="B193">
+        <v>4.3217800000000004</v>
       </c>
       <c r="C193" s="61">
         <v>4.2857346999999999</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45783EFB-0DF2-45A8-A28E-0FFE2F1231F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AA3E07-94AD-49EB-AA4C-1E8A592C5AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.0530934222280906E-4</v>
+        <v>1.36655733721925E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D252" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D253" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E252" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E253" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10700,8 +10700,27 @@
       </c>
     </row>
     <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B253">
+        <v>3.9572400000000001</v>
+      </c>
       <c r="C253">
         <v>3.9492354000000001</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="61"/>
+        <v>8.0046000000000284E-3</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="C254">
+        <v>3.9544933000000002</v>
       </c>
     </row>
   </sheetData>
@@ -11850,11 +11869,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I528"/>
+  <dimension ref="A1:I529"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A526" sqref="A526:B526"/>
+      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A527" sqref="A527:B527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21914,7 +21933,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E526" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E527" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21995,12 +22014,31 @@
       </c>
     </row>
     <row r="527" spans="1:5">
+      <c r="A527" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B527">
+        <v>4.3191199999999998</v>
+      </c>
       <c r="C527">
         <v>4.3891929999999997</v>
       </c>
+      <c r="D527">
+        <f>B527-C527</f>
+        <v>-7.007299999999983E-2</v>
+      </c>
+      <c r="E527">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="528" spans="1:5">
-      <c r="C528" s="12"/>
+      <c r="C528">
+        <v>4.3446144999999996</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24223,7 +24261,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:B193"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26445,7 +26483,10 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>45515</v>
+        <v>45513</v>
+      </c>
+      <c r="B194">
+        <v>4.3191199999999998</v>
       </c>
       <c r="C194" s="61">
         <v>4.2760176999999997</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AA3E07-94AD-49EB-AA4C-1E8A592C5AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C687483-5BC4-4068-97D5-BC44EFC3FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I254"/>
+  <dimension ref="A1:I255"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B254" sqref="B254"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.36655733721925E-4</v>
+        <v>1.3685353714594896E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D253" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D254" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E253" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E254" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10719,8 +10719,27 @@
       </c>
     </row>
     <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B254">
+        <v>3.9546800000000002</v>
+      </c>
       <c r="C254">
         <v>3.9544933000000002</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="61"/>
+        <v>1.866999999999841E-4</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="C255">
+        <v>3.9412202999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11869,11 +11888,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I529"/>
+  <dimension ref="A1:I530"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A527" sqref="A527:B527"/>
+      <selection pane="bottomLeft" activeCell="A528" sqref="A528:B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21933,7 +21952,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E527" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E528" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22033,12 +22052,31 @@
       </c>
     </row>
     <row r="528" spans="1:5">
+      <c r="A528" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B528">
+        <v>4.3159000000000001</v>
+      </c>
       <c r="C528">
         <v>4.3446144999999996</v>
       </c>
+      <c r="D528">
+        <f>B528-C528</f>
+        <v>-2.8714499999999532E-2</v>
+      </c>
+      <c r="E528">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="529" spans="3:3">
-      <c r="C529" s="12"/>
+      <c r="C529">
+        <v>4.3323219999999996</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24261,7 +24299,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26495,6 +26533,9 @@
     <row r="195" spans="1:3">
       <c r="A195" s="1">
         <v>45516</v>
+      </c>
+      <c r="B195">
+        <v>4.3159000000000001</v>
       </c>
       <c r="C195" s="61">
         <v>4.2666244999999998</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C687483-5BC4-4068-97D5-BC44EFC3FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5482B06-BC13-4BC0-AAE1-EE533D3AE83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B255" sqref="B255"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.3685353714594896E-4</v>
+        <v>1.0880962558238266E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D254" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D255" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E254" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E255" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10738,8 +10738,27 @@
       </c>
     </row>
     <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B255">
+        <v>3.934234</v>
+      </c>
       <c r="C255">
         <v>3.9412202999999999</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="61"/>
+        <v>-6.9862999999998898E-3</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="C256">
+        <v>3.9012527000000001</v>
       </c>
     </row>
   </sheetData>
@@ -11888,11 +11907,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I530"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A528" sqref="A528:B528"/>
+      <selection pane="bottomLeft" activeCell="C532" sqref="C532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21952,7 +21971,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E528" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E529" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21967,7 +21986,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f>B523-C523</f>
+        <f t="shared" ref="D523:D529" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -21986,7 +22005,7 @@
         <v>4.2826485999999999</v>
       </c>
       <c r="D524">
-        <f>B524-C524</f>
+        <f t="shared" si="130"/>
         <v>1.5771400000000213E-2</v>
       </c>
       <c r="E524">
@@ -22005,7 +22024,7 @@
         <v>4.3567652700000004</v>
       </c>
       <c r="D525">
-        <f>B525-C525</f>
+        <f t="shared" si="130"/>
         <v>-4.9465270000000672E-2</v>
       </c>
       <c r="E525">
@@ -22024,7 +22043,7 @@
         <v>4.3516554999999997</v>
       </c>
       <c r="D526">
-        <f>B526-C526</f>
+        <f t="shared" si="130"/>
         <v>-2.9875499999999278E-2</v>
       </c>
       <c r="E526">
@@ -22043,7 +22062,7 @@
         <v>4.3891929999999997</v>
       </c>
       <c r="D527">
-        <f>B527-C527</f>
+        <f t="shared" si="130"/>
         <v>-7.007299999999983E-2</v>
       </c>
       <c r="E527">
@@ -22062,7 +22081,7 @@
         <v>4.3446144999999996</v>
       </c>
       <c r="D528">
-        <f>B528-C528</f>
+        <f t="shared" si="130"/>
         <v>-2.8714499999999532E-2</v>
       </c>
       <c r="E528">
@@ -22070,13 +22089,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="3:3">
+    <row r="529" spans="1:5">
+      <c r="A529" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B529">
+        <v>4.3023999999999996</v>
+      </c>
       <c r="C529">
         <v>4.3323219999999996</v>
       </c>
-    </row>
-    <row r="530" spans="3:3">
-      <c r="C530" s="12"/>
+      <c r="D529">
+        <f t="shared" si="130"/>
+        <v>-2.9922000000000004E-2</v>
+      </c>
+      <c r="E529">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="C530">
+        <v>4.3558406999999999</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="C532" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24297,9 +24335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195:B195"/>
+      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26544,6 +26582,9 @@
     <row r="196" spans="1:3">
       <c r="A196" s="1">
         <v>45517</v>
+      </c>
+      <c r="B196">
+        <v>4.3023999999999996</v>
       </c>
       <c r="C196" s="61">
         <v>4.2638829999999999</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5482B06-BC13-4BC0-AAE1-EE533D3AE83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB786F5-10CB-429F-96FC-4D96D96733E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F256" sqref="F256"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.0880962558238266E-4</v>
+        <v>-2.196471350079806E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D255" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D261" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E255" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E261" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10757,8 +10757,125 @@
       </c>
     </row>
     <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B256">
+        <v>3.8962569999999999</v>
+      </c>
       <c r="C256">
         <v>3.9012527000000001</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="61"/>
+        <v>-4.9957000000002694E-3</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B257">
+        <v>3.8953609999999999</v>
+      </c>
+      <c r="C257">
+        <v>3.9077969000000001</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="61"/>
+        <v>-1.2435900000000277E-2</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B258">
+        <v>3.9045999999999998</v>
+      </c>
+      <c r="C258">
+        <v>3.9153091999999998</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="61"/>
+        <v>-1.0709199999999974E-2</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B259">
+        <v>3.867426</v>
+      </c>
+      <c r="C259">
+        <v>3.8988396999999999</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="61"/>
+        <v>-3.1413699999999878E-2</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B260">
+        <v>3.8443999999999998</v>
+      </c>
+      <c r="C260">
+        <v>3.8769524</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="61"/>
+        <v>-3.2552400000000148E-2</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B261">
+        <v>3.8403200000000002</v>
+      </c>
+      <c r="C261">
+        <v>3.8329589999999998</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="61"/>
+        <v>7.361000000000395E-3</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B262">
+        <v>3.8343989999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11907,11 +12024,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I532"/>
+  <dimension ref="A1:I536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C532" sqref="C532"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B537" sqref="B537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21971,7 +22088,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E529" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E535" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21986,7 +22103,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D529" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D535" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22109,12 +22226,127 @@
       </c>
     </row>
     <row r="530" spans="1:5">
+      <c r="A530" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B530">
+        <v>4.2845000000000004</v>
+      </c>
       <c r="C530">
         <v>4.3558406999999999</v>
       </c>
+      <c r="D530">
+        <f t="shared" si="130"/>
+        <v>-7.134069999999948E-2</v>
+      </c>
+      <c r="E530">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B531">
+        <v>4.2896099999999997</v>
+      </c>
+      <c r="C531">
+        <v>4.292605</v>
+      </c>
+      <c r="D531">
+        <f t="shared" si="130"/>
+        <v>-2.995000000000303E-3</v>
+      </c>
+      <c r="E531">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="532" spans="1:5">
-      <c r="C532" s="12"/>
+      <c r="A532" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B532">
+        <v>4.2868199999999996</v>
+      </c>
+      <c r="C532">
+        <v>4.2917756999999996</v>
+      </c>
+      <c r="D532">
+        <f t="shared" si="130"/>
+        <v>-4.9557000000000073E-3</v>
+      </c>
+      <c r="E532">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B533">
+        <v>4.2637600000000004</v>
+      </c>
+      <c r="C533">
+        <v>4.3048586999999996</v>
+      </c>
+      <c r="D533">
+        <f t="shared" si="130"/>
+        <v>-4.1098699999999155E-2</v>
+      </c>
+      <c r="E533">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B534">
+        <v>4.2614000000000001</v>
+      </c>
+      <c r="C534">
+        <v>4.2760524999999996</v>
+      </c>
+      <c r="D534">
+        <f t="shared" si="130"/>
+        <v>-1.4652499999999513E-2</v>
+      </c>
+      <c r="E534">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B535">
+        <v>4.2737999999999996</v>
+      </c>
+      <c r="C535">
+        <v>4.2643766000000003</v>
+      </c>
+      <c r="D535">
+        <f t="shared" si="130"/>
+        <v>9.4233999999993046E-3</v>
+      </c>
+      <c r="E535">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B536">
+        <v>4.2773099999999999</v>
+      </c>
+      <c r="C536" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24333,11 +24565,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B197" sqref="B197"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26594,8 +26826,106 @@
       <c r="A197" s="1">
         <v>45518</v>
       </c>
+      <c r="B197">
+        <v>4.2845000000000004</v>
+      </c>
       <c r="C197" s="61">
         <v>4.2652970000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B198">
+        <v>4.2896099999999997</v>
+      </c>
+      <c r="C198" s="61">
+        <v>4.318594</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B199">
+        <v>4.2868199999999996</v>
+      </c>
+      <c r="C199" s="61">
+        <v>4.3329205999999996</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B200">
+        <v>4.2637600000000004</v>
+      </c>
+      <c r="C200" s="61">
+        <v>4.3406215000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B201">
+        <v>4.2614000000000001</v>
+      </c>
+      <c r="C201" s="61">
+        <v>4.3356110000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B202">
+        <v>4.2737999999999996</v>
+      </c>
+      <c r="C202" s="61">
+        <v>4.3373013</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>45526</v>
+      </c>
+      <c r="C203" s="61">
+        <v>4.3079900000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>45527</v>
+      </c>
+      <c r="C204" s="61">
+        <v>4.3221850000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>45530</v>
+      </c>
+      <c r="C205" s="61">
+        <v>4.3303739999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>45531</v>
+      </c>
+      <c r="C206" s="61">
+        <v>4.3301350000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>45532</v>
+      </c>
+      <c r="C207" s="61">
+        <v>4.3363804999999997</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB786F5-10CB-429F-96FC-4D96D96733E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2B6DE-D9CE-48B3-8CFF-06C9E627A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C262" sqref="C262"/>
+      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-2.196471350079806E-4</v>
+        <v>-2.3593162874358274E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D261" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D262" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E261" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E262" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10876,6 +10876,22 @@
       </c>
       <c r="B262">
         <v>3.8343989999999999</v>
+      </c>
+      <c r="C262">
+        <v>3.8388689</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="61"/>
+        <v>-4.4699000000001377E-3</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="C263">
+        <v>3.8443573</v>
       </c>
     </row>
   </sheetData>
@@ -12024,11 +12040,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I536"/>
+  <dimension ref="A1:I539"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B537" sqref="B537"/>
+      <selection pane="bottomLeft" activeCell="A536" sqref="A536:B536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22088,7 +22104,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E535" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E536" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22103,7 +22119,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D535" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D536" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22346,7 +22362,25 @@
       <c r="B536">
         <v>4.2773099999999999</v>
       </c>
-      <c r="C536" s="12"/>
+      <c r="C536">
+        <v>4.2774295999999996</v>
+      </c>
+      <c r="D536">
+        <f t="shared" si="130"/>
+        <v>-1.1959999999966442E-4</v>
+      </c>
+      <c r="E536">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="C537">
+        <v>4.2867316999999998</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="C539" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24567,9 +24601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203:B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26891,6 +26925,9 @@
     <row r="203" spans="1:3">
       <c r="A203" s="1">
         <v>45526</v>
+      </c>
+      <c r="B203">
+        <v>4.2773099999999999</v>
       </c>
       <c r="C203" s="61">
         <v>4.3079900000000002</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB2B6DE-D9CE-48B3-8CFF-06C9E627A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29191029-4533-4FF3-ACE9-1BFF7A3A71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I263"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C264" sqref="C264"/>
+      <selection pane="bottomLeft" activeCell="C265" sqref="C265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-2.3593162874358274E-4</v>
+        <v>-2.1353227138196584E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D262" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D263" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E262" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E263" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10890,8 +10890,27 @@
       </c>
     </row>
     <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B263">
+        <v>3.84999</v>
+      </c>
       <c r="C263">
         <v>3.8443573</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="61"/>
+        <v>5.632700000000046E-3</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="C264">
+        <v>3.8253663000000002</v>
       </c>
     </row>
   </sheetData>
@@ -12044,7 +12063,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A536" sqref="A536:B536"/>
+      <selection pane="bottomLeft" activeCell="A537" sqref="A537:B537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22104,7 +22123,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E536" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E537" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22119,7 +22138,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D536" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D537" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22375,8 +22394,27 @@
       </c>
     </row>
     <row r="537" spans="1:5">
+      <c r="A537" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B537">
+        <v>4.2798800000000004</v>
+      </c>
       <c r="C537">
         <v>4.2867316999999998</v>
+      </c>
+      <c r="D537">
+        <f t="shared" si="130"/>
+        <v>-6.851699999999461E-3</v>
+      </c>
+      <c r="E537">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="C538">
+        <v>4.2816267000000003</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -24603,7 +24641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A203" sqref="A203:B203"/>
+      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26936,6 +26974,9 @@
     <row r="204" spans="1:3">
       <c r="A204" s="1">
         <v>45527</v>
+      </c>
+      <c r="B204">
+        <v>4.2798800000000004</v>
       </c>
       <c r="C204" s="61">
         <v>4.3221850000000002</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29191029-4533-4FF3-ACE9-1BFF7A3A71DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C833B-4B50-4C4F-B23C-45DFA3C24811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C265" sqref="C265"/>
+      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-2.1353227138196584E-4</v>
+        <v>-2.6118538061625616E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D263" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D264" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E263" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E264" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10909,8 +10909,27 @@
       </c>
     </row>
     <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B264">
+        <v>3.8126199999999999</v>
+      </c>
       <c r="C264">
         <v>3.8253663000000002</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="61"/>
+        <v>-1.2746300000000321E-2</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="C265">
+        <v>3.8603372999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12059,11 +12078,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I539"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A537" sqref="A537:B537"/>
+      <selection pane="bottomLeft" activeCell="C540" sqref="C540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22123,7 +22142,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E537" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E538" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22138,7 +22157,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D537" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D538" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22413,12 +22432,31 @@
       </c>
     </row>
     <row r="538" spans="1:5">
+      <c r="A538" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B538">
+        <v>4.2648200000000003</v>
+      </c>
       <c r="C538">
         <v>4.2816267000000003</v>
       </c>
+      <c r="D538">
+        <f t="shared" si="130"/>
+        <v>-1.6806700000000063E-2</v>
+      </c>
+      <c r="E538">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="539" spans="1:5">
-      <c r="C539" s="12"/>
+      <c r="C539">
+        <v>4.303769</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="C541" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24639,9 +24677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
+      <selection pane="bottomLeft" activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26985,6 +27023,9 @@
     <row r="205" spans="1:3">
       <c r="A205" s="1">
         <v>45530</v>
+      </c>
+      <c r="B205">
+        <v>4.2648200000000003</v>
       </c>
       <c r="C205" s="61">
         <v>4.3303739999999999</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C833B-4B50-4C4F-B23C-45DFA3C24811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2933FE83-1A15-4DE0-8B69-AB218E1242F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I265"/>
+  <dimension ref="A1:I266"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A265" sqref="A265"/>
+      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-2.6118538061625616E-4</v>
+        <v>-3.6036005720483077E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D264" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D265" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E264" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E265" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10928,8 +10928,27 @@
       </c>
     </row>
     <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B265">
+        <v>3.8338939999999999</v>
+      </c>
       <c r="C265">
         <v>3.8603372999999999</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="61"/>
+        <v>-2.6443299999999947E-2</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="C266">
+        <v>3.8816168000000002</v>
       </c>
     </row>
   </sheetData>
@@ -12080,9 +12099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
   <dimension ref="A1:I541"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C540" sqref="C540"/>
+      <selection pane="bottomLeft" activeCell="A539" sqref="A539:B539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22142,7 +22161,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E538" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E539" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22157,7 +22176,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D538" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D539" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22451,8 +22470,27 @@
       </c>
     </row>
     <row r="539" spans="1:5">
+      <c r="A539" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B539">
+        <v>4.2803699999999996</v>
+      </c>
       <c r="C539">
         <v>4.303769</v>
+      </c>
+      <c r="D539">
+        <f t="shared" si="130"/>
+        <v>-2.3399000000000392E-2</v>
+      </c>
+      <c r="E539">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="C540">
+        <v>4.2945045999999998</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -24679,7 +24717,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B205" sqref="B205"/>
+      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27034,6 +27072,9 @@
     <row r="206" spans="1:3">
       <c r="A206" s="1">
         <v>45531</v>
+      </c>
+      <c r="B206">
+        <v>4.2803699999999996</v>
       </c>
       <c r="C206" s="61">
         <v>4.3301350000000003</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2933FE83-1A15-4DE0-8B69-AB218E1242F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11680F6-F331-4E37-8C82-16F05EF071DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I266"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
+      <selection pane="bottomLeft" activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-3.6036005720483077E-4</v>
+        <v>-5.5362964189462505E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D265" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D266" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E265" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E266" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10947,8 +10947,27 @@
       </c>
     </row>
     <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B266">
+        <v>3.8300399999999999</v>
+      </c>
       <c r="C266">
         <v>3.8816168000000002</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="61"/>
+        <v>-5.1576800000000311E-2</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="C267">
+        <v>3.8216193000000001</v>
       </c>
     </row>
   </sheetData>
@@ -12097,11 +12116,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I543"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A539" sqref="A539:B539"/>
+      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C543" sqref="C543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22161,7 +22180,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E539" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E540" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22176,7 +22195,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D539" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D540" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22489,12 +22508,31 @@
       </c>
     </row>
     <row r="540" spans="1:5">
+      <c r="A540" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B540">
+        <v>4.2809900000000001</v>
+      </c>
       <c r="C540">
         <v>4.2945045999999998</v>
       </c>
+      <c r="D540">
+        <f t="shared" si="130"/>
+        <v>-1.351459999999971E-2</v>
+      </c>
+      <c r="E540">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="541" spans="1:5">
-      <c r="C541" s="12"/>
+      <c r="C541">
+        <v>4.3033032000000002</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="C543" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24713,11 +24751,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B208" sqref="B208:B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27084,8 +27122,51 @@
       <c r="A207" s="1">
         <v>45532</v>
       </c>
+      <c r="B207">
+        <v>4.2809900000000001</v>
+      </c>
       <c r="C207" s="61">
         <v>4.3363804999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>45533</v>
+      </c>
+      <c r="C208" s="61">
+        <v>4.2920217999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>45537</v>
+      </c>
+      <c r="C209" s="61">
+        <v>4.2971700000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>45538</v>
+      </c>
+      <c r="C210" s="61">
+        <v>4.2884893000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>45539</v>
+      </c>
+      <c r="C211" s="61">
+        <v>4.2867845999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>45540</v>
+      </c>
+      <c r="C212" s="61">
+        <v>4.2799997000000003</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11680F6-F331-4E37-8C82-16F05EF071DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE9FF94-CD9E-41C5-B2C1-FD64FD0B9395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C268" sqref="C268"/>
+      <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-5.5362964189462505E-4</v>
+        <v>-4.0801186128599918E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,11 +10615,11 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248:D266" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D267" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248:E266" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E267" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10966,8 +10966,27 @@
       </c>
     </row>
     <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B267">
+        <v>3.8597999999999999</v>
+      </c>
       <c r="C267">
         <v>3.8216193000000001</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="61"/>
+        <v>3.8180699999999845E-2</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="C268">
+        <v>3.8410834999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12120,7 +12139,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C543" sqref="C543"/>
+      <selection pane="bottomLeft" activeCell="A541" sqref="A541:B541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22180,7 +22199,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E540" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E541" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22195,7 +22214,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D540" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D541" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22527,8 +22546,27 @@
       </c>
     </row>
     <row r="541" spans="1:5">
+      <c r="A541" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B541">
+        <v>4.2934999999999999</v>
+      </c>
       <c r="C541">
         <v>4.3033032000000002</v>
+      </c>
+      <c r="D541">
+        <f t="shared" si="130"/>
+        <v>-9.803200000000345E-3</v>
+      </c>
+      <c r="E541">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="C542">
+        <v>4.3068594999999998</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -24755,7 +24793,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B208" sqref="B208:B212"/>
+      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27132,6 +27170,9 @@
     <row r="208" spans="1:3">
       <c r="A208" s="1">
         <v>45533</v>
+      </c>
+      <c r="B208">
+        <v>4.2934999999999999</v>
       </c>
       <c r="C208" s="61">
         <v>4.2920217999999997</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE9FF94-CD9E-41C5-B2C1-FD64FD0B9395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE787E3-0B71-4C02-88E6-9FD7DF0AC457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,10 +5802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-4.0801186128599918E-4</v>
+        <v>-3.1541443858455292E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10985,8 +10985,27 @@
       </c>
     </row>
     <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B268">
+        <v>3.865399</v>
+      </c>
       <c r="C268">
         <v>3.8410834999999999</v>
+      </c>
+      <c r="D268">
+        <f t="shared" ref="D268" si="63">B268-C268</f>
+        <v>2.4315500000000156E-2</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ref="E268" si="64">IF(D268&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="C269">
+        <v>3.8728337000000002</v>
       </c>
     </row>
   </sheetData>
@@ -12135,11 +12154,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A528" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A541" sqref="A541:B541"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C544" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22199,7 +22218,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E541" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E542" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22214,7 +22233,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D541" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D542" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22565,12 +22584,31 @@
       </c>
     </row>
     <row r="542" spans="1:5">
+      <c r="A542" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B542">
+        <v>4.2829199999999998</v>
+      </c>
       <c r="C542">
         <v>4.3068594999999998</v>
       </c>
+      <c r="D542">
+        <f t="shared" ref="D542" si="131">B542-C542</f>
+        <v>-2.3939500000000002E-2</v>
+      </c>
+      <c r="E542">
+        <f t="shared" ref="E542" si="132">IF(D542&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="543" spans="1:5">
-      <c r="C543" s="12"/>
+      <c r="C543">
+        <v>4.2842526000000003</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="C544" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24789,11 +24827,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27180,7 +27218,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>45537</v>
+        <v>45534</v>
+      </c>
+      <c r="B209">
+        <v>4.2829199999999998</v>
       </c>
       <c r="C209" s="61">
         <v>4.2971700000000004</v>
@@ -27188,7 +27229,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>45538</v>
+        <v>45537</v>
       </c>
       <c r="C210" s="61">
         <v>4.2884893000000002</v>
@@ -27196,7 +27237,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>45539</v>
+        <v>45538</v>
       </c>
       <c r="C211" s="61">
         <v>4.2867845999999998</v>
@@ -27204,11 +27245,14 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="C212" s="61">
         <v>4.2799997000000003</v>
       </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE787E3-0B71-4C02-88E6-9FD7DF0AC457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E26ED5-6E45-42FE-A2A0-C99C8F4C2DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5806,7 +5806,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C269" sqref="C269"/>
+      <selection pane="bottomLeft" activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-3.1541443858455292E-4</v>
+        <v>-2.8197520560476104E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10995,17 +10995,31 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D269" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E269" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B269">
+        <v>3.8814799999999998</v>
+      </c>
       <c r="C269">
         <v>3.8728337000000002</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="63"/>
+        <v>8.6462999999996626E-3</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="64"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12154,11 +12168,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I545"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C544" sqref="C544"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A543" sqref="A543:B543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22218,7 +22232,7 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522:E542" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E541" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22233,7 +22247,7 @@
         <v>4.3038910000000001</v>
       </c>
       <c r="D523">
-        <f t="shared" ref="D523:D542" si="130">B523-C523</f>
+        <f t="shared" ref="D523:D541" si="130">B523-C523</f>
         <v>-1.4381000000000199E-2</v>
       </c>
       <c r="E523">
@@ -22594,21 +22608,35 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D543" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E543" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:5">
+      <c r="A543" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B543">
+        <v>4.2868599999999999</v>
+      </c>
       <c r="C543">
         <v>4.2842526000000003</v>
       </c>
-    </row>
-    <row r="544" spans="1:5">
-      <c r="C544" s="12"/>
+      <c r="D543">
+        <f t="shared" si="131"/>
+        <v>2.6073999999995934E-3</v>
+      </c>
+      <c r="E543">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3">
+      <c r="C545" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24829,9 +24857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27231,6 +27259,10 @@
       <c r="A210" s="1">
         <v>45537</v>
       </c>
+      <c r="B210" s="61">
+        <f>AVERAGE(B197:B209)</f>
+        <v>4.2784369230769235</v>
+      </c>
       <c r="C210" s="61">
         <v>4.2884893000000002</v>
       </c>
@@ -27238,6 +27270,9 @@
     <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>45538</v>
+      </c>
+      <c r="B211">
+        <v>4.2868599999999999</v>
       </c>
       <c r="C211" s="61">
         <v>4.2867845999999998</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E26ED5-6E45-42FE-A2A0-C99C8F4C2DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35D57C-C815-4B2A-B9D1-C0599F081AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B270" sqref="B270"/>
+      <selection pane="bottomLeft" activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11020,6 +11020,11 @@
       <c r="E269">
         <f t="shared" si="64"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="C270">
+        <v>3.9104545000000002</v>
       </c>
     </row>
   </sheetData>
@@ -12170,9 +12175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
   <dimension ref="A1:I545"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A543" sqref="A543:B543"/>
+      <selection pane="bottomLeft" activeCell="C545" sqref="C545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22633,6 +22638,11 @@
       <c r="E543">
         <f t="shared" si="132"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="C544">
+        <v>4.3325323999999998</v>
       </c>
     </row>
     <row r="545" spans="3:3">
@@ -24857,9 +24867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B211" sqref="B211"/>
+      <selection pane="bottomLeft" activeCell="A211" sqref="A211:A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27257,11 +27267,10 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B210" s="61">
-        <f>AVERAGE(B197:B209)</f>
-        <v>4.2784369230769235</v>
+        <v>45538</v>
+      </c>
+      <c r="B210">
+        <v>4.2868599999999999</v>
       </c>
       <c r="C210" s="61">
         <v>4.2884893000000002</v>
@@ -27269,10 +27278,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B211">
-        <v>4.2868599999999999</v>
+        <v>45539</v>
       </c>
       <c r="C211" s="61">
         <v>4.2867845999999998</v>
@@ -27280,7 +27286,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="C212" s="61">
         <v>4.2799997000000003</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A35D57C-C815-4B2A-B9D1-C0599F081AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD6FC1-FC93-4E10-A161-C008B835144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C271" sqref="C271"/>
+      <selection pane="bottomLeft" activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-2.8197520560476104E-4</v>
+        <v>-4.2243068811180636E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10995,11 +10995,11 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268:D269" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D270" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E269" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E270" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11023,8 +11023,27 @@
       </c>
     </row>
     <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B270">
+        <v>3.8723900000000002</v>
+      </c>
       <c r="C270">
         <v>3.9104545000000002</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="63"/>
+        <v>-3.8064499999999946E-2</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="C271">
+        <v>3.8822033</v>
       </c>
     </row>
   </sheetData>
@@ -12173,11 +12192,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I545"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C545" sqref="C545"/>
+      <selection pane="bottomLeft" activeCell="C547" sqref="C547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22613,11 +22632,11 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542:D543" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D544" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542:E543" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E544" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22641,12 +22660,31 @@
       </c>
     </row>
     <row r="544" spans="1:5">
+      <c r="A544" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B544">
+        <v>4.2783300000000004</v>
+      </c>
       <c r="C544">
         <v>4.3325323999999998</v>
       </c>
+      <c r="D544">
+        <f t="shared" si="131"/>
+        <v>-5.4202399999999429E-2</v>
+      </c>
+      <c r="E544">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="545" spans="3:3">
-      <c r="C545" s="12"/>
+      <c r="C545">
+        <v>4.3048697000000002</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24869,7 +24907,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A211" sqref="A211:A212"/>
+      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27279,6 +27317,9 @@
     <row r="211" spans="1:3">
       <c r="A211" s="1">
         <v>45539</v>
+      </c>
+      <c r="B211">
+        <v>4.2783300000000004</v>
       </c>
       <c r="C211" s="61">
         <v>4.2867845999999998</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD6FC1-FC93-4E10-A161-C008B835144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553B7BB-C9DA-4B7F-93D6-95C59095BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -393,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +439,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,6 +741,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5802,11 +5810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C272" sqref="C272"/>
+      <selection pane="bottomLeft" activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5844,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-4.2243068811180636E-4</v>
+        <v>-5.1673020408176198E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10995,11 +11003,11 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268:D270" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D271" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E270" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E271" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11042,8 +11050,27 @@
       </c>
     </row>
     <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B271">
+        <v>3.8563200000000002</v>
+      </c>
       <c r="C271">
         <v>3.8822033</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="63"/>
+        <v>-2.5883299999999831E-2</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="C272">
+        <v>3.8312666000000002</v>
       </c>
     </row>
   </sheetData>
@@ -22632,11 +22659,11 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542:D544" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D545" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542:E544" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E545" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22678,12 +22705,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="3:3">
+    <row r="545" spans="1:5">
+      <c r="A545" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B545">
+        <v>4.2727700000000004</v>
+      </c>
       <c r="C545">
         <v>4.3048697000000002</v>
       </c>
-    </row>
-    <row r="547" spans="3:3">
+      <c r="D545">
+        <f t="shared" si="131"/>
+        <v>-3.2099699999999842E-2</v>
+      </c>
+      <c r="E545">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="C546">
+        <v>4.3055399999999997</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
       <c r="C547" s="12"/>
     </row>
   </sheetData>
@@ -24903,11 +24949,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27329,12 +27375,52 @@
       <c r="A212" s="1">
         <v>45540</v>
       </c>
+      <c r="B212">
+        <v>4.2727700000000004</v>
+      </c>
       <c r="C212" s="61">
         <v>4.2799997000000003</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1">
+        <v>45541</v>
+      </c>
+      <c r="C213" s="61">
+        <v>4.2684344999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>45544</v>
+      </c>
+      <c r="C214" s="61">
+        <v>4.263312</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>45545</v>
+      </c>
+      <c r="C215" s="61">
+        <v>4.2644390000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>45546</v>
+      </c>
+      <c r="C216" s="61">
+        <v>4.2631043999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>45547</v>
+      </c>
+      <c r="C217" s="61">
+        <v>4.2649593000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30290,10 +30376,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1696F64E-EE57-4BBA-A111-751034FE5308}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K3"/>
+    <sheetView topLeftCell="A4" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30452,6 +30538,40 @@
       <c r="D9" s="13">
         <f>B9+C9</f>
         <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="G10" s="68">
+        <v>6</v>
+      </c>
+      <c r="H10" s="69">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="G11" s="13">
+        <f>(G10*H11)/H10</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="H11" s="68">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="G13" s="68">
+        <v>6</v>
+      </c>
+      <c r="H13" s="69">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="G14" s="13">
+        <f>(G13*H14)/H13</f>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="H14" s="68">
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8553B7BB-C9DA-4B7F-93D6-95C59095BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5032EB1-EDEC-431C-AC56-EF0B233098F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5810,11 +5810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I272"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C273" sqref="C273"/>
+      <selection pane="bottomLeft" activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-5.1673020408176198E-4</v>
+        <v>-4.3444190074566733E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -11003,11 +11003,11 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268:D271" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D272" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E271" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E272" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11069,8 +11069,27 @@
       </c>
     </row>
     <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B272">
+        <v>3.8530500000000001</v>
+      </c>
       <c r="C272">
         <v>3.8312666000000002</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="63"/>
+        <v>2.1783399999999897E-2</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273">
+        <v>3.8706662999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12219,11 +12238,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I547"/>
+  <dimension ref="A1:I548"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C547" sqref="C547"/>
+      <selection pane="bottomLeft" activeCell="C548" sqref="C548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22659,11 +22678,11 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542:D545" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D546" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542:E545" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E546" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22725,12 +22744,31 @@
       </c>
     </row>
     <row r="546" spans="1:5">
+      <c r="A546" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B546">
+        <v>4.2809299999999997</v>
+      </c>
       <c r="C546">
         <v>4.3055399999999997</v>
       </c>
+      <c r="D546">
+        <f t="shared" si="131"/>
+        <v>-2.4610000000000021E-2</v>
+      </c>
+      <c r="E546">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="547" spans="1:5">
-      <c r="C547" s="12"/>
+      <c r="C547">
+        <v>4.3407287999999999</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="C548" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24951,9 +24989,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A217" sqref="A217"/>
+      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27385,6 +27423,9 @@
     <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>45541</v>
+      </c>
+      <c r="B213">
+        <v>4.2809299999999997</v>
       </c>
       <c r="C213" s="61">
         <v>4.2684344999999997</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5032EB1-EDEC-431C-AC56-EF0B233098F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C254B3-A46B-4BC7-8FED-76C58A9E766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5810,11 +5810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I273"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C274" sqref="C274"/>
+      <selection pane="bottomLeft" activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-4.3444190074566733E-4</v>
+        <v>-4.7462520258116078E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -11003,11 +11003,11 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268:D272" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D273" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E272" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E273" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11087,9 +11087,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:3">
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B273">
+        <v>3.859302</v>
+      </c>
       <c r="C273">
         <v>3.8706662999999999</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="63"/>
+        <v>-1.1364299999999883E-2</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="C274">
+        <v>3.8746634000000002</v>
       </c>
     </row>
   </sheetData>
@@ -12238,11 +12257,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I548"/>
+  <dimension ref="A1:I550"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C548" sqref="C548"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C550" sqref="C550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22678,11 +22697,11 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542:D546" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D547" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542:E546" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E547" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22763,12 +22782,31 @@
       </c>
     </row>
     <row r="547" spans="1:5">
+      <c r="A547" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B547">
+        <v>4.2787699999999997</v>
+      </c>
       <c r="C547">
         <v>4.3407287999999999</v>
       </c>
+      <c r="D547">
+        <f t="shared" si="131"/>
+        <v>-6.1958800000000203E-2</v>
+      </c>
+      <c r="E547">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="548" spans="1:5">
-      <c r="C548" s="12"/>
+      <c r="C548">
+        <v>4.3210889999999997</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="C550" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24991,7 +25029,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
+      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27434,6 +27472,9 @@
     <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>45544</v>
+      </c>
+      <c r="B214">
+        <v>4.2787699999999997</v>
       </c>
       <c r="C214" s="61">
         <v>4.263312</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C254B3-A46B-4BC7-8FED-76C58A9E766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56424829-01FB-421A-8444-6104B518D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5814,7 +5814,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A273" sqref="A273"/>
+      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-4.7462520258116078E-4</v>
+        <v>-4.8811522015412508E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -11003,11 +11003,11 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268:D273" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D274" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E273" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E274" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11107,8 +11107,22 @@
       </c>
     </row>
     <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B274">
+        <v>3.8705059999999998</v>
+      </c>
       <c r="C274">
         <v>3.8746634000000002</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="63"/>
+        <v>-4.1574000000004219E-3</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="64"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12259,9 +12273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
   <dimension ref="A1:I550"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C550" sqref="C550"/>
+      <selection pane="bottomLeft" activeCell="A548" sqref="A548:B548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22697,11 +22711,11 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542:D547" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D548" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542:E547" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E548" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22801,8 +22815,27 @@
       </c>
     </row>
     <row r="548" spans="1:5">
+      <c r="A548" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B548">
+        <v>4.2717000000000001</v>
+      </c>
       <c r="C548">
         <v>4.3210889999999997</v>
+      </c>
+      <c r="D548">
+        <f t="shared" si="131"/>
+        <v>-4.9388999999999683E-2</v>
+      </c>
+      <c r="E548">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="C549">
+        <v>4.2732099999999997</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -25027,7 +25060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
     </sheetView>
@@ -27483,6 +27516,9 @@
     <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>45545</v>
+      </c>
+      <c r="B215">
+        <v>4.2717000000000001</v>
       </c>
       <c r="C215" s="61">
         <v>4.2644390000000003</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56424829-01FB-421A-8444-6104B518D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2A93E-C993-484C-8172-3C30AF8BE553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5810,11 +5810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I274"/>
+  <dimension ref="A1:I276"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B276" sqref="B276"/>
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-4.8811522015412508E-4</v>
+        <v>-3.9950604051852608E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -11003,11 +11003,11 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268:D274" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D275" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E274" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E275" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11123,6 +11123,30 @@
       <c r="E274">
         <f t="shared" si="64"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B275">
+        <v>3.8817460000000001</v>
+      </c>
+      <c r="C275">
+        <v>3.8579552000000001</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="63"/>
+        <v>2.3790800000000001E-2</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="C276">
+        <v>3.8503506000000001</v>
       </c>
     </row>
   </sheetData>
@@ -12271,11 +12295,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I550"/>
+  <dimension ref="A1:I552"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A548" sqref="A548:B548"/>
+      <selection pane="bottomLeft" activeCell="C552" sqref="C552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22711,11 +22735,11 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542:D548" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D549" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542:E548" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E549" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22834,12 +22858,31 @@
       </c>
     </row>
     <row r="549" spans="1:5">
+      <c r="A549" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B549">
+        <v>4.2778</v>
+      </c>
       <c r="C549">
         <v>4.2732099999999997</v>
       </c>
+      <c r="D549">
+        <f t="shared" si="131"/>
+        <v>4.590000000000316E-3</v>
+      </c>
+      <c r="E549">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="550" spans="1:5">
-      <c r="C550" s="12"/>
+      <c r="C550">
+        <v>4.2650750000000004</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="C552" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25062,7 +25105,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
+      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27527,6 +27570,9 @@
     <row r="216" spans="1:3">
       <c r="A216" s="1">
         <v>45546</v>
+      </c>
+      <c r="B216">
+        <v>4.2778</v>
       </c>
       <c r="C216" s="61">
         <v>4.2631043999999996</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2A93E-C993-484C-8172-3C30AF8BE553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED30BB-B9AE-448F-A2DA-ACAE75C81ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5810,11 +5810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I276"/>
+  <dimension ref="A1:I277"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C277" sqref="C277"/>
+      <selection pane="bottomLeft" activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-3.9950604051852608E-4</v>
+        <v>-2.4769183673482202E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -11003,11 +11003,11 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268:D275" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D276" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E275" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E276" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11145,8 +11145,27 @@
       </c>
     </row>
     <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B276">
+        <v>3.8917000000000002</v>
+      </c>
       <c r="C276">
         <v>3.8503506000000001</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="63"/>
+        <v>4.1349400000000092E-2</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="C277">
+        <v>3.8797649999999999</v>
       </c>
     </row>
   </sheetData>
@@ -22735,11 +22754,11 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542:D549" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D550" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542:E549" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E550" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22877,8 +22896,27 @@
       </c>
     </row>
     <row r="550" spans="1:5">
+      <c r="A550" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B550">
+        <v>4.2847</v>
+      </c>
       <c r="C550">
         <v>4.2650750000000004</v>
+      </c>
+      <c r="D550">
+        <f t="shared" si="131"/>
+        <v>1.9624999999999559E-2</v>
+      </c>
+      <c r="E550">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="C551">
+        <v>4.2859515999999998</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -25101,11 +25139,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219:A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27584,6 +27622,46 @@
       </c>
       <c r="C217" s="61">
         <v>4.2649593000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>45548</v>
+      </c>
+      <c r="C218" s="61">
+        <v>4.2793694000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>45551</v>
+      </c>
+      <c r="C219" s="61">
+        <v>4.2851176000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>45552</v>
+      </c>
+      <c r="C220" s="61">
+        <v>4.2860969999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>45553</v>
+      </c>
+      <c r="C221" s="61">
+        <v>4.290273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>45554</v>
+      </c>
+      <c r="C222" s="61">
+        <v>4.2968970000000004</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED30BB-B9AE-448F-A2DA-ACAE75C81ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EE7F21-127D-4B15-B0CF-CFFBDAF6D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -5810,11 +5810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I277"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C278" sqref="C278"/>
+      <selection pane="bottomLeft" activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-2.4769183673482202E-4</v>
+        <v>-2.9504802573215942E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -11003,11 +11003,11 @@
         <v>3.8410834999999999</v>
       </c>
       <c r="D268">
-        <f t="shared" ref="D268:D276" si="63">B268-C268</f>
+        <f t="shared" ref="D268:D277" si="63">B268-C268</f>
         <v>2.4315500000000156E-2</v>
       </c>
       <c r="E268">
-        <f t="shared" ref="E268:E276" si="64">IF(D268&lt;0,1,0)</f>
+        <f t="shared" ref="E268:E277" si="64">IF(D268&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -11164,8 +11164,27 @@
       </c>
     </row>
     <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B277">
+        <v>3.866447</v>
+      </c>
       <c r="C277">
         <v>3.8797649999999999</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="63"/>
+        <v>-1.3317999999999941E-2</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="C278">
+        <v>3.8633033999999999</v>
       </c>
     </row>
   </sheetData>
@@ -12314,19 +12333,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I552"/>
+  <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C552" sqref="C552"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
@@ -22754,11 +22773,11 @@
         <v>4.3068594999999998</v>
       </c>
       <c r="D542">
-        <f t="shared" ref="D542:D550" si="131">B542-C542</f>
+        <f t="shared" ref="D542:D551" si="131">B542-C542</f>
         <v>-2.3939500000000002E-2</v>
       </c>
       <c r="E542">
-        <f t="shared" ref="E542:E550" si="132">IF(D542&lt;0,1,0)</f>
+        <f t="shared" ref="E542:E551" si="132">IF(D542&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22915,12 +22934,31 @@
       </c>
     </row>
     <row r="551" spans="1:5">
+      <c r="A551" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B551">
+        <v>4.2832499999999998</v>
+      </c>
       <c r="C551">
         <v>4.2859515999999998</v>
       </c>
+      <c r="D551">
+        <f t="shared" si="131"/>
+        <v>-2.7015999999999707E-3</v>
+      </c>
+      <c r="E551">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="552" spans="1:5">
-      <c r="C552" s="12"/>
+      <c r="C552">
+        <v>4.2743140000000004</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="C554" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25141,9 +25179,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A219" sqref="A219:A222"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25151,10 +25189,11 @@
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="61"/>
     <col min="3" max="3" width="16.88671875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -25164,8 +25203,15 @@
       <c r="C1" s="62" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <f>AVERAGE($D$2:$D$499)</f>
+        <v>-9.6900302805463436E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>45243</v>
       </c>
@@ -25175,9 +25221,12 @@
       <c r="C2" s="61">
         <v>4.4397197000000004</v>
       </c>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="61">
+        <f>B2-C2</f>
+        <v>-1.9329700000000116E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>45244</v>
       </c>
@@ -25187,9 +25236,12 @@
       <c r="C3" s="61">
         <v>4.4373930000000001</v>
       </c>
-      <c r="D3" s="61"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="61">
+        <f t="shared" ref="D3:D66" si="0">B3-C3</f>
+        <v>-1.2833000000000538E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>45245</v>
       </c>
@@ -25199,9 +25251,12 @@
       <c r="C4" s="61">
         <v>4.4453683000000002</v>
       </c>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="61">
+        <f t="shared" si="0"/>
+        <v>6.7396999999997931E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>45246</v>
       </c>
@@ -25211,9 +25266,12 @@
       <c r="C5" s="61">
         <v>4.4587025999999996</v>
       </c>
-      <c r="D5" s="61"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="61">
+        <f t="shared" si="0"/>
+        <v>-7.2302599999999551E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>45247</v>
       </c>
@@ -25223,9 +25281,12 @@
       <c r="C6" s="61">
         <v>4.4589353000000003</v>
       </c>
-      <c r="D6" s="61"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="61">
+        <f t="shared" si="0"/>
+        <v>-8.829530000000041E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>45250</v>
       </c>
@@ -25235,9 +25296,12 @@
       <c r="C7" s="61">
         <v>4.4474134000000003</v>
       </c>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="61">
+        <f t="shared" si="0"/>
+        <v>-6.5373400000000359E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>45251</v>
       </c>
@@ -25247,9 +25311,12 @@
       <c r="C8" s="61">
         <v>4.4604049999999997</v>
       </c>
-      <c r="D8" s="61"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="61">
+        <f t="shared" si="0"/>
+        <v>-0.11630499999999966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>45252</v>
       </c>
@@ -25259,9 +25326,12 @@
       <c r="C9" s="61">
         <v>4.4748210000000004</v>
       </c>
-      <c r="D9" s="61"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="61">
+        <f t="shared" si="0"/>
+        <v>-0.1039210000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>45253</v>
       </c>
@@ -25271,9 +25341,12 @@
       <c r="C10" s="61">
         <v>4.4819259999999996</v>
       </c>
-      <c r="D10" s="61"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="61">
+        <f t="shared" si="0"/>
+        <v>-0.12012599999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>45254</v>
       </c>
@@ -25283,9 +25356,12 @@
       <c r="C11" s="61">
         <v>4.4831490000000001</v>
       </c>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="61">
+        <f t="shared" si="0"/>
+        <v>-0.11994900000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>45257</v>
       </c>
@@ -25295,9 +25371,12 @@
       <c r="C12" s="61">
         <v>4.4254579999999999</v>
       </c>
-      <c r="D12" s="61"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="61">
+        <f t="shared" si="0"/>
+        <v>-6.4788000000000068E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>45258</v>
       </c>
@@ -25307,9 +25386,12 @@
       <c r="C13" s="61">
         <v>4.4274306000000001</v>
       </c>
-      <c r="D13" s="61"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="61">
+        <f t="shared" si="0"/>
+        <v>-8.3500599999999814E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>45259</v>
       </c>
@@ -25319,9 +25401,12 @@
       <c r="C14" s="61">
         <v>4.4089894000000003</v>
       </c>
-      <c r="D14" s="61"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="61">
+        <f t="shared" si="0"/>
+        <v>-9.1349400000000358E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>45260</v>
       </c>
@@ -25331,9 +25416,12 @@
       <c r="C15" s="61">
         <v>4.3910555999999996</v>
       </c>
-      <c r="D15" s="61"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="61">
+        <f t="shared" si="0"/>
+        <v>-5.2235599999999494E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>45261</v>
       </c>
@@ -25343,7 +25431,10 @@
       <c r="C16" s="61">
         <v>4.3848934000000002</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="61">
+        <f t="shared" si="0"/>
+        <v>-3.4523400000000315E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
@@ -25355,7 +25446,10 @@
       <c r="C17" s="61">
         <v>4.3906660000000004</v>
       </c>
-      <c r="D17" s="61"/>
+      <c r="D17" s="61">
+        <f t="shared" si="0"/>
+        <v>-6.4976000000000589E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1">
@@ -25367,7 +25461,10 @@
       <c r="C18" s="61">
         <v>4.4073023999999998</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="61">
+        <f t="shared" si="0"/>
+        <v>-7.9692399999999886E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1">
@@ -25379,7 +25476,10 @@
       <c r="C19" s="61">
         <v>4.4268093000000004</v>
       </c>
-      <c r="D19" s="61"/>
+      <c r="D19" s="61">
+        <f t="shared" si="0"/>
+        <v>-0.10731930000000034</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1">
@@ -25391,7 +25491,10 @@
       <c r="C20" s="61">
         <v>4.4315147000000001</v>
       </c>
-      <c r="D20" s="61"/>
+      <c r="D20" s="61">
+        <f t="shared" si="0"/>
+        <v>-0.10428470000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
@@ -25403,7 +25506,10 @@
       <c r="C21" s="61">
         <v>4.4290289999999999</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="61">
+        <f t="shared" si="0"/>
+        <v>-0.10179899999999975</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
@@ -25415,7 +25521,10 @@
       <c r="C22" s="61">
         <v>4.3779199999999996</v>
       </c>
-      <c r="D22" s="61"/>
+      <c r="D22" s="61">
+        <f t="shared" si="0"/>
+        <v>-5.2459999999999951E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
@@ -25427,7 +25536,10 @@
       <c r="C23" s="61">
         <v>4.3646349999999998</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="61">
+        <f t="shared" si="0"/>
+        <v>-3.1334999999999447E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
@@ -25439,7 +25551,10 @@
       <c r="C24" s="61">
         <v>4.3486159999999998</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="61">
+        <f t="shared" si="0"/>
+        <v>-2.4035999999999724E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
@@ -25451,7 +25566,10 @@
       <c r="C25" s="61">
         <v>4.3421702</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="61">
+        <f t="shared" si="0"/>
+        <v>-4.6160200000000096E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
@@ -25463,7 +25581,10 @@
       <c r="C26" s="61">
         <v>4.3236184</v>
       </c>
-      <c r="D26" s="61"/>
+      <c r="D26" s="61">
+        <f t="shared" si="0"/>
+        <v>-1.8818399999999791E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
@@ -25475,7 +25596,10 @@
       <c r="C27" s="61">
         <v>4.3164369999999996</v>
       </c>
-      <c r="D27" s="61"/>
+      <c r="D27" s="61">
+        <f t="shared" si="0"/>
+        <v>1.5143000000000129E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
@@ -25487,7 +25611,10 @@
       <c r="C28" s="61">
         <v>4.2986716999999999</v>
       </c>
-      <c r="D28" s="61"/>
+      <c r="D28" s="61">
+        <f t="shared" si="0"/>
+        <v>2.1128299999999989E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
@@ -25499,7 +25626,10 @@
       <c r="C29" s="61">
         <v>4.2743950000000002</v>
       </c>
-      <c r="D29" s="61"/>
+      <c r="D29" s="61">
+        <f t="shared" si="0"/>
+        <v>4.8754999999999882E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
@@ -25511,7 +25641,10 @@
       <c r="C30" s="61">
         <v>4.2607400000000002</v>
       </c>
-      <c r="D30" s="61"/>
+      <c r="D30" s="61">
+        <f t="shared" si="0"/>
+        <v>8.1389999999999851E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
@@ -25523,7 +25656,10 @@
       <c r="C31" s="61">
         <v>4.2532515999999996</v>
       </c>
-      <c r="D31" s="61"/>
+      <c r="D31" s="61">
+        <f t="shared" si="0"/>
+        <v>6.9548400000000399E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
@@ -25535,7 +25671,10 @@
       <c r="C32" s="61">
         <v>4.2502255</v>
       </c>
-      <c r="D32" s="61"/>
+      <c r="D32" s="61">
+        <f t="shared" si="0"/>
+        <v>8.2984500000000239E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
@@ -25547,7 +25686,10 @@
       <c r="C33" s="61">
         <v>4.2410870000000003</v>
       </c>
-      <c r="D33" s="61"/>
+      <c r="D33" s="61">
+        <f t="shared" si="0"/>
+        <v>8.3652999999999977E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
@@ -25559,7 +25701,10 @@
       <c r="C34" s="61">
         <v>4.2615129999999999</v>
       </c>
-      <c r="D34" s="61"/>
+      <c r="D34" s="61">
+        <f t="shared" si="0"/>
+        <v>5.5787000000000475E-2</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
@@ -25571,7 +25716,10 @@
       <c r="C35" s="61">
         <v>4.2706203</v>
       </c>
-      <c r="D35" s="61"/>
+      <c r="D35" s="61">
+        <f t="shared" si="0"/>
+        <v>6.2929699999999755E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
@@ -25583,7 +25731,10 @@
       <c r="C36" s="61">
         <v>4.2816386</v>
       </c>
-      <c r="D36" s="61"/>
+      <c r="D36" s="61">
+        <f t="shared" si="0"/>
+        <v>5.8241399999999999E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
@@ -25595,7 +25746,10 @@
       <c r="C37" s="61">
         <v>4.2987776000000002</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="61">
+        <f t="shared" si="0"/>
+        <v>6.7412399999999373E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
@@ -25607,7 +25761,10 @@
       <c r="C38" s="61">
         <v>4.3172812</v>
       </c>
-      <c r="D38" s="61"/>
+      <c r="D38" s="61">
+        <f t="shared" si="0"/>
+        <v>3.1318800000000202E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
@@ -25619,7 +25776,10 @@
       <c r="C39" s="61">
         <v>4.3904269999999999</v>
       </c>
-      <c r="D39" s="61"/>
+      <c r="D39" s="61">
+        <f t="shared" si="0"/>
+        <v>-4.6626999999999974E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
@@ -25631,7 +25791,10 @@
       <c r="C40" s="61">
         <v>4.4120216000000001</v>
       </c>
-      <c r="D40" s="61"/>
+      <c r="D40" s="61">
+        <f t="shared" si="0"/>
+        <v>-6.8871600000000477E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
@@ -25643,7 +25806,10 @@
       <c r="C41" s="61">
         <v>4.426336</v>
       </c>
-      <c r="D41" s="61"/>
+      <c r="D41" s="61">
+        <f t="shared" si="0"/>
+        <v>-9.5136000000000109E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
@@ -25655,7 +25821,10 @@
       <c r="C42" s="61">
         <v>4.4373994000000003</v>
       </c>
-      <c r="D42" s="61"/>
+      <c r="D42" s="61">
+        <f t="shared" si="0"/>
+        <v>-9.4389400000000734E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
@@ -25667,7 +25836,10 @@
       <c r="C43" s="61">
         <v>4.4435086000000004</v>
       </c>
-      <c r="D43" s="61"/>
+      <c r="D43" s="61">
+        <f t="shared" si="0"/>
+        <v>-0.11120860000000032</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
@@ -25679,7 +25851,10 @@
       <c r="C44" s="61">
         <v>4.3750229999999997</v>
       </c>
-      <c r="D44" s="61"/>
+      <c r="D44" s="61">
+        <f t="shared" si="0"/>
+        <v>-2.3172999999999888E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
@@ -25691,7 +25866,10 @@
       <c r="C45" s="61">
         <v>4.3817259999999996</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="61">
+        <f t="shared" si="0"/>
+        <v>-2.9405999999999821E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
@@ -25703,7 +25881,10 @@
       <c r="C46" s="61">
         <v>4.3715267000000004</v>
       </c>
-      <c r="D46" s="61"/>
+      <c r="D46" s="61">
+        <f t="shared" si="0"/>
+        <v>-2.1367000000003245E-3</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
@@ -25715,7 +25896,10 @@
       <c r="C47" s="61">
         <v>4.3571977999999998</v>
       </c>
-      <c r="D47" s="61"/>
+      <c r="D47" s="61">
+        <f t="shared" si="0"/>
+        <v>3.2822200000000024E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
@@ -25727,7 +25911,10 @@
       <c r="C48" s="61">
         <v>4.3386009999999997</v>
       </c>
-      <c r="D48" s="61"/>
+      <c r="D48" s="61">
+        <f t="shared" si="0"/>
+        <v>5.5198999999999998E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1">
@@ -25739,7 +25926,10 @@
       <c r="C49" s="61">
         <v>4.3652819999999997</v>
       </c>
-      <c r="D49" s="61"/>
+      <c r="D49" s="61">
+        <f t="shared" si="0"/>
+        <v>1.7428000000000665E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1">
@@ -25751,7 +25941,10 @@
       <c r="C50" s="61">
         <v>4.3526397000000001</v>
       </c>
-      <c r="D50" s="61"/>
+      <c r="D50" s="61">
+        <f t="shared" si="0"/>
+        <v>-7.8970000000033735E-4</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1">
@@ -25763,7 +25956,10 @@
       <c r="C51" s="61">
         <v>4.3483890000000001</v>
       </c>
-      <c r="D51" s="61"/>
+      <c r="D51" s="61">
+        <f t="shared" si="0"/>
+        <v>1.2230999999999881E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
@@ -25775,7 +25971,10 @@
       <c r="C52" s="61">
         <v>4.3440412999999998</v>
       </c>
-      <c r="D52" s="61"/>
+      <c r="D52" s="61">
+        <f t="shared" si="0"/>
+        <v>1.6578700000000168E-2</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1">
@@ -25787,7 +25986,10 @@
       <c r="C53" s="61">
         <v>4.3381733999999996</v>
       </c>
-      <c r="D53" s="61"/>
+      <c r="D53" s="61">
+        <f t="shared" si="0"/>
+        <v>2.2446600000000316E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1">
@@ -25799,7 +26001,10 @@
       <c r="C54" s="61">
         <v>4.3316610000000004</v>
       </c>
-      <c r="D54" s="61"/>
+      <c r="D54" s="61">
+        <f t="shared" si="0"/>
+        <v>4.6808999999999656E-2</v>
+      </c>
       <c r="E54" s="59"/>
     </row>
     <row r="55" spans="1:5">
@@ -25812,7 +26017,10 @@
       <c r="C55" s="61">
         <v>4.3475390000000003</v>
       </c>
-      <c r="D55" s="61"/>
+      <c r="D55" s="61">
+        <f t="shared" si="0"/>
+        <v>1.7970999999999293E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1">
@@ -25824,7 +26032,10 @@
       <c r="C56" s="61">
         <v>4.3583464999999997</v>
       </c>
-      <c r="D56" s="61"/>
+      <c r="D56" s="61">
+        <f t="shared" si="0"/>
+        <v>6.2934999999999519E-3</v>
+      </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1">
@@ -25836,7 +26047,10 @@
       <c r="C57" s="61">
         <v>4.3781330000000001</v>
       </c>
-      <c r="D57" s="61"/>
+      <c r="D57" s="61">
+        <f t="shared" si="0"/>
+        <v>-3.0313000000000478E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1">
@@ -25848,7 +26062,10 @@
       <c r="C58" s="61">
         <v>4.3906774999999998</v>
       </c>
-      <c r="D58" s="61"/>
+      <c r="D58" s="61">
+        <f t="shared" si="0"/>
+        <v>-6.473749999999967E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1">
@@ -25860,7 +26077,10 @@
       <c r="C59" s="61">
         <v>4.3475099999999998</v>
       </c>
-      <c r="D59" s="61"/>
+      <c r="D59" s="61">
+        <f t="shared" si="0"/>
+        <v>-3.3119999999999372E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1">
@@ -25872,7 +26092,10 @@
       <c r="C60" s="61">
         <v>4.3577886000000001</v>
       </c>
-      <c r="D60" s="61"/>
+      <c r="D60" s="61">
+        <f t="shared" si="0"/>
+        <v>-4.507860000000008E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1">
@@ -25884,7 +26107,10 @@
       <c r="C61" s="61">
         <v>4.3528894999999999</v>
       </c>
-      <c r="D61" s="61"/>
+      <c r="D61" s="61">
+        <f t="shared" si="0"/>
+        <v>-1.4539499999999705E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1">
@@ -25896,7 +26122,10 @@
       <c r="C62" s="61">
         <v>4.3510346000000002</v>
       </c>
-      <c r="D62" s="61"/>
+      <c r="D62" s="61">
+        <f t="shared" si="0"/>
+        <v>-6.1346000000002121E-3</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1">
@@ -25908,7 +26137,10 @@
       <c r="C63" s="61">
         <v>4.3377175000000001</v>
       </c>
-      <c r="D63" s="61"/>
+      <c r="D63" s="61">
+        <f t="shared" si="0"/>
+        <v>3.562500000000135E-3</v>
+      </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1">
@@ -25920,7 +26152,10 @@
       <c r="C64" s="61">
         <v>4.3596640000000004</v>
       </c>
-      <c r="D64" s="61"/>
+      <c r="D64" s="61">
+        <f t="shared" si="0"/>
+        <v>-1.068200000000008E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
@@ -25932,7 +26167,10 @@
       <c r="C65" s="61">
         <v>4.3612045999999998</v>
       </c>
-      <c r="D65" s="61"/>
+      <c r="D65" s="61">
+        <f t="shared" si="0"/>
+        <v>-3.8134599999999352E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
@@ -25944,7 +26182,10 @@
       <c r="C66" s="61">
         <v>4.356179</v>
       </c>
-      <c r="D66" s="61"/>
+      <c r="D66" s="61">
+        <f t="shared" si="0"/>
+        <v>-3.4009000000000178E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
@@ -25956,7 +26197,10 @@
       <c r="C67" s="61">
         <v>4.3519936000000001</v>
       </c>
-      <c r="D67" s="61"/>
+      <c r="D67" s="61">
+        <f t="shared" ref="D67:D130" si="1">B67-C67</f>
+        <v>-1.5473599999999976E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
@@ -25968,7 +26212,10 @@
       <c r="C68" s="61">
         <v>4.3406463000000004</v>
       </c>
-      <c r="D68" s="61"/>
+      <c r="D68" s="61">
+        <f t="shared" si="1"/>
+        <v>-2.1162999999999599E-3</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
@@ -25980,7 +26227,10 @@
       <c r="C69" s="61">
         <v>4.3211874999999997</v>
       </c>
-      <c r="D69" s="61"/>
+      <c r="D69" s="61">
+        <f t="shared" si="1"/>
+        <v>1.9012500000000543E-2</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
@@ -25992,7 +26242,10 @@
       <c r="C70" s="61">
         <v>4.3091654999999998</v>
       </c>
-      <c r="D70" s="61"/>
+      <c r="D70" s="61">
+        <f t="shared" si="1"/>
+        <v>2.7364500000000014E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
@@ -26004,7 +26257,10 @@
       <c r="C71" s="61">
         <v>4.2970160000000002</v>
       </c>
-      <c r="D71" s="61"/>
+      <c r="D71" s="61">
+        <f t="shared" si="1"/>
+        <v>2.768399999999982E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
@@ -26016,7 +26272,10 @@
       <c r="C72" s="61">
         <v>4.2957830000000001</v>
       </c>
-      <c r="D72" s="61"/>
+      <c r="D72" s="61">
+        <f t="shared" si="1"/>
+        <v>1.6746999999999623E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
@@ -26028,7 +26287,10 @@
       <c r="C73" s="61">
         <v>4.2895380000000003</v>
       </c>
-      <c r="D73" s="61"/>
+      <c r="D73" s="61">
+        <f t="shared" si="1"/>
+        <v>2.5761999999999396E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
@@ -26040,7 +26302,10 @@
       <c r="C74" s="61">
         <v>4.3074820000000003</v>
       </c>
-      <c r="D74" s="61"/>
+      <c r="D74" s="61">
+        <f t="shared" si="1"/>
+        <v>1.3957999999999693E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
@@ -26052,7 +26317,10 @@
       <c r="C75" s="61">
         <v>4.3080907000000002</v>
       </c>
-      <c r="D75" s="61"/>
+      <c r="D75" s="61">
+        <f t="shared" si="1"/>
+        <v>-3.2506999999997177E-3</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
@@ -26064,7 +26332,10 @@
       <c r="C76" s="61">
         <v>4.3042490000000004</v>
       </c>
-      <c r="D76" s="61"/>
+      <c r="D76" s="61">
+        <f t="shared" si="1"/>
+        <v>4.4209999999997862E-3</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
@@ -26076,7 +26347,10 @@
       <c r="C77" s="61">
         <v>4.3033146999999996</v>
       </c>
-      <c r="D77" s="61"/>
+      <c r="D77" s="61">
+        <f t="shared" si="1"/>
+        <v>1.0253000000002288E-3</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
@@ -26088,7 +26362,10 @@
       <c r="C78" s="61">
         <v>4.3039784000000001</v>
       </c>
-      <c r="D78" s="61"/>
+      <c r="D78" s="61">
+        <f t="shared" si="1"/>
+        <v>1.1461599999999628E-2</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
@@ -26100,6 +26377,10 @@
       <c r="C79" s="61">
         <v>4.3296950000000001</v>
       </c>
+      <c r="D79" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.6445000000000043E-2</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
@@ -26111,8 +26392,12 @@
       <c r="C80" s="61">
         <v>4.3257294000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.0289400000000448E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>45356</v>
       </c>
@@ -26122,8 +26407,12 @@
       <c r="C81" s="61">
         <v>4.3233509999999997</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="61">
+        <f t="shared" si="1"/>
+        <v>-2.350999999999992E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>45357</v>
       </c>
@@ -26133,8 +26422,12 @@
       <c r="C82" s="61">
         <v>4.3128924</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="61">
+        <f t="shared" si="1"/>
+        <v>-2.9023999999999717E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>45358</v>
       </c>
@@ -26144,8 +26437,12 @@
       <c r="C83" s="61">
         <v>4.3122360000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.5636000000000649E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>45359</v>
       </c>
@@ -26155,8 +26452,12 @@
       <c r="C84" s="61">
         <v>4.3272424000000003</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="61">
+        <f t="shared" si="1"/>
+        <v>-2.9142400000000457E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>45362</v>
       </c>
@@ -26166,8 +26467,12 @@
       <c r="C85" s="61">
         <v>4.3170896000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.5319599999999767E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>45363</v>
       </c>
@@ -26177,8 +26482,12 @@
       <c r="C86" s="61">
         <v>4.3122769999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="61">
+        <f t="shared" si="1"/>
+        <v>-3.2886999999999666E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>45364</v>
       </c>
@@ -26188,8 +26497,12 @@
       <c r="C87" s="61">
         <v>4.3032537</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.6473699999999702E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>45365</v>
       </c>
@@ -26199,8 +26512,12 @@
       <c r="C88" s="61">
         <v>4.2963950000000004</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.7994999999999983E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>45366</v>
       </c>
@@ -26210,8 +26527,12 @@
       <c r="C89" s="61">
         <v>4.2678719999999997</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="61">
+        <f t="shared" si="1"/>
+        <v>2.2998000000000296E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>45369</v>
       </c>
@@ -26221,8 +26542,12 @@
       <c r="C90" s="61">
         <v>4.2688509999999997</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="61">
+        <f t="shared" si="1"/>
+        <v>2.8049000000000213E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>45370</v>
       </c>
@@ -26232,8 +26557,12 @@
       <c r="C91" s="61">
         <v>4.2664657000000004</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="61">
+        <f t="shared" si="1"/>
+        <v>5.3704299999999705E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>45371</v>
       </c>
@@ -26243,8 +26572,12 @@
       <c r="C92" s="61">
         <v>4.2712326000000003</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="61">
+        <f t="shared" si="1"/>
+        <v>4.1827399999999848E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>45372</v>
       </c>
@@ -26254,8 +26587,12 @@
       <c r="C93" s="61">
         <v>4.2778735000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="61">
+        <f t="shared" si="1"/>
+        <v>3.1416499999999736E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>45373</v>
       </c>
@@ -26265,8 +26602,12 @@
       <c r="C94" s="61">
         <v>4.2990250000000003</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="61">
+        <f t="shared" si="1"/>
+        <v>2.1749999999993719E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>45376</v>
       </c>
@@ -26276,8 +26617,12 @@
       <c r="C95" s="61">
         <v>4.2968286999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="61">
+        <f t="shared" si="1"/>
+        <v>2.2271299999999883E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>45377</v>
       </c>
@@ -26287,8 +26632,12 @@
       <c r="C96" s="61">
         <v>4.3011739999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="61">
+        <f t="shared" si="1"/>
+        <v>1.3260000000006045E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>45378</v>
       </c>
@@ -26298,8 +26647,12 @@
       <c r="C97" s="61">
         <v>4.3087150000000003</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.8950000000002021E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>45379</v>
       </c>
@@ -26309,8 +26662,12 @@
       <c r="C98" s="61">
         <v>4.3219099999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="61">
+        <f t="shared" si="1"/>
+        <v>-9.9700000000000344E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>45380</v>
       </c>
@@ -26320,8 +26677,12 @@
       <c r="C99" s="61">
         <v>4.3158035000000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.3303500000000135E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>45383</v>
       </c>
@@ -26331,8 +26692,12 @@
       <c r="C100" s="61">
         <v>4.3159236999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.767369999999957E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>45384</v>
       </c>
@@ -26342,8 +26707,12 @@
       <c r="C101" s="61">
         <v>4.3132320000000002</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="61">
+        <f t="shared" si="1"/>
+        <v>-2.2631999999999763E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>45385</v>
       </c>
@@ -26353,8 +26722,12 @@
       <c r="C102" s="61">
         <v>4.312487</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="61">
+        <f t="shared" si="1"/>
+        <v>-2.2236999999999618E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>45386</v>
       </c>
@@ -26364,8 +26737,12 @@
       <c r="C103" s="61">
         <v>4.3127583999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="61">
+        <f t="shared" si="1"/>
+        <v>-2.250839999999954E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>45387</v>
       </c>
@@ -26375,8 +26752,12 @@
       <c r="C104" s="61">
         <v>4.3017700000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.2620000000000076E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>45390</v>
       </c>
@@ -26386,8 +26767,12 @@
       <c r="C105" s="61">
         <v>4.3098660000000004</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="61">
+        <f t="shared" si="1"/>
+        <v>-3.1866000000000838E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>45391</v>
       </c>
@@ -26397,8 +26782,12 @@
       <c r="C106" s="61">
         <v>4.3089212999999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="61">
+        <f t="shared" si="1"/>
+        <v>-5.0211299999999959E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>45392</v>
       </c>
@@ -26408,8 +26797,12 @@
       <c r="C107" s="61">
         <v>4.3071070000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="61">
+        <f t="shared" si="1"/>
+        <v>-4.1357000000000532E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>45393</v>
       </c>
@@ -26419,8 +26812,12 @@
       <c r="C108" s="61">
         <v>4.3006853999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="61">
+        <f t="shared" si="1"/>
+        <v>-3.8885399999999848E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>45394</v>
       </c>
@@ -26430,8 +26827,12 @@
       <c r="C109" s="61">
         <v>4.3146515000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="61">
+        <f t="shared" si="1"/>
+        <v>-5.3171500000000371E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>45397</v>
       </c>
@@ -26441,8 +26842,12 @@
       <c r="C110" s="61">
         <v>4.3152594999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="61">
+        <f t="shared" si="1"/>
+        <v>-3.4959499999999366E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>45398</v>
       </c>
@@ -26452,8 +26857,12 @@
       <c r="C111" s="61">
         <v>4.3107819999999997</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.0081999999999702E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>45399</v>
       </c>
@@ -26463,8 +26872,12 @@
       <c r="C112" s="61">
         <v>4.306127</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="61">
+        <f t="shared" si="1"/>
+        <v>5.9892999999999752E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>45400</v>
       </c>
@@ -26474,8 +26887,12 @@
       <c r="C113" s="61">
         <v>4.2943689999999997</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="61">
+        <f t="shared" si="1"/>
+        <v>4.2671000000000348E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>45401</v>
       </c>
@@ -26485,8 +26902,12 @@
       <c r="C114" s="61">
         <v>4.3177349999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="61">
+        <f t="shared" si="1"/>
+        <v>1.9095000000000084E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>45404</v>
       </c>
@@ -26496,8 +26917,12 @@
       <c r="C115" s="61">
         <v>4.3054113000000003</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="61">
+        <f t="shared" si="1"/>
+        <v>-8.1130000000051439E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>45405</v>
       </c>
@@ -26507,8 +26932,12 @@
       <c r="C116" s="61">
         <v>4.2943239999999996</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="61">
+        <f t="shared" si="1"/>
+        <v>1.7975999999999992E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>45406</v>
       </c>
@@ -26518,8 +26947,12 @@
       <c r="C117" s="61">
         <v>4.2804456000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="61">
+        <f t="shared" si="1"/>
+        <v>2.4354399999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>45407</v>
       </c>
@@ -26529,8 +26962,12 @@
       <c r="C118" s="61">
         <v>4.2759776</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="61">
+        <f t="shared" si="1"/>
+        <v>5.502240000000036E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>45408</v>
       </c>
@@ -26540,8 +26977,12 @@
       <c r="C119" s="61">
         <v>4.3050113000000003</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="61">
+        <f t="shared" si="1"/>
+        <v>6.5887000000000029E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>45411</v>
       </c>
@@ -26551,8 +26992,12 @@
       <c r="C120" s="61">
         <v>4.3039804000000004</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="61">
+        <f t="shared" si="1"/>
+        <v>1.4959599999999185E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>45412</v>
       </c>
@@ -26562,8 +27007,12 @@
       <c r="C121" s="61">
         <v>4.3125460000000002</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="61">
+        <f t="shared" si="1"/>
+        <v>6.0400000000004894E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>45413</v>
       </c>
@@ -26573,8 +27022,12 @@
       <c r="C122" s="61">
         <v>4.3213179999999998</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="61">
+        <f t="shared" si="1"/>
+        <v>8.9120000000004751E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>45414</v>
       </c>
@@ -26584,8 +27037,12 @@
       <c r="C123" s="61">
         <v>4.3353010000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.0291000000000494E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>45415</v>
       </c>
@@ -26595,8 +27052,12 @@
       <c r="C124" s="61">
         <v>4.3229959999999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="61">
+        <f t="shared" si="1"/>
+        <v>4.9039999999997974E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>45418</v>
       </c>
@@ -26606,8 +27067,12 @@
       <c r="C125" s="61">
         <v>4.3322615999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="61">
+        <f t="shared" si="1"/>
+        <v>-1.4961599999999464E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>45419</v>
       </c>
@@ -26617,8 +27082,12 @@
       <c r="C126" s="61">
         <v>4.3343835000000004</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="61">
+        <f t="shared" si="1"/>
+        <v>-2.96435000000006E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>45420</v>
       </c>
@@ -26628,8 +27097,12 @@
       <c r="C127" s="61">
         <v>4.3417269999999997</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="61">
+        <f t="shared" si="1"/>
+        <v>-3.0746999999999858E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>45421</v>
       </c>
@@ -26638,6 +27111,10 @@
       </c>
       <c r="C128" s="61">
         <v>4.3501678000000004</v>
+      </c>
+      <c r="D128" s="61">
+        <f t="shared" si="1"/>
+        <v>-5.0917800000000568E-2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -26650,6 +27127,10 @@
       <c r="C129" s="61">
         <v>4.3358525999999999</v>
       </c>
+      <c r="D129" s="61">
+        <f t="shared" si="1"/>
+        <v>-5.3952599999999684E-2</v>
+      </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
@@ -26661,6 +27142,10 @@
       <c r="C130" s="61">
         <v>4.3569430000000002</v>
       </c>
+      <c r="D130" s="61">
+        <f t="shared" si="1"/>
+        <v>-5.7183000000000206E-2</v>
+      </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
@@ -26672,6 +27157,10 @@
       <c r="C131" s="61">
         <v>4.3464700000000001</v>
       </c>
+      <c r="D131" s="61">
+        <f t="shared" ref="D131:D194" si="2">B131-C131</f>
+        <v>-6.2529999999999752E-2</v>
+      </c>
       <c r="F131" s="61"/>
     </row>
     <row r="132" spans="1:6">
@@ -26684,6 +27173,10 @@
       <c r="C132" s="61">
         <v>4.3414817000000001</v>
       </c>
+      <c r="D132" s="61">
+        <f t="shared" si="2"/>
+        <v>-7.5191700000000417E-2</v>
+      </c>
       <c r="F132" s="61"/>
     </row>
     <row r="133" spans="1:6">
@@ -26696,6 +27189,10 @@
       <c r="C133" s="61">
         <v>4.3315033999999999</v>
       </c>
+      <c r="D133" s="61">
+        <f t="shared" si="2"/>
+        <v>-7.1663400000000266E-2</v>
+      </c>
       <c r="F133" s="61"/>
     </row>
     <row r="134" spans="1:6">
@@ -26708,6 +27205,10 @@
       <c r="C134" s="61">
         <v>4.3291917</v>
       </c>
+      <c r="D134" s="61">
+        <f t="shared" si="2"/>
+        <v>-7.0971700000000304E-2</v>
+      </c>
       <c r="F134" s="61"/>
     </row>
     <row r="135" spans="1:6">
@@ -26720,6 +27221,10 @@
       <c r="C135" s="61">
         <v>4.3280168000000003</v>
       </c>
+      <c r="D135" s="61">
+        <f t="shared" si="2"/>
+        <v>-7.2116800000000758E-2</v>
+      </c>
       <c r="F135" s="61"/>
     </row>
     <row r="136" spans="1:6">
@@ -26732,6 +27237,10 @@
       <c r="C136" s="61">
         <v>4.3164262999999998</v>
       </c>
+      <c r="D136" s="61">
+        <f t="shared" si="2"/>
+        <v>-6.7226299999999739E-2</v>
+      </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
@@ -26743,6 +27252,10 @@
       <c r="C137" s="61">
         <v>4.31447</v>
       </c>
+      <c r="D137" s="61">
+        <f t="shared" si="2"/>
+        <v>-6.3850000000000406E-2</v>
+      </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
@@ -26754,6 +27267,10 @@
       <c r="C138" s="61">
         <v>4.3098070000000002</v>
       </c>
+      <c r="D138" s="61">
+        <f t="shared" si="2"/>
+        <v>-4.7107000000000454E-2</v>
+      </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
@@ -26765,6 +27282,10 @@
       <c r="C139" s="61">
         <v>4.2754589999999997</v>
       </c>
+      <c r="D139" s="61">
+        <f t="shared" si="2"/>
+        <v>-1.3758999999999411E-2</v>
+      </c>
       <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:6">
@@ -26777,6 +27298,10 @@
       <c r="C140" s="61">
         <v>4.2587624000000002</v>
       </c>
+      <c r="D140" s="61">
+        <f t="shared" si="2"/>
+        <v>-5.3624000000001004E-3</v>
+      </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
@@ -26788,6 +27313,10 @@
       <c r="C141" s="61">
         <v>4.2493686999999998</v>
       </c>
+      <c r="D141" s="61">
+        <f t="shared" si="2"/>
+        <v>8.1724111111105557E-3</v>
+      </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
@@ -26799,6 +27328,10 @@
       <c r="C142" s="61">
         <v>4.2369139999999996</v>
       </c>
+      <c r="D142" s="61">
+        <f t="shared" si="2"/>
+        <v>2.2266000000000119E-2</v>
+      </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
@@ -26810,6 +27343,10 @@
       <c r="C143" s="61">
         <v>4.2255105999999998</v>
       </c>
+      <c r="D143" s="61">
+        <f t="shared" si="2"/>
+        <v>2.2389399999999782E-2</v>
+      </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
@@ -26821,8 +27358,12 @@
       <c r="C144" s="61">
         <v>4.2599770000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="61">
+        <f t="shared" si="2"/>
+        <v>1.9603000000000037E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>45446</v>
       </c>
@@ -26832,8 +27373,12 @@
       <c r="C145" s="61">
         <v>4.2539444</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="61">
+        <f t="shared" si="2"/>
+        <v>2.4505600000000349E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>45447</v>
       </c>
@@ -26843,8 +27388,12 @@
       <c r="C146" s="61">
         <v>4.2446365000000004</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="61">
+        <f t="shared" si="2"/>
+        <v>2.6263499999999773E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>45448</v>
       </c>
@@ -26854,8 +27403,12 @@
       <c r="C147" s="61">
         <v>4.2427029999999997</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="61">
+        <f t="shared" si="2"/>
+        <v>2.6597000000000648E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>45449</v>
       </c>
@@ -26865,8 +27418,12 @@
       <c r="C148" s="61">
         <v>4.2376040000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="61">
+        <f t="shared" si="2"/>
+        <v>6.8296000000000134E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>45450</v>
       </c>
@@ -26876,8 +27433,12 @@
       <c r="C149" s="61">
         <v>4.293717</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="61">
+        <f t="shared" si="2"/>
+        <v>-6.9169999999996179E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>45453</v>
       </c>
@@ -26887,8 +27448,12 @@
       <c r="C150" s="61">
         <v>4.2687109999999997</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="61">
+        <f t="shared" si="2"/>
+        <v>1.3129000000000168E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>45454</v>
       </c>
@@ -26898,8 +27463,12 @@
       <c r="C151" s="61">
         <v>4.2596179999999997</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="61">
+        <f t="shared" si="2"/>
+        <v>4.5682000000000222E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>45455</v>
       </c>
@@ -26909,8 +27478,12 @@
       <c r="C152" s="61">
         <v>4.2682609999999999</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="61">
+        <f t="shared" si="2"/>
+        <v>7.0218999999999809E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>45456</v>
       </c>
@@ -26920,8 +27493,12 @@
       <c r="C153" s="61">
         <v>4.2667619999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="61">
+        <f t="shared" si="2"/>
+        <v>6.4498000000000388E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>45457</v>
       </c>
@@ -26931,8 +27508,12 @@
       <c r="C154" s="61">
         <v>4.3122689999999997</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="61">
+        <f t="shared" si="2"/>
+        <v>3.4231000000000122E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>45460</v>
       </c>
@@ -26942,8 +27523,12 @@
       <c r="C155" s="61">
         <v>4.3092449999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="61">
+        <f t="shared" si="2"/>
+        <v>6.8265000000000242E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>45461</v>
       </c>
@@ -26953,8 +27538,12 @@
       <c r="C156" s="61">
         <v>4.3153696000000004</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="61">
+        <f t="shared" si="2"/>
+        <v>2.7230399999999655E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>45462</v>
       </c>
@@ -26965,8 +27554,12 @@
       <c r="C157" s="61">
         <v>4.3289594999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="61">
+        <f t="shared" si="2"/>
+        <v>-2.6732499999999604E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>45463</v>
       </c>
@@ -26976,8 +27569,12 @@
       <c r="C158" s="61">
         <v>4.3418163999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="61">
+        <f t="shared" si="2"/>
+        <v>-2.0716399999999524E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>45464</v>
       </c>
@@ -26987,8 +27584,12 @@
       <c r="C159" s="61">
         <v>4.3395824000000003</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="61">
+        <f t="shared" si="2"/>
+        <v>-1.3892400000000471E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>45467</v>
       </c>
@@ -26997,6 +27598,10 @@
       </c>
       <c r="C160" s="61">
         <v>4.3474510000000004</v>
+      </c>
+      <c r="D160" s="61">
+        <f t="shared" si="2"/>
+        <v>-2.1811000000000469E-2</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -27009,6 +27614,10 @@
       <c r="C161" s="61">
         <v>4.3605064999999996</v>
       </c>
+      <c r="D161" s="61">
+        <f t="shared" si="2"/>
+        <v>-7.0376499999999176E-2</v>
+      </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="1">
@@ -27020,6 +27629,10 @@
       <c r="C162" s="61">
         <v>4.3686179999999997</v>
       </c>
+      <c r="D162" s="61">
+        <f t="shared" si="2"/>
+        <v>-7.0867999999999931E-2</v>
+      </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="1">
@@ -27031,6 +27644,10 @@
       <c r="C163" s="61">
         <v>4.3597210000000004</v>
       </c>
+      <c r="D163" s="61">
+        <f t="shared" si="2"/>
+        <v>-4.7921000000000546E-2</v>
+      </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="1">
@@ -27042,6 +27659,10 @@
       <c r="C164" s="61">
         <v>4.2584676999999997</v>
       </c>
+      <c r="D164" s="61">
+        <f t="shared" si="2"/>
+        <v>4.9332300000000551E-2</v>
+      </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="1">
@@ -27053,6 +27674,10 @@
       <c r="C165" s="61">
         <v>4.2494706999999998</v>
       </c>
+      <c r="D165" s="61">
+        <f t="shared" si="2"/>
+        <v>6.2629300000000221E-2</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="1">
@@ -27064,6 +27689,10 @@
       <c r="C166" s="61">
         <v>4.2423166999999999</v>
       </c>
+      <c r="D166" s="61">
+        <f t="shared" si="2"/>
+        <v>7.3093300000000028E-2</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1">
@@ -27075,6 +27704,10 @@
       <c r="C167" s="61">
         <v>4.2435966000000001</v>
       </c>
+      <c r="D167" s="61">
+        <f t="shared" si="2"/>
+        <v>5.2503399999999978E-2</v>
+      </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="1">
@@ -27086,6 +27719,10 @@
       <c r="C168" s="61">
         <v>4.2523793999999997</v>
       </c>
+      <c r="D168" s="61">
+        <f t="shared" si="2"/>
+        <v>5.2062028571429053E-2</v>
+      </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="1">
@@ -27097,6 +27734,10 @@
       <c r="C169" s="61">
         <v>4.2454669999999997</v>
       </c>
+      <c r="D169" s="61">
+        <f t="shared" si="2"/>
+        <v>5.0633000000000372E-2</v>
+      </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="1">
@@ -27108,6 +27749,10 @@
       <c r="C170" s="61">
         <v>4.2452300000000003</v>
       </c>
+      <c r="D170" s="61">
+        <f t="shared" si="2"/>
+        <v>3.7969999999999615E-2</v>
+      </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="1">
@@ -27119,6 +27764,10 @@
       <c r="C171" s="61">
         <v>4.2456670000000001</v>
       </c>
+      <c r="D171" s="61">
+        <f t="shared" si="2"/>
+        <v>2.1622999999999948E-2</v>
+      </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="1">
@@ -27130,6 +27779,10 @@
       <c r="C172" s="61">
         <v>4.2435492999999997</v>
       </c>
+      <c r="D172" s="61">
+        <f t="shared" si="2"/>
+        <v>1.1700700000000452E-2</v>
+      </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1">
@@ -27141,6 +27794,10 @@
       <c r="C173" s="61">
         <v>4.2751260000000002</v>
       </c>
+      <c r="D173" s="61">
+        <f t="shared" si="2"/>
+        <v>-1.7726000000000575E-2</v>
+      </c>
       <c r="E173" s="12"/>
     </row>
     <row r="174" spans="1:5">
@@ -27153,6 +27810,10 @@
       <c r="C174" s="61">
         <v>4.268046</v>
       </c>
+      <c r="D174" s="61">
+        <f t="shared" si="2"/>
+        <v>-1.7745999999999817E-2</v>
+      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1">
@@ -27164,6 +27825,10 @@
       <c r="C175" s="61">
         <v>4.2648472999999996</v>
       </c>
+      <c r="D175" s="61">
+        <f t="shared" si="2"/>
+        <v>-1.1837299999999829E-2</v>
+      </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="1">
@@ -27175,8 +27840,12 @@
       <c r="C176" s="61">
         <v>4.2704616</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="61">
+        <f t="shared" si="2"/>
+        <v>-1.7661600000000277E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>45490</v>
       </c>
@@ -27186,8 +27855,12 @@
       <c r="C177" s="61">
         <v>4.2730721999999997</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="61">
+        <f t="shared" si="2"/>
+        <v>7.257800000000536E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>45491</v>
       </c>
@@ -27197,8 +27870,12 @@
       <c r="C178" s="61">
         <v>4.2741012999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="61">
+        <f t="shared" si="2"/>
+        <v>1.3398699999999764E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>45492</v>
       </c>
@@ -27208,8 +27885,12 @@
       <c r="C179" s="61">
         <v>4.2782049999999998</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="61">
+        <f t="shared" si="2"/>
+        <v>1.1635000000000062E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>45495</v>
       </c>
@@ -27219,8 +27900,12 @@
       <c r="C180" s="61">
         <v>4.2838674000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="61">
+        <f t="shared" si="2"/>
+        <v>3.2925999999999789E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>45496</v>
       </c>
@@ -27230,8 +27915,12 @@
       <c r="C181" s="61">
         <v>4.2836204000000002</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="61">
+        <f t="shared" si="2"/>
+        <v>-8.7204000000005166E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>45497</v>
       </c>
@@ -27241,8 +27930,12 @@
       <c r="C182" s="61">
         <v>4.2847239999999998</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="61">
+        <f t="shared" si="2"/>
+        <v>-8.583999999999925E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>45498</v>
       </c>
@@ -27252,8 +27945,12 @@
       <c r="C183" s="61">
         <v>4.293749</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="61">
+        <f t="shared" si="2"/>
+        <v>1.4409999999998035E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>45499</v>
       </c>
@@ -27263,8 +27960,12 @@
       <c r="C184" s="61">
         <v>4.3059763999999996</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" s="61">
+        <f t="shared" si="2"/>
+        <v>-2.1876400000000018E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>45502</v>
       </c>
@@ -27274,8 +27975,12 @@
       <c r="C185" s="61">
         <v>4.3166419999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" s="61">
+        <f t="shared" si="2"/>
+        <v>-4.6841999999999828E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>45503</v>
       </c>
@@ -27285,8 +27990,12 @@
       <c r="C186" s="61">
         <v>4.326568</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="61">
+        <f t="shared" si="2"/>
+        <v>-3.3497999999999806E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>45504</v>
       </c>
@@ -27296,8 +28005,12 @@
       <c r="C187" s="61">
         <v>4.3330583999999996</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="61">
+        <f t="shared" si="2"/>
+        <v>-4.6558399999999445E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>45505</v>
       </c>
@@ -27307,8 +28020,12 @@
       <c r="C188" s="61">
         <v>4.3069677000000004</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="61">
+        <f t="shared" si="2"/>
+        <v>-1.8697700000000594E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>45506</v>
       </c>
@@ -27318,8 +28035,12 @@
       <c r="C189" s="61">
         <v>4.29474</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="61">
+        <f t="shared" si="2"/>
+        <v>5.3999999999998494E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>45509</v>
       </c>
@@ -27329,8 +28050,12 @@
       <c r="C190" s="61">
         <v>4.2965894000000002</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="61">
+        <f t="shared" si="2"/>
+        <v>-7.079400000000291E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>45510</v>
       </c>
@@ -27340,8 +28065,12 @@
       <c r="C191" s="61">
         <v>4.2900669999999996</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" s="61">
+        <f t="shared" si="2"/>
+        <v>8.3530000000004989E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>45511</v>
       </c>
@@ -27351,8 +28080,12 @@
       <c r="C192" s="61">
         <v>4.2913569999999996</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="61">
+        <f t="shared" si="2"/>
+        <v>1.594300000000004E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>45512</v>
       </c>
@@ -27362,8 +28095,12 @@
       <c r="C193" s="61">
         <v>4.2857346999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="61">
+        <f t="shared" si="2"/>
+        <v>3.6045300000000502E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>45513</v>
       </c>
@@ -27373,8 +28110,12 @@
       <c r="C194" s="61">
         <v>4.2760176999999997</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="61">
+        <f t="shared" si="2"/>
+        <v>4.3102300000000149E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>45516</v>
       </c>
@@ -27384,8 +28125,12 @@
       <c r="C195" s="61">
         <v>4.2666244999999998</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="61">
+        <f t="shared" ref="D195:D216" si="3">B195-C195</f>
+        <v>4.927550000000025E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>45517</v>
       </c>
@@ -27395,8 +28140,12 @@
       <c r="C196" s="61">
         <v>4.2638829999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="61">
+        <f t="shared" si="3"/>
+        <v>3.851699999999969E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>45518</v>
       </c>
@@ -27406,8 +28155,12 @@
       <c r="C197" s="61">
         <v>4.2652970000000003</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="61">
+        <f t="shared" si="3"/>
+        <v>1.9203000000000081E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>45519</v>
       </c>
@@ -27417,8 +28170,12 @@
       <c r="C198" s="61">
         <v>4.318594</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="61">
+        <f t="shared" si="3"/>
+        <v>-2.8984000000000343E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>45520</v>
       </c>
@@ -27428,8 +28185,12 @@
       <c r="C199" s="61">
         <v>4.3329205999999996</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" s="61">
+        <f t="shared" si="3"/>
+        <v>-4.6100599999999936E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>45523</v>
       </c>
@@ -27439,8 +28200,12 @@
       <c r="C200" s="61">
         <v>4.3406215000000001</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="61">
+        <f t="shared" si="3"/>
+        <v>-7.6861499999999694E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>45524</v>
       </c>
@@ -27450,8 +28215,12 @@
       <c r="C201" s="61">
         <v>4.3356110000000001</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="61">
+        <f t="shared" si="3"/>
+        <v>-7.4211000000000027E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>45525</v>
       </c>
@@ -27461,8 +28230,12 @@
       <c r="C202" s="61">
         <v>4.3373013</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="61">
+        <f t="shared" si="3"/>
+        <v>-6.3501300000000427E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>45526</v>
       </c>
@@ -27472,8 +28245,12 @@
       <c r="C203" s="61">
         <v>4.3079900000000002</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="61">
+        <f t="shared" si="3"/>
+        <v>-3.0680000000000263E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>45527</v>
       </c>
@@ -27483,8 +28260,12 @@
       <c r="C204" s="61">
         <v>4.3221850000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="61">
+        <f t="shared" si="3"/>
+        <v>-4.2304999999999815E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>45530</v>
       </c>
@@ -27494,8 +28275,12 @@
       <c r="C205" s="61">
         <v>4.3303739999999999</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="61">
+        <f t="shared" si="3"/>
+        <v>-6.5553999999999668E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>45531</v>
       </c>
@@ -27505,8 +28290,12 @@
       <c r="C206" s="61">
         <v>4.3301350000000003</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" s="61">
+        <f t="shared" si="3"/>
+        <v>-4.9765000000000725E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>45532</v>
       </c>
@@ -27516,8 +28305,12 @@
       <c r="C207" s="61">
         <v>4.3363804999999997</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="61">
+        <f t="shared" si="3"/>
+        <v>-5.5390499999999676E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>45533</v>
       </c>
@@ -27527,8 +28320,12 @@
       <c r="C208" s="61">
         <v>4.2920217999999997</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="61">
+        <f t="shared" si="3"/>
+        <v>1.4782000000002071E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>45534</v>
       </c>
@@ -27538,8 +28335,12 @@
       <c r="C209" s="61">
         <v>4.2971700000000004</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="61">
+        <f t="shared" si="3"/>
+        <v>-1.425000000000054E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>45538</v>
       </c>
@@ -27549,8 +28350,12 @@
       <c r="C210" s="61">
         <v>4.2884893000000002</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="61">
+        <f t="shared" si="3"/>
+        <v>-1.6293000000002777E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>45539</v>
       </c>
@@ -27560,8 +28365,12 @@
       <c r="C211" s="61">
         <v>4.2867845999999998</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="61">
+        <f t="shared" si="3"/>
+        <v>-8.4545999999994237E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>45540</v>
       </c>
@@ -27571,8 +28380,12 @@
       <c r="C212" s="61">
         <v>4.2799997000000003</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="61">
+        <f t="shared" si="3"/>
+        <v>-7.2296999999998945E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>45541</v>
       </c>
@@ -27582,8 +28395,12 @@
       <c r="C213" s="61">
         <v>4.2684344999999997</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" s="61">
+        <f t="shared" si="3"/>
+        <v>1.2495499999999993E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>45544</v>
       </c>
@@ -27593,8 +28410,12 @@
       <c r="C214" s="61">
         <v>4.263312</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="61">
+        <f t="shared" si="3"/>
+        <v>1.545799999999975E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>45545</v>
       </c>
@@ -27604,8 +28425,12 @@
       <c r="C215" s="61">
         <v>4.2644390000000003</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="61">
+        <f t="shared" si="3"/>
+        <v>7.2609999999997399E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>45546</v>
       </c>
@@ -27615,24 +28440,34 @@
       <c r="C216" s="61">
         <v>4.2631043999999996</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" s="61">
+        <f t="shared" si="3"/>
+        <v>1.4695600000000475E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>45547</v>
       </c>
+      <c r="B217">
+        <v>4.2847</v>
+      </c>
       <c r="C217" s="61">
         <v>4.2649593000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>45548</v>
       </c>
+      <c r="B218">
+        <v>4.2832499999999998</v>
+      </c>
       <c r="C218" s="61">
         <v>4.2793694000000002</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>45551</v>
       </c>
@@ -27640,7 +28475,7 @@
         <v>4.2851176000000004</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="A220" s="1">
         <v>45552</v>
       </c>
@@ -27648,7 +28483,7 @@
         <v>4.2860969999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>45553</v>
       </c>
@@ -27656,7 +28491,7 @@
         <v>4.290273</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>45554</v>
       </c>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80EFB2B-3EE5-4089-941A-EC8F8166226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA0844-D6D7-42E0-A3D4-188D078D466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="1" r:id="rId1"/>
@@ -1103,7 +1103,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64D9-4982-A6B6-15CE8FA5CEB1}"/>
+              <c16:uniqueId val="{00000000-926A-4C76-981A-163D979393BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1424,7 +1424,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-64D9-4982-A6B6-15CE8FA5CEB1}"/>
+              <c16:uniqueId val="{00000001-926A-4C76-981A-163D979393BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1755,7 +1755,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BAB-458A-8345-A862ED01245D}"/>
+              <c16:uniqueId val="{00000000-87D7-4ACC-BFE7-2F7EBB9D8C68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1826,7 +1826,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BAB-458A-8345-A862ED01245D}"/>
+              <c16:uniqueId val="{00000001-87D7-4ACC-BFE7-2F7EBB9D8C68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1919,7 +1919,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8BAB-458A-8345-A862ED01245D}"/>
+              <c16:uniqueId val="{00000002-87D7-4ACC-BFE7-2F7EBB9D8C68}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2238,7 +2238,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E86-4EF8-86A1-E105AA9AA1D1}"/>
+              <c16:uniqueId val="{00000000-9553-48AB-9597-8739B130ADFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2331,7 +2331,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E86-4EF8-86A1-E105AA9AA1D1}"/>
+              <c16:uniqueId val="{00000001-9553-48AB-9597-8739B130ADFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2650,7 +2650,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4DA-498A-8809-F98FB525E106}"/>
+              <c16:uniqueId val="{00000000-C4F7-49D8-B7DE-0056EA597DCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2743,7 +2743,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B4DA-498A-8809-F98FB525E106}"/>
+              <c16:uniqueId val="{00000001-C4F7-49D8-B7DE-0056EA597DCA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3383,9 +3383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D278" sqref="D278:E279"/>
+      <selection pane="bottomLeft" activeCell="C281" sqref="C281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4082,7 +4082,7 @@
         <v>4.3566294000000001</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D50" si="3">B34-C34</f>
+        <f t="shared" ref="D34:D65" si="3">B34-C34</f>
         <v>2.5770599999999533E-2</v>
       </c>
       <c r="E34">
@@ -8213,7 +8213,7 @@
         <v>3.9758116999999999</v>
       </c>
       <c r="D249">
-        <f t="shared" ref="D249:D278" si="11">B249-C249</f>
+        <f t="shared" ref="D249:D312" si="11">B249-C249</f>
         <v>-4.4071699999999936E-2</v>
       </c>
       <c r="E249">
@@ -8773,7 +8773,7 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="7" t="s">
+      <c r="A279" t="s">
         <v>8</v>
       </c>
       <c r="B279">
@@ -9944,9 +9944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E554" sqref="E554"/>
+      <selection pane="bottomLeft" activeCell="C555" sqref="C555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12458,7 +12458,7 @@
         <v>4.8931040000000001</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D154" si="6">B130-C130</f>
+        <f t="shared" ref="D130:D161" si="6">B130-C130</f>
         <v>-7.0044000000000217E-2</v>
       </c>
       <c r="E130">
@@ -14169,7 +14169,7 @@
         <v>4.620298</v>
       </c>
       <c r="D220">
-        <f t="shared" ref="D220:D232" si="11">B220-C220</f>
+        <f t="shared" ref="D220:D251" si="11">B220-C220</f>
         <v>-4.0066999999999631E-2</v>
       </c>
       <c r="E220">
@@ -15674,7 +15674,7 @@
         <v>4.6667566000000003</v>
       </c>
       <c r="D299">
-        <f t="shared" ref="D299:D324" si="15">B299-C299</f>
+        <f t="shared" ref="D299:D330" si="15">B299-C299</f>
         <v>-5.6456600000000634E-2</v>
       </c>
       <c r="E299">
@@ -17573,7 +17573,7 @@
         <v>4.3591594999999996</v>
       </c>
       <c r="D395">
-        <f t="shared" ref="D395:D400" si="22">B395-C395</f>
+        <f t="shared" ref="D395:D426" si="22">B395-C395</f>
         <v>-1.4259499999999647E-2</v>
       </c>
       <c r="E395">
@@ -20154,7 +20154,7 @@
         <v>4.3558406999999999</v>
       </c>
       <c r="D530">
-        <f t="shared" ref="D530:D552" si="29">B530-C530</f>
+        <f t="shared" ref="D530:D561" si="29">B530-C530</f>
         <v>-7.134069999999948E-2</v>
       </c>
       <c r="E530">
@@ -20581,7 +20581,7 @@
       </c>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" s="1" t="s">
+      <c r="A553" t="s">
         <v>8</v>
       </c>
       <c r="B553">

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCA0844-D6D7-42E0-A3D4-188D078D466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD29FCE-548C-41B9-90A1-A4FECED8343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Sheet1" sheetId="9" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3383,9 +3382,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C281" sqref="C281"/>
+      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4082,7 +4081,7 @@
         <v>4.3566294000000001</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D65" si="3">B34-C34</f>
+        <f t="shared" ref="D34:D50" si="3">B34-C34</f>
         <v>2.5770599999999533E-2</v>
       </c>
       <c r="E34">
@@ -8213,7 +8212,7 @@
         <v>3.9758116999999999</v>
       </c>
       <c r="D249">
-        <f t="shared" ref="D249:D312" si="11">B249-C249</f>
+        <f t="shared" ref="D249:D278" si="11">B249-C249</f>
         <v>-4.4071699999999936E-2</v>
       </c>
       <c r="E249">
@@ -8388,7 +8387,7 @@
         <v>-1.0709199999999974E-2</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="12">IF(D258&lt;0,1,0)</f>
+        <f t="shared" ref="E258:E279" si="12">IF(D258&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8773,7 +8772,7 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" t="s">
+      <c r="A279" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B279">
@@ -9944,9 +9943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C555" sqref="C555"/>
+      <selection pane="bottomLeft" activeCell="A553" sqref="A553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12458,7 +12457,7 @@
         <v>4.8931040000000001</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D161" si="6">B130-C130</f>
+        <f t="shared" ref="D130:D154" si="6">B130-C130</f>
         <v>-7.0044000000000217E-2</v>
       </c>
       <c r="E130">
@@ -14169,7 +14168,7 @@
         <v>4.620298</v>
       </c>
       <c r="D220">
-        <f t="shared" ref="D220:D251" si="11">B220-C220</f>
+        <f t="shared" ref="D220:D232" si="11">B220-C220</f>
         <v>-4.0066999999999631E-2</v>
       </c>
       <c r="E220">
@@ -15674,7 +15673,7 @@
         <v>4.6667566000000003</v>
       </c>
       <c r="D299">
-        <f t="shared" ref="D299:D330" si="15">B299-C299</f>
+        <f t="shared" ref="D299:D324" si="15">B299-C299</f>
         <v>-5.6456600000000634E-2</v>
       </c>
       <c r="E299">
@@ -17573,7 +17572,7 @@
         <v>4.3591594999999996</v>
       </c>
       <c r="D395">
-        <f t="shared" ref="D395:D426" si="22">B395-C395</f>
+        <f t="shared" ref="D395:D400" si="22">B395-C395</f>
         <v>-1.4259499999999647E-2</v>
       </c>
       <c r="E395">
@@ -19853,7 +19852,7 @@
         <v>4.4069999999996057E-3</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="28">IF(D514&lt;0,1,0)</f>
+        <f t="shared" ref="E514:E553" si="28">IF(D514&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -20154,7 +20153,7 @@
         <v>4.3558406999999999</v>
       </c>
       <c r="D530">
-        <f t="shared" ref="D530:D561" si="29">B530-C530</f>
+        <f t="shared" ref="D530:D552" si="29">B530-C530</f>
         <v>-7.134069999999948E-2</v>
       </c>
       <c r="E530">
@@ -20581,7 +20580,7 @@
       </c>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" t="s">
+      <c r="A553" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B553">
@@ -25754,7 +25753,7 @@
         <v>4.2760176999999997</v>
       </c>
       <c r="D194" s="61">
-        <f t="shared" ref="D194:D257" si="3">B194-C194</f>
+        <f t="shared" ref="D194:D220" si="3">B194-C194</f>
         <v>4.3102300000000149E-2</v>
       </c>
     </row>
@@ -27186,7 +27185,7 @@
         <v>4.0088569999999999</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D97" si="3">(C66-$D$1)/($E$1-$D$1)</f>
+        <f t="shared" ref="D66:D74" si="3">(C66-$D$1)/($E$1-$D$1)</f>
         <v>0.22128337569456785</v>
       </c>
     </row>
@@ -28572,11 +28571,11 @@
         <v>66.869399999999999</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D97" si="4">B66-C66</f>
+        <f t="shared" ref="D66:D93" si="4">B66-C66</f>
         <v>6.4405979999999943</v>
       </c>
       <c r="E66" s="56">
-        <f t="shared" ref="E66:E97" si="5">D66/C66</f>
+        <f t="shared" ref="E66:E93" si="5">D66/C66</f>
         <v>9.6316072822546547E-2</v>
       </c>
     </row>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD29FCE-548C-41B9-90A1-A4FECED8343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981CE24-438E-4B50-BA47-435F872F8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>17.09.2024</t>
   </si>
   <si>
     <t>4.0020533, 3.9655619, 3.9468954, 3.9252946, 3.9024606</t>
@@ -3382,9 +3379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I280"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
+      <selection pane="bottomLeft" activeCell="A278" sqref="A278:A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8772,8 +8769,8 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="7" t="s">
-        <v>8</v>
+      <c r="A279" s="1">
+        <v>45552</v>
       </c>
       <c r="B279">
         <v>3.8404500484466548</v>
@@ -8835,7 +8832,7 @@
         <v>0.17763424000000017</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8846,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>3</v>
@@ -8936,7 +8933,7 @@
         <v>0.2452126599999998</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8947,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>3</v>
@@ -9045,13 +9042,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -9138,7 +9135,7 @@
         <v>0.21108672000000012</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -9149,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>3</v>
@@ -9239,7 +9236,7 @@
         <v>0.12120064000000035</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9250,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>3</v>
@@ -9340,7 +9337,7 @@
         <v>-5.8546799999998457E-3</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9351,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>3</v>
@@ -9441,7 +9438,7 @@
         <v>-0.15061357999999991</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9452,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>3</v>
@@ -9542,7 +9539,7 @@
         <v>-0.17148406000000022</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9553,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>3</v>
@@ -9643,7 +9640,7 @@
         <v>4.1354340000000003E-2</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -9654,7 +9651,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>3</v>
@@ -9744,7 +9741,7 @@
         <v>0.16014770000000009</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -9755,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>3</v>
@@ -9845,7 +9842,7 @@
         <v>8.9053249999999862E-2</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -9853,10 +9850,10 @@
         <v>0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>3</v>
@@ -9929,7 +9926,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="G78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -9943,7 +9940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I554"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A553" sqref="A553"/>
     </sheetView>
@@ -9965,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -9978,7 +9975,7 @@
         <v>-1.5591554401213433E-2</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>3</v>
@@ -20580,8 +20577,8 @@
       </c>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" s="7" t="s">
-        <v>8</v>
+      <c r="A553" s="1">
+        <v>45552</v>
       </c>
       <c r="B553">
         <v>4.2740402221679688</v>
@@ -20639,10 +20636,10 @@
         <v>0.15708642500000014</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" s="55" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -20785,10 +20782,10 @@
       </c>
       <c r="N5" s="22"/>
       <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="Q5" s="23">
         <f>AVERAGE(Q6:Q10)</f>
@@ -20949,10 +20946,10 @@
     <row r="12" spans="1:17">
       <c r="E12" s="33"/>
       <c r="F12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="H12" s="34">
         <f>AVERAGE(H13:H17)</f>
@@ -21005,10 +21002,10 @@
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="44" t="s">
         <v>26</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>27</v>
       </c>
       <c r="L15" s="42">
         <f>AVERAGE(L16:L20)</f>
@@ -21125,10 +21122,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>3</v>
@@ -21220,10 +21217,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>3</v>
@@ -21315,10 +21312,10 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>3</v>
@@ -21339,7 +21336,7 @@
         <v>-2.5863000000000191E-2</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -21357,7 +21354,7 @@
         <v>-2.5731600000000299E-2</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -21375,7 +21372,7 @@
         <v>-5.0774499999999279E-2</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -21408,7 +21405,7 @@
         <v>-0.14440000000000008</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -21422,7 +21419,7 @@
         <v>45049</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -21430,7 +21427,7 @@
         <v>45050</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -21438,7 +21435,7 @@
         <v>45051</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -21446,7 +21443,7 @@
         <v>45055</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -21454,7 +21451,7 @@
         <v>45056</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -21462,7 +21459,7 @@
         <v>45070</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -21470,7 +21467,7 @@
         <v>45072</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -21478,7 +21475,7 @@
         <v>45091</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -21486,7 +21483,7 @@
         <v>45096</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -21498,7 +21495,7 @@
         <v>2.8823599999999949E-2</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -21506,10 +21503,10 @@
         <v>0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>3</v>
@@ -21599,7 +21596,7 @@
         <v>2.5990239999999786E-2</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -21607,10 +21604,10 @@
         <v>0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>3</v>
@@ -21700,7 +21697,7 @@
         <v>0.22668180000000007</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -21708,10 +21705,10 @@
         <v>0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>3</v>
@@ -21806,19 +21803,19 @@
         <v>0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G77" t="s">
+        <v>43</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -21905,7 +21902,7 @@
         <v>0.13404593999999986</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -21913,10 +21910,10 @@
         <v>0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>3</v>
@@ -22006,7 +22003,7 @@
         <v>-3.2715240000000104E-2</v>
       </c>
       <c r="G90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -22014,10 +22011,10 @@
         <v>0</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>3</v>
@@ -22107,7 +22104,7 @@
         <v>-0.12862309999999991</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -22115,10 +22112,10 @@
         <v>0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>3</v>
@@ -22208,7 +22205,7 @@
         <v>6.6367939999999945E-2</v>
       </c>
       <c r="G104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -22216,10 +22213,10 @@
         <v>0</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>3</v>
@@ -22309,7 +22306,7 @@
         <v>2.6390299999999912E-2</v>
       </c>
       <c r="G111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -22317,10 +22314,10 @@
         <v>0</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>3</v>
@@ -22410,7 +22407,7 @@
         <v>-6.4464580000000105E-2</v>
       </c>
       <c r="G118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -22418,10 +22415,10 @@
         <v>0</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>3</v>
@@ -22511,7 +22508,7 @@
         <v>4.4663019999999956E-2</v>
       </c>
       <c r="G125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -22519,10 +22516,10 @@
         <v>0</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>3</v>
@@ -22612,7 +22609,7 @@
         <v>7.3425639999999959E-2</v>
       </c>
       <c r="G132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -22620,10 +22617,10 @@
         <v>0</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>3</v>
@@ -22713,7 +22710,7 @@
         <v>6.2970400000000426E-2</v>
       </c>
       <c r="G139" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -22721,10 +22718,10 @@
         <v>0</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>3</v>
@@ -22797,17 +22794,17 @@
     </row>
     <row r="146" spans="4:7">
       <c r="G146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="4:7">
       <c r="G152" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="4:7">
       <c r="G158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -22840,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -27331,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>2</v>
@@ -29133,17 +29130,17 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="65"/>
       <c r="G1" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -29157,7 +29154,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="67">
         <f>4*6.5*1.45</f>
@@ -29179,7 +29176,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="67">
         <v>25</v>
@@ -29197,7 +29194,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="67">
         <v>7</v>
@@ -29217,7 +29214,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67">
@@ -29336,7 +29333,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8">
         <v>8251.8700000000008</v>
@@ -29344,7 +29341,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="8">
         <v>7911.82</v>
@@ -29352,7 +29349,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="8">
         <v>14185.97</v>
@@ -29360,7 +29357,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="8">
         <v>11210.53</v>
@@ -29368,7 +29365,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8">
         <v>14394.74</v>
@@ -29376,7 +29373,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8">
         <v>14394.74</v>
@@ -29384,7 +29381,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="8">
         <v>10234.530000000001</v>
@@ -29392,7 +29389,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8">
         <v>10246.530000000001</v>
@@ -29400,7 +29397,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="8">
         <v>10246.530000000001</v>
@@ -29408,7 +29405,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8">
         <v>8649.5300000000007</v>
@@ -29416,7 +29413,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8">
         <v>7638.53</v>
@@ -29424,7 +29421,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8">
         <v>7938.53</v>
@@ -29432,7 +29429,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8">
         <v>7638.53</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B981CE24-438E-4B50-BA47-435F872F8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D7D04-91DD-4D78-9D8E-39CCFFC04AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="1" r:id="rId1"/>
@@ -3377,11 +3377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A278" sqref="A278:A279"/>
+      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>-3.9612280502701944E-4</v>
+        <v>-3.0930182687750581E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>4</v>
@@ -8384,7 +8384,7 @@
         <v>-1.0709199999999974E-2</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E279" si="12">IF(D258&lt;0,1,0)</f>
+        <f t="shared" ref="E258:E278" si="12">IF(D258&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8769,27 +8769,9 @@
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="1">
-        <v>45552</v>
-      </c>
-      <c r="B279">
-        <v>3.8404500484466548</v>
-      </c>
+      <c r="A279" s="1"/>
       <c r="C279">
-        <v>3.8648955821990971</v>
-      </c>
-      <c r="D279">
-        <f t="shared" ref="D279" si="13">B279-C279</f>
-        <v>-2.4445533752442294E-2</v>
-      </c>
-      <c r="E279">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="C280">
-        <v>3.8201408386230469</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9938,11 +9920,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I554"/>
+  <dimension ref="A1:I553"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A553" sqref="A553"/>
+      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19849,7 +19831,7 @@
         <v>4.4069999999996057E-3</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E553" si="28">IF(D514&lt;0,1,0)</f>
+        <f t="shared" ref="E514:E552" si="28">IF(D514&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -20577,27 +20559,9 @@
       </c>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" s="1">
-        <v>45552</v>
-      </c>
-      <c r="B553">
-        <v>4.2740402221679688</v>
-      </c>
+      <c r="A553" s="1"/>
       <c r="C553">
-        <v>4.2726669311523438</v>
-      </c>
-      <c r="D553">
-        <f t="shared" ref="D553" si="30">B553-C553</f>
-        <v>1.373291015625E-3</v>
-      </c>
-      <c r="E553">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5">
-      <c r="C554">
-        <v>4.2763209342956543</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22816,11 +22780,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D220" sqref="D220"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22847,7 +22811,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-9.4890392152945438E-3</v>
+        <v>-9.6231203083688051E-3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -25750,7 +25714,7 @@
         <v>4.2760176999999997</v>
       </c>
       <c r="D194" s="61">
-        <f t="shared" ref="D194:D220" si="3">B194-C194</f>
+        <f t="shared" ref="D194:D222" si="3">B194-C194</f>
         <v>4.3102300000000149E-2</v>
       </c>
     </row>
@@ -26148,16 +26112,70 @@
       <c r="A221" s="1">
         <v>45553</v>
       </c>
+      <c r="B221" s="61">
+        <v>4.2707899999999999</v>
+      </c>
       <c r="C221" s="61">
         <v>4.290273</v>
+      </c>
+      <c r="D221" s="61">
+        <f t="shared" si="3"/>
+        <v>-1.9483000000000139E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>45554</v>
       </c>
+      <c r="B222" s="61">
+        <v>4.2677699999999996</v>
+      </c>
       <c r="C222" s="61">
         <v>4.2968970000000004</v>
+      </c>
+      <c r="D222" s="61">
+        <f t="shared" si="3"/>
+        <v>-2.9127000000000791E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>45555</v>
+      </c>
+      <c r="C223" s="61">
+        <v>4.2846799999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>45558</v>
+      </c>
+      <c r="C224" s="61">
+        <v>4.2898699999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>45559</v>
+      </c>
+      <c r="C225" s="61">
+        <v>4.2868066000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>45560</v>
+      </c>
+      <c r="C226" s="61">
+        <v>4.2838089999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>45561</v>
+      </c>
+      <c r="C227" s="61">
+        <v>4.2746544000000002</v>
       </c>
     </row>
   </sheetData>
